--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14065092145007</v>
+        <v>18.14065092145002</v>
       </c>
       <c r="C2">
-        <v>12.64068979876206</v>
+        <v>12.64068979876213</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.65434771260889</v>
+        <v>6.654347712608891</v>
       </c>
       <c r="F2">
-        <v>29.3963238462955</v>
+        <v>29.39632384629548</v>
       </c>
       <c r="G2">
-        <v>21.04511016870711</v>
+        <v>21.04511016870707</v>
       </c>
       <c r="H2">
-        <v>18.01233769747004</v>
+        <v>18.01233769747003</v>
       </c>
       <c r="I2">
-        <v>9.41903405453224</v>
+        <v>9.419034054532172</v>
       </c>
       <c r="J2">
-        <v>16.12554281156218</v>
+        <v>16.12554281156217</v>
       </c>
       <c r="K2">
-        <v>9.147843208448608</v>
+        <v>9.147843208448645</v>
       </c>
       <c r="L2">
-        <v>14.2099384825941</v>
+        <v>14.20993848259407</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90062339911982</v>
+        <v>16.90062339911971</v>
       </c>
       <c r="C3">
-        <v>11.78015899636592</v>
+        <v>11.78015899636611</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.37435255583677</v>
+        <v>6.374352555836764</v>
       </c>
       <c r="F3">
-        <v>27.65608705724314</v>
+        <v>27.65608705724316</v>
       </c>
       <c r="G3">
-        <v>20.4674470995087</v>
+        <v>20.46744709950875</v>
       </c>
       <c r="H3">
-        <v>17.80518082989968</v>
+        <v>17.80518082989975</v>
       </c>
       <c r="I3">
-        <v>9.608264974897633</v>
+        <v>9.6082649748977</v>
       </c>
       <c r="J3">
-        <v>15.06456385387691</v>
+        <v>15.06456385387689</v>
       </c>
       <c r="K3">
-        <v>8.540907203834927</v>
+        <v>8.540907203834966</v>
       </c>
       <c r="L3">
-        <v>13.31392865226421</v>
+        <v>13.31392865226418</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.09769562871001</v>
+        <v>16.09769562871004</v>
       </c>
       <c r="C4">
-        <v>11.22472241746841</v>
+        <v>11.22472241746828</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.199918395330672</v>
+        <v>6.199918395330712</v>
       </c>
       <c r="F4">
-        <v>26.55908752667702</v>
+        <v>26.55908752667705</v>
       </c>
       <c r="G4">
-        <v>20.13150469015881</v>
+        <v>20.13150469015882</v>
       </c>
       <c r="H4">
-        <v>17.69851250959402</v>
+        <v>17.69851250959399</v>
       </c>
       <c r="I4">
-        <v>9.726045376417606</v>
+        <v>9.726045376417543</v>
       </c>
       <c r="J4">
-        <v>14.37902398446776</v>
+        <v>14.37902398446777</v>
       </c>
       <c r="K4">
-        <v>8.148641620325145</v>
+        <v>8.148641620325089</v>
       </c>
       <c r="L4">
-        <v>12.73579819707071</v>
+        <v>12.73579819707072</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.75993778892119</v>
+        <v>15.7599377889212</v>
       </c>
       <c r="C5">
-        <v>10.99148856408366</v>
+        <v>10.99148856408369</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.128297985513475</v>
+        <v>6.128297985513444</v>
       </c>
       <c r="F5">
-        <v>26.10529872781192</v>
+        <v>26.1052987278119</v>
       </c>
       <c r="G5">
-        <v>19.99929848952838</v>
+        <v>19.99929848952836</v>
       </c>
       <c r="H5">
-        <v>17.6599812372653</v>
+        <v>17.65998123726529</v>
       </c>
       <c r="I5">
-        <v>9.774486457658979</v>
+        <v>9.774486457658877</v>
       </c>
       <c r="J5">
-        <v>14.09101833208851</v>
+        <v>14.09101833208852</v>
       </c>
       <c r="K5">
-        <v>7.983822621560561</v>
+        <v>7.983822621560595</v>
       </c>
       <c r="L5">
-        <v>12.49314463963372</v>
+        <v>12.49314463963375</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>15.7032125335873</v>
       </c>
       <c r="C6">
-        <v>10.95234193067371</v>
+        <v>10.95234193067378</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.116376067390887</v>
+        <v>6.11637606739091</v>
       </c>
       <c r="F6">
         <v>26.02955375968181</v>
       </c>
       <c r="G6">
-        <v>19.97762837471024</v>
+        <v>19.97762837471023</v>
       </c>
       <c r="H6">
         <v>17.65387459916338</v>
       </c>
       <c r="I6">
-        <v>9.782558157972366</v>
+        <v>9.782558157972401</v>
       </c>
       <c r="J6">
-        <v>14.04267144590569</v>
+        <v>14.04267144590573</v>
       </c>
       <c r="K6">
-        <v>7.956153535903216</v>
+        <v>7.956153535903231</v>
       </c>
       <c r="L6">
-        <v>12.45242531207871</v>
+        <v>12.4524253120787</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09318340112494</v>
+        <v>16.09318340112489</v>
       </c>
       <c r="C7">
-        <v>11.2216049406014</v>
+        <v>11.22160494060145</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.198954536642413</v>
+        <v>6.1989545366425</v>
       </c>
       <c r="F7">
-        <v>26.5529942900964</v>
+        <v>26.55299429009633</v>
       </c>
       <c r="G7">
-        <v>20.12970274429241</v>
+        <v>20.12970274429242</v>
       </c>
       <c r="H7">
-        <v>17.69797317679284</v>
+        <v>17.69797317679292</v>
       </c>
       <c r="I7">
-        <v>9.726696813008402</v>
+        <v>9.726696813008624</v>
       </c>
       <c r="J7">
-        <v>14.37517491555354</v>
+        <v>14.3751749155535</v>
       </c>
       <c r="K7">
-        <v>8.146438972959254</v>
+        <v>8.146438972959203</v>
       </c>
       <c r="L7">
-        <v>12.7325542974532</v>
+        <v>12.73255429745313</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,31 +643,31 @@
         <v>17.72164324226872</v>
       </c>
       <c r="C8">
-        <v>12.34954412291964</v>
+        <v>12.3495441229197</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.558381061784568</v>
+        <v>6.558381061784557</v>
       </c>
       <c r="F8">
         <v>28.8024157901548</v>
       </c>
       <c r="G8">
-        <v>20.84203170844247</v>
+        <v>20.84203170844243</v>
       </c>
       <c r="H8">
-        <v>17.93651703543073</v>
+        <v>17.9365170354307</v>
       </c>
       <c r="I8">
-        <v>9.483978100730015</v>
+        <v>9.483978100730017</v>
       </c>
       <c r="J8">
-        <v>15.76674790796644</v>
+        <v>15.76674790796645</v>
       </c>
       <c r="K8">
-        <v>8.942615809503875</v>
+        <v>8.9426158095039</v>
       </c>
       <c r="L8">
         <v>13.90678050697836</v>
@@ -681,34 +681,34 @@
         <v>20.59077400093156</v>
       </c>
       <c r="C9">
-        <v>14.35084951944976</v>
+        <v>14.35084951944961</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.239705703717632</v>
+        <v>7.239705703717614</v>
       </c>
       <c r="F9">
-        <v>32.97485930665198</v>
+        <v>32.97485930665201</v>
       </c>
       <c r="G9">
-        <v>22.38835979184997</v>
+        <v>22.38835979185005</v>
       </c>
       <c r="H9">
-        <v>18.57680588737732</v>
+        <v>18.57680588737738</v>
       </c>
       <c r="I9">
-        <v>9.018473947207321</v>
+        <v>9.018473947207422</v>
       </c>
       <c r="J9">
-        <v>18.22888363151294</v>
+        <v>18.22888363151288</v>
       </c>
       <c r="K9">
-        <v>10.35039746484258</v>
+        <v>10.35039746484255</v>
       </c>
       <c r="L9">
-        <v>15.9894242674866</v>
+        <v>15.98942426748661</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.50907572066848</v>
+        <v>22.50907572066841</v>
       </c>
       <c r="C10">
-        <v>15.69933631023791</v>
+        <v>15.6993363102379</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.722118036861201</v>
+        <v>7.722118036861152</v>
       </c>
       <c r="F10">
-        <v>35.97831154563506</v>
+        <v>35.97831154563508</v>
       </c>
       <c r="G10">
-        <v>23.61696100668926</v>
+        <v>23.61696100668934</v>
       </c>
       <c r="H10">
-        <v>19.16509972303978</v>
+        <v>19.16509972303986</v>
       </c>
       <c r="I10">
-        <v>8.679574206534726</v>
+        <v>8.679574206534921</v>
       </c>
       <c r="J10">
-        <v>19.88138230330391</v>
+        <v>19.88138230330382</v>
       </c>
       <c r="K10">
         <v>11.29436672999759</v>
       </c>
       <c r="L10">
-        <v>17.38920095726044</v>
+        <v>17.38920095726039</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.34252201504233</v>
+        <v>23.34252201504231</v>
       </c>
       <c r="C11">
-        <v>16.28796822144766</v>
+        <v>16.28796822144772</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.937082995929587</v>
+        <v>7.937082995929591</v>
       </c>
       <c r="F11">
-        <v>37.35845048313124</v>
+        <v>37.35845048313129</v>
       </c>
       <c r="G11">
-        <v>24.19654931814621</v>
+        <v>24.19654931814628</v>
       </c>
       <c r="H11">
-        <v>19.4609650838763</v>
+        <v>19.4609650838764</v>
       </c>
       <c r="I11">
-        <v>8.525273372641152</v>
+        <v>8.525273372641195</v>
       </c>
       <c r="J11">
         <v>20.60078407375889</v>
       </c>
       <c r="K11">
-        <v>11.70502097406573</v>
+        <v>11.70502097406572</v>
       </c>
       <c r="L11">
-        <v>17.998787366661</v>
+        <v>17.99878736666097</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.65266524252417</v>
+        <v>23.65266524252426</v>
       </c>
       <c r="C12">
-        <v>16.50745315007573</v>
+        <v>16.50745315007575</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.017808871426025</v>
+        <v>8.017808871426043</v>
       </c>
       <c r="F12">
         <v>37.87449760704862</v>
       </c>
       <c r="G12">
-        <v>24.4190772634112</v>
+        <v>24.41907726341114</v>
       </c>
       <c r="H12">
-        <v>19.57728035152384</v>
+        <v>19.57728035152374</v>
       </c>
       <c r="I12">
-        <v>8.466751439697736</v>
+        <v>8.466751439697601</v>
       </c>
       <c r="J12">
-        <v>20.86870467461377</v>
+        <v>20.86870467461386</v>
       </c>
       <c r="K12">
-        <v>11.85790394306401</v>
+        <v>11.85790394306397</v>
       </c>
       <c r="L12">
-        <v>18.22582059025861</v>
+        <v>18.22582059025865</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.58611049157161</v>
+        <v>23.58611049157162</v>
       </c>
       <c r="C13">
-        <v>16.4603325744197</v>
+        <v>16.46033257441966</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.000453585519129</v>
+        <v>8.000453585519121</v>
       </c>
       <c r="F13">
-        <v>37.76364671547363</v>
+        <v>37.76364671547364</v>
       </c>
       <c r="G13">
         <v>24.37101465975159</v>
       </c>
       <c r="H13">
-        <v>19.55203603525586</v>
+        <v>19.55203603525584</v>
       </c>
       <c r="I13">
-        <v>8.479360476057002</v>
+        <v>8.479360476057067</v>
       </c>
       <c r="J13">
         <v>20.81120084311562</v>
       </c>
       <c r="K13">
-        <v>11.82509323478343</v>
+        <v>11.82509323478346</v>
       </c>
       <c r="L13">
-        <v>18.17709228553675</v>
+        <v>18.17709228553678</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.36814616713357</v>
+        <v>23.36814616713368</v>
       </c>
       <c r="C14">
-        <v>16.30609295201516</v>
+        <v>16.30609295201508</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.943738063867706</v>
+        <v>7.94373806386773</v>
       </c>
       <c r="F14">
-        <v>37.40103660598794</v>
+        <v>37.40103660598799</v>
       </c>
       <c r="G14">
-        <v>24.21479514034026</v>
+        <v>24.21479514034031</v>
       </c>
       <c r="H14">
-        <v>19.47044742742562</v>
+        <v>19.47044742742566</v>
       </c>
       <c r="I14">
-        <v>8.520461009593509</v>
+        <v>8.520461009593452</v>
       </c>
       <c r="J14">
-        <v>20.62291536925717</v>
+        <v>20.62291536925721</v>
       </c>
       <c r="K14">
-        <v>11.71765085667926</v>
+        <v>11.71765085667922</v>
       </c>
       <c r="L14">
-        <v>18.0175411130225</v>
+        <v>18.01754111302249</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.23393041535902</v>
+        <v>23.23393041535907</v>
       </c>
       <c r="C15">
-        <v>16.21117641290395</v>
+        <v>16.21117641290386</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.90890930511959</v>
+        <v>7.908909305119638</v>
       </c>
       <c r="F15">
-        <v>37.17807693121079</v>
+        <v>37.17807693121078</v>
       </c>
       <c r="G15">
-        <v>24.11950623053334</v>
+        <v>24.11950623053331</v>
       </c>
       <c r="H15">
-        <v>19.42103560089043</v>
+        <v>19.42103560089037</v>
       </c>
       <c r="I15">
-        <v>8.54562209621726</v>
+        <v>8.545622096217262</v>
       </c>
       <c r="J15">
-        <v>20.50700355099182</v>
+        <v>20.50700355099187</v>
       </c>
       <c r="K15">
-        <v>11.65150008155987</v>
+        <v>11.65150008155977</v>
       </c>
       <c r="L15">
-        <v>17.91931937648432</v>
+        <v>17.91931937648425</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.45383361674305</v>
+        <v>22.45383361674314</v>
       </c>
       <c r="C16">
         <v>15.66038115722261</v>
@@ -953,25 +953,25 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.707976330940462</v>
+        <v>7.707976330940498</v>
       </c>
       <c r="F16">
-        <v>35.88718361036247</v>
+        <v>35.88718361036254</v>
       </c>
       <c r="G16">
-        <v>23.57950558501056</v>
+        <v>23.57950558501052</v>
       </c>
       <c r="H16">
-        <v>19.14635094249265</v>
+        <v>19.14635094249257</v>
       </c>
       <c r="I16">
-        <v>8.689649396797227</v>
+        <v>8.689649396797067</v>
       </c>
       <c r="J16">
-        <v>19.83372941313094</v>
+        <v>19.833729413131</v>
       </c>
       <c r="K16">
-        <v>11.26715821291543</v>
+        <v>11.26715821291538</v>
       </c>
       <c r="L16">
         <v>17.34882473578762</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.96534736212857</v>
+        <v>21.96534736212859</v>
       </c>
       <c r="C17">
-        <v>15.31623511375461</v>
+        <v>15.31623511375467</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.583535217124986</v>
+        <v>7.583535217124997</v>
       </c>
       <c r="F17">
-        <v>35.08331908280094</v>
+        <v>35.08331908280095</v>
       </c>
       <c r="G17">
-        <v>23.25357565815891</v>
+        <v>23.25357565815889</v>
       </c>
       <c r="H17">
-        <v>18.98522755688798</v>
+        <v>18.98522755688796</v>
       </c>
       <c r="I17">
-        <v>8.777921715595506</v>
+        <v>8.777921715595442</v>
       </c>
       <c r="J17">
-        <v>19.4125173100725</v>
+        <v>19.41251731007251</v>
       </c>
       <c r="K17">
-        <v>11.02662254456384</v>
+        <v>11.02662254456386</v>
       </c>
       <c r="L17">
-        <v>16.99195330694599</v>
+        <v>16.99195330694601</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68068226738894</v>
+        <v>21.68068226738895</v>
       </c>
       <c r="C18">
-        <v>15.11594714987226</v>
+        <v>15.11594714987213</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.51153879985972</v>
+        <v>7.51153879985968</v>
       </c>
       <c r="F18">
-        <v>34.61775987660825</v>
+        <v>34.61775987660824</v>
       </c>
       <c r="G18">
-        <v>23.06805075826573</v>
+        <v>23.06805075826576</v>
       </c>
       <c r="H18">
-        <v>18.89519942974334</v>
+        <v>18.89519942974338</v>
       </c>
       <c r="I18">
-        <v>8.828685730795971</v>
+        <v>8.828685730796067</v>
       </c>
       <c r="J18">
-        <v>19.16719457903638</v>
+        <v>19.16719457903634</v>
       </c>
       <c r="K18">
-        <v>10.8865018721876</v>
+        <v>10.88650187218762</v>
       </c>
       <c r="L18">
-        <v>16.78412496815299</v>
+        <v>16.78412496815301</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>21.58365896179764</v>
       </c>
       <c r="C19">
-        <v>15.04772616565072</v>
+        <v>15.04772616565059</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.487090859567146</v>
+        <v>7.487090859567155</v>
       </c>
       <c r="F19">
-        <v>34.47036427810781</v>
+        <v>34.47036427810777</v>
       </c>
       <c r="G19">
-        <v>23.00556688333889</v>
+        <v>23.00556688333891</v>
       </c>
       <c r="H19">
-        <v>18.86516538041856</v>
+        <v>18.86516538041859</v>
       </c>
       <c r="I19">
-        <v>8.845874303288953</v>
+        <v>8.845874303289021</v>
       </c>
       <c r="J19">
-        <v>19.08360399166326</v>
+        <v>19.08360399166323</v>
       </c>
       <c r="K19">
-        <v>10.83875309873163</v>
+        <v>10.83875309873162</v>
       </c>
       <c r="L19">
-        <v>16.71331431837705</v>
+        <v>16.71331431837706</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01772937133401</v>
+        <v>22.01772937133399</v>
       </c>
       <c r="C20">
-        <v>15.35311163910024</v>
+        <v>15.35311163910019</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.59682604113272</v>
+        <v>7.596826041132672</v>
       </c>
       <c r="F20">
-        <v>35.16935088417434</v>
+        <v>35.16935088417431</v>
       </c>
       <c r="G20">
-        <v>23.28807009126818</v>
+        <v>23.2880700912682</v>
       </c>
       <c r="H20">
-        <v>19.00210404386381</v>
+        <v>19.00210404386385</v>
       </c>
       <c r="I20">
-        <v>8.768526297248936</v>
+        <v>8.768526297249002</v>
       </c>
       <c r="J20">
         <v>19.45767098127209</v>
       </c>
       <c r="K20">
-        <v>11.05241074061372</v>
+        <v>11.05241074061374</v>
       </c>
       <c r="L20">
-        <v>17.03020767132224</v>
+        <v>17.03020767132223</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.43231443775808</v>
+        <v>23.43231443775801</v>
       </c>
       <c r="C21">
-        <v>16.35148834010164</v>
+        <v>16.35148834010161</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.960415346792252</v>
+        <v>7.960415346792201</v>
       </c>
       <c r="F21">
-        <v>37.50772081261054</v>
+        <v>37.50772081261052</v>
       </c>
       <c r="G21">
-        <v>24.2605970457211</v>
+        <v>24.26059704572112</v>
       </c>
       <c r="H21">
-        <v>19.49429414148482</v>
+        <v>19.49429414148488</v>
       </c>
       <c r="I21">
-        <v>8.508391879049221</v>
+        <v>8.508391879049249</v>
       </c>
       <c r="J21">
-        <v>20.67834027980616</v>
+        <v>20.6783402798061</v>
       </c>
       <c r="K21">
-        <v>11.7492798348747</v>
+        <v>11.74927983487474</v>
       </c>
       <c r="L21">
-        <v>18.06450749295636</v>
+        <v>18.06450749295633</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.32506601033489</v>
+        <v>24.32506601033482</v>
       </c>
       <c r="C22">
-        <v>16.98414847159128</v>
+        <v>16.9841484715913</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.194091128882009</v>
+        <v>8.194091128881983</v>
       </c>
       <c r="F22">
-        <v>38.99774703235703</v>
+        <v>38.99774703235697</v>
       </c>
       <c r="G22">
-        <v>24.91404066463198</v>
+        <v>24.91404066463196</v>
       </c>
       <c r="H22">
-        <v>19.84100690867678</v>
+        <v>19.8410069086768</v>
       </c>
       <c r="I22">
-        <v>8.337807196026178</v>
+        <v>8.337807196026304</v>
       </c>
       <c r="J22">
-        <v>21.44996249492489</v>
+        <v>21.44996249492482</v>
       </c>
       <c r="K22">
-        <v>12.1894764609925</v>
+        <v>12.18947646099252</v>
       </c>
       <c r="L22">
         <v>18.71836910372043</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85143287824068</v>
+        <v>23.85143287824064</v>
       </c>
       <c r="C23">
-        <v>16.64824728264305</v>
+        <v>16.64824728264315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.069742927033918</v>
+        <v>8.069742927033968</v>
       </c>
       <c r="F23">
-        <v>38.20591294258829</v>
+        <v>38.20591294258824</v>
       </c>
       <c r="G23">
-        <v>24.56361903701508</v>
+        <v>24.56361903701502</v>
       </c>
       <c r="H23">
-        <v>19.65359568960622</v>
+        <v>19.65359568960612</v>
       </c>
       <c r="I23">
-        <v>8.428929327227937</v>
+        <v>8.428929327227836</v>
       </c>
       <c r="J23">
-        <v>21.04047321887178</v>
+        <v>21.0404732188718</v>
       </c>
       <c r="K23">
-        <v>11.95590352844503</v>
+        <v>11.95590352844497</v>
       </c>
       <c r="L23">
-        <v>18.37137587615242</v>
+        <v>18.37137587615238</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99405940063848</v>
+        <v>21.99405940063842</v>
       </c>
       <c r="C24">
-        <v>15.33644735386565</v>
+        <v>15.33644735386584</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>7.590818669820268</v>
       </c>
       <c r="F24">
-        <v>35.13047042318974</v>
+        <v>35.13047042318982</v>
       </c>
       <c r="G24">
-        <v>23.27246938048496</v>
+        <v>23.27246938048497</v>
       </c>
       <c r="H24">
-        <v>18.99446608988361</v>
+        <v>18.99446608988365</v>
       </c>
       <c r="I24">
-        <v>8.772773913516133</v>
+        <v>8.772773913516072</v>
       </c>
       <c r="J24">
-        <v>19.43726686726328</v>
+        <v>19.43726686726333</v>
       </c>
       <c r="K24">
-        <v>11.04075761374097</v>
+        <v>11.04075761374098</v>
       </c>
       <c r="L24">
-        <v>17.01292116059973</v>
+        <v>17.01292116059972</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,7 +1289,7 @@
         <v>19.84851936997087</v>
       </c>
       <c r="C25">
-        <v>13.83135572817059</v>
+        <v>13.83135572817066</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,25 +1298,25 @@
         <v>7.058349112870071</v>
       </c>
       <c r="F25">
-        <v>31.8730212189623</v>
+        <v>31.87302121896235</v>
       </c>
       <c r="G25">
         <v>21.95392009139815</v>
       </c>
       <c r="H25">
-        <v>18.38378810924316</v>
+        <v>18.38378810924314</v>
       </c>
       <c r="I25">
-        <v>9.143606428405416</v>
+        <v>9.143606428405322</v>
       </c>
       <c r="J25">
-        <v>17.59077730525415</v>
+        <v>17.59077730525418</v>
       </c>
       <c r="K25">
-        <v>9.98567683531647</v>
+        <v>9.985676835316477</v>
       </c>
       <c r="L25">
-        <v>15.44922807861786</v>
+        <v>15.44922807861789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14065092145002</v>
+        <v>18.14065092145007</v>
       </c>
       <c r="C2">
-        <v>12.64068979876213</v>
+        <v>12.64068979876206</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.654347712608891</v>
+        <v>6.65434771260889</v>
       </c>
       <c r="F2">
-        <v>29.39632384629548</v>
+        <v>29.3963238462955</v>
       </c>
       <c r="G2">
-        <v>21.04511016870707</v>
+        <v>21.04511016870711</v>
       </c>
       <c r="H2">
-        <v>18.01233769747003</v>
+        <v>18.01233769747004</v>
       </c>
       <c r="I2">
-        <v>9.419034054532172</v>
+        <v>9.41903405453224</v>
       </c>
       <c r="J2">
-        <v>16.12554281156217</v>
+        <v>16.12554281156218</v>
       </c>
       <c r="K2">
-        <v>9.147843208448645</v>
+        <v>9.147843208448608</v>
       </c>
       <c r="L2">
-        <v>14.20993848259407</v>
+        <v>14.2099384825941</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90062339911971</v>
+        <v>16.90062339911982</v>
       </c>
       <c r="C3">
-        <v>11.78015899636611</v>
+        <v>11.78015899636592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.374352555836764</v>
+        <v>6.37435255583677</v>
       </c>
       <c r="F3">
-        <v>27.65608705724316</v>
+        <v>27.65608705724314</v>
       </c>
       <c r="G3">
-        <v>20.46744709950875</v>
+        <v>20.4674470995087</v>
       </c>
       <c r="H3">
-        <v>17.80518082989975</v>
+        <v>17.80518082989968</v>
       </c>
       <c r="I3">
-        <v>9.6082649748977</v>
+        <v>9.608264974897633</v>
       </c>
       <c r="J3">
-        <v>15.06456385387689</v>
+        <v>15.06456385387691</v>
       </c>
       <c r="K3">
-        <v>8.540907203834966</v>
+        <v>8.540907203834927</v>
       </c>
       <c r="L3">
-        <v>13.31392865226418</v>
+        <v>13.31392865226421</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.09769562871004</v>
+        <v>16.09769562871001</v>
       </c>
       <c r="C4">
-        <v>11.22472241746828</v>
+        <v>11.22472241746841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.199918395330712</v>
+        <v>6.199918395330672</v>
       </c>
       <c r="F4">
-        <v>26.55908752667705</v>
+        <v>26.55908752667702</v>
       </c>
       <c r="G4">
-        <v>20.13150469015882</v>
+        <v>20.13150469015881</v>
       </c>
       <c r="H4">
-        <v>17.69851250959399</v>
+        <v>17.69851250959402</v>
       </c>
       <c r="I4">
-        <v>9.726045376417543</v>
+        <v>9.726045376417606</v>
       </c>
       <c r="J4">
-        <v>14.37902398446777</v>
+        <v>14.37902398446776</v>
       </c>
       <c r="K4">
-        <v>8.148641620325089</v>
+        <v>8.148641620325145</v>
       </c>
       <c r="L4">
-        <v>12.73579819707072</v>
+        <v>12.73579819707071</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.7599377889212</v>
+        <v>15.75993778892119</v>
       </c>
       <c r="C5">
-        <v>10.99148856408369</v>
+        <v>10.99148856408366</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.128297985513444</v>
+        <v>6.128297985513475</v>
       </c>
       <c r="F5">
-        <v>26.1052987278119</v>
+        <v>26.10529872781192</v>
       </c>
       <c r="G5">
-        <v>19.99929848952836</v>
+        <v>19.99929848952838</v>
       </c>
       <c r="H5">
-        <v>17.65998123726529</v>
+        <v>17.6599812372653</v>
       </c>
       <c r="I5">
-        <v>9.774486457658877</v>
+        <v>9.774486457658979</v>
       </c>
       <c r="J5">
-        <v>14.09101833208852</v>
+        <v>14.09101833208851</v>
       </c>
       <c r="K5">
-        <v>7.983822621560595</v>
+        <v>7.983822621560561</v>
       </c>
       <c r="L5">
-        <v>12.49314463963375</v>
+        <v>12.49314463963372</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,34 +567,34 @@
         <v>15.7032125335873</v>
       </c>
       <c r="C6">
-        <v>10.95234193067378</v>
+        <v>10.95234193067371</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.11637606739091</v>
+        <v>6.116376067390887</v>
       </c>
       <c r="F6">
         <v>26.02955375968181</v>
       </c>
       <c r="G6">
-        <v>19.97762837471023</v>
+        <v>19.97762837471024</v>
       </c>
       <c r="H6">
         <v>17.65387459916338</v>
       </c>
       <c r="I6">
-        <v>9.782558157972401</v>
+        <v>9.782558157972366</v>
       </c>
       <c r="J6">
-        <v>14.04267144590573</v>
+        <v>14.04267144590569</v>
       </c>
       <c r="K6">
-        <v>7.956153535903231</v>
+        <v>7.956153535903216</v>
       </c>
       <c r="L6">
-        <v>12.4524253120787</v>
+        <v>12.45242531207871</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09318340112489</v>
+        <v>16.09318340112494</v>
       </c>
       <c r="C7">
-        <v>11.22160494060145</v>
+        <v>11.2216049406014</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.1989545366425</v>
+        <v>6.198954536642413</v>
       </c>
       <c r="F7">
-        <v>26.55299429009633</v>
+        <v>26.5529942900964</v>
       </c>
       <c r="G7">
-        <v>20.12970274429242</v>
+        <v>20.12970274429241</v>
       </c>
       <c r="H7">
-        <v>17.69797317679292</v>
+        <v>17.69797317679284</v>
       </c>
       <c r="I7">
-        <v>9.726696813008624</v>
+        <v>9.726696813008402</v>
       </c>
       <c r="J7">
-        <v>14.3751749155535</v>
+        <v>14.37517491555354</v>
       </c>
       <c r="K7">
-        <v>8.146438972959203</v>
+        <v>8.146438972959254</v>
       </c>
       <c r="L7">
-        <v>12.73255429745313</v>
+        <v>12.7325542974532</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,31 +643,31 @@
         <v>17.72164324226872</v>
       </c>
       <c r="C8">
-        <v>12.3495441229197</v>
+        <v>12.34954412291964</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.558381061784557</v>
+        <v>6.558381061784568</v>
       </c>
       <c r="F8">
         <v>28.8024157901548</v>
       </c>
       <c r="G8">
-        <v>20.84203170844243</v>
+        <v>20.84203170844247</v>
       </c>
       <c r="H8">
-        <v>17.9365170354307</v>
+        <v>17.93651703543073</v>
       </c>
       <c r="I8">
-        <v>9.483978100730017</v>
+        <v>9.483978100730015</v>
       </c>
       <c r="J8">
-        <v>15.76674790796645</v>
+        <v>15.76674790796644</v>
       </c>
       <c r="K8">
-        <v>8.9426158095039</v>
+        <v>8.942615809503875</v>
       </c>
       <c r="L8">
         <v>13.90678050697836</v>
@@ -681,34 +681,34 @@
         <v>20.59077400093156</v>
       </c>
       <c r="C9">
-        <v>14.35084951944961</v>
+        <v>14.35084951944976</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.239705703717614</v>
+        <v>7.239705703717632</v>
       </c>
       <c r="F9">
-        <v>32.97485930665201</v>
+        <v>32.97485930665198</v>
       </c>
       <c r="G9">
-        <v>22.38835979185005</v>
+        <v>22.38835979184997</v>
       </c>
       <c r="H9">
-        <v>18.57680588737738</v>
+        <v>18.57680588737732</v>
       </c>
       <c r="I9">
-        <v>9.018473947207422</v>
+        <v>9.018473947207321</v>
       </c>
       <c r="J9">
-        <v>18.22888363151288</v>
+        <v>18.22888363151294</v>
       </c>
       <c r="K9">
-        <v>10.35039746484255</v>
+        <v>10.35039746484258</v>
       </c>
       <c r="L9">
-        <v>15.98942426748661</v>
+        <v>15.9894242674866</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.50907572066841</v>
+        <v>22.50907572066848</v>
       </c>
       <c r="C10">
-        <v>15.6993363102379</v>
+        <v>15.69933631023791</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.722118036861152</v>
+        <v>7.722118036861201</v>
       </c>
       <c r="F10">
-        <v>35.97831154563508</v>
+        <v>35.97831154563506</v>
       </c>
       <c r="G10">
-        <v>23.61696100668934</v>
+        <v>23.61696100668926</v>
       </c>
       <c r="H10">
-        <v>19.16509972303986</v>
+        <v>19.16509972303978</v>
       </c>
       <c r="I10">
-        <v>8.679574206534921</v>
+        <v>8.679574206534726</v>
       </c>
       <c r="J10">
-        <v>19.88138230330382</v>
+        <v>19.88138230330391</v>
       </c>
       <c r="K10">
         <v>11.29436672999759</v>
       </c>
       <c r="L10">
-        <v>17.38920095726039</v>
+        <v>17.38920095726044</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.34252201504231</v>
+        <v>23.34252201504233</v>
       </c>
       <c r="C11">
-        <v>16.28796822144772</v>
+        <v>16.28796822144766</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.937082995929591</v>
+        <v>7.937082995929587</v>
       </c>
       <c r="F11">
-        <v>37.35845048313129</v>
+        <v>37.35845048313124</v>
       </c>
       <c r="G11">
-        <v>24.19654931814628</v>
+        <v>24.19654931814621</v>
       </c>
       <c r="H11">
-        <v>19.4609650838764</v>
+        <v>19.4609650838763</v>
       </c>
       <c r="I11">
-        <v>8.525273372641195</v>
+        <v>8.525273372641152</v>
       </c>
       <c r="J11">
         <v>20.60078407375889</v>
       </c>
       <c r="K11">
-        <v>11.70502097406572</v>
+        <v>11.70502097406573</v>
       </c>
       <c r="L11">
-        <v>17.99878736666097</v>
+        <v>17.998787366661</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.65266524252426</v>
+        <v>23.65266524252417</v>
       </c>
       <c r="C12">
-        <v>16.50745315007575</v>
+        <v>16.50745315007573</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.017808871426043</v>
+        <v>8.017808871426025</v>
       </c>
       <c r="F12">
         <v>37.87449760704862</v>
       </c>
       <c r="G12">
-        <v>24.41907726341114</v>
+        <v>24.4190772634112</v>
       </c>
       <c r="H12">
-        <v>19.57728035152374</v>
+        <v>19.57728035152384</v>
       </c>
       <c r="I12">
-        <v>8.466751439697601</v>
+        <v>8.466751439697736</v>
       </c>
       <c r="J12">
-        <v>20.86870467461386</v>
+        <v>20.86870467461377</v>
       </c>
       <c r="K12">
-        <v>11.85790394306397</v>
+        <v>11.85790394306401</v>
       </c>
       <c r="L12">
-        <v>18.22582059025865</v>
+        <v>18.22582059025861</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.58611049157162</v>
+        <v>23.58611049157161</v>
       </c>
       <c r="C13">
-        <v>16.46033257441966</v>
+        <v>16.4603325744197</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.000453585519121</v>
+        <v>8.000453585519129</v>
       </c>
       <c r="F13">
-        <v>37.76364671547364</v>
+        <v>37.76364671547363</v>
       </c>
       <c r="G13">
         <v>24.37101465975159</v>
       </c>
       <c r="H13">
-        <v>19.55203603525584</v>
+        <v>19.55203603525586</v>
       </c>
       <c r="I13">
-        <v>8.479360476057067</v>
+        <v>8.479360476057002</v>
       </c>
       <c r="J13">
         <v>20.81120084311562</v>
       </c>
       <c r="K13">
-        <v>11.82509323478346</v>
+        <v>11.82509323478343</v>
       </c>
       <c r="L13">
-        <v>18.17709228553678</v>
+        <v>18.17709228553675</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.36814616713368</v>
+        <v>23.36814616713357</v>
       </c>
       <c r="C14">
-        <v>16.30609295201508</v>
+        <v>16.30609295201516</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.94373806386773</v>
+        <v>7.943738063867706</v>
       </c>
       <c r="F14">
-        <v>37.40103660598799</v>
+        <v>37.40103660598794</v>
       </c>
       <c r="G14">
-        <v>24.21479514034031</v>
+        <v>24.21479514034026</v>
       </c>
       <c r="H14">
-        <v>19.47044742742566</v>
+        <v>19.47044742742562</v>
       </c>
       <c r="I14">
-        <v>8.520461009593452</v>
+        <v>8.520461009593509</v>
       </c>
       <c r="J14">
-        <v>20.62291536925721</v>
+        <v>20.62291536925717</v>
       </c>
       <c r="K14">
-        <v>11.71765085667922</v>
+        <v>11.71765085667926</v>
       </c>
       <c r="L14">
-        <v>18.01754111302249</v>
+        <v>18.0175411130225</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.23393041535907</v>
+        <v>23.23393041535902</v>
       </c>
       <c r="C15">
-        <v>16.21117641290386</v>
+        <v>16.21117641290395</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.908909305119638</v>
+        <v>7.90890930511959</v>
       </c>
       <c r="F15">
-        <v>37.17807693121078</v>
+        <v>37.17807693121079</v>
       </c>
       <c r="G15">
-        <v>24.11950623053331</v>
+        <v>24.11950623053334</v>
       </c>
       <c r="H15">
-        <v>19.42103560089037</v>
+        <v>19.42103560089043</v>
       </c>
       <c r="I15">
-        <v>8.545622096217262</v>
+        <v>8.54562209621726</v>
       </c>
       <c r="J15">
-        <v>20.50700355099187</v>
+        <v>20.50700355099182</v>
       </c>
       <c r="K15">
-        <v>11.65150008155977</v>
+        <v>11.65150008155987</v>
       </c>
       <c r="L15">
-        <v>17.91931937648425</v>
+        <v>17.91931937648432</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.45383361674314</v>
+        <v>22.45383361674305</v>
       </c>
       <c r="C16">
         <v>15.66038115722261</v>
@@ -953,25 +953,25 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.707976330940498</v>
+        <v>7.707976330940462</v>
       </c>
       <c r="F16">
-        <v>35.88718361036254</v>
+        <v>35.88718361036247</v>
       </c>
       <c r="G16">
-        <v>23.57950558501052</v>
+        <v>23.57950558501056</v>
       </c>
       <c r="H16">
-        <v>19.14635094249257</v>
+        <v>19.14635094249265</v>
       </c>
       <c r="I16">
-        <v>8.689649396797067</v>
+        <v>8.689649396797227</v>
       </c>
       <c r="J16">
-        <v>19.833729413131</v>
+        <v>19.83372941313094</v>
       </c>
       <c r="K16">
-        <v>11.26715821291538</v>
+        <v>11.26715821291543</v>
       </c>
       <c r="L16">
         <v>17.34882473578762</v>
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.96534736212859</v>
+        <v>21.96534736212857</v>
       </c>
       <c r="C17">
-        <v>15.31623511375467</v>
+        <v>15.31623511375461</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.583535217124997</v>
+        <v>7.583535217124986</v>
       </c>
       <c r="F17">
-        <v>35.08331908280095</v>
+        <v>35.08331908280094</v>
       </c>
       <c r="G17">
-        <v>23.25357565815889</v>
+        <v>23.25357565815891</v>
       </c>
       <c r="H17">
-        <v>18.98522755688796</v>
+        <v>18.98522755688798</v>
       </c>
       <c r="I17">
-        <v>8.777921715595442</v>
+        <v>8.777921715595506</v>
       </c>
       <c r="J17">
-        <v>19.41251731007251</v>
+        <v>19.4125173100725</v>
       </c>
       <c r="K17">
-        <v>11.02662254456386</v>
+        <v>11.02662254456384</v>
       </c>
       <c r="L17">
-        <v>16.99195330694601</v>
+        <v>16.99195330694599</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68068226738895</v>
+        <v>21.68068226738894</v>
       </c>
       <c r="C18">
-        <v>15.11594714987213</v>
+        <v>15.11594714987226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.51153879985968</v>
+        <v>7.51153879985972</v>
       </c>
       <c r="F18">
-        <v>34.61775987660824</v>
+        <v>34.61775987660825</v>
       </c>
       <c r="G18">
-        <v>23.06805075826576</v>
+        <v>23.06805075826573</v>
       </c>
       <c r="H18">
-        <v>18.89519942974338</v>
+        <v>18.89519942974334</v>
       </c>
       <c r="I18">
-        <v>8.828685730796067</v>
+        <v>8.828685730795971</v>
       </c>
       <c r="J18">
-        <v>19.16719457903634</v>
+        <v>19.16719457903638</v>
       </c>
       <c r="K18">
-        <v>10.88650187218762</v>
+        <v>10.8865018721876</v>
       </c>
       <c r="L18">
-        <v>16.78412496815301</v>
+        <v>16.78412496815299</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,34 +1061,34 @@
         <v>21.58365896179764</v>
       </c>
       <c r="C19">
-        <v>15.04772616565059</v>
+        <v>15.04772616565072</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.487090859567155</v>
+        <v>7.487090859567146</v>
       </c>
       <c r="F19">
-        <v>34.47036427810777</v>
+        <v>34.47036427810781</v>
       </c>
       <c r="G19">
-        <v>23.00556688333891</v>
+        <v>23.00556688333889</v>
       </c>
       <c r="H19">
-        <v>18.86516538041859</v>
+        <v>18.86516538041856</v>
       </c>
       <c r="I19">
-        <v>8.845874303289021</v>
+        <v>8.845874303288953</v>
       </c>
       <c r="J19">
-        <v>19.08360399166323</v>
+        <v>19.08360399166326</v>
       </c>
       <c r="K19">
-        <v>10.83875309873162</v>
+        <v>10.83875309873163</v>
       </c>
       <c r="L19">
-        <v>16.71331431837706</v>
+        <v>16.71331431837705</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01772937133399</v>
+        <v>22.01772937133401</v>
       </c>
       <c r="C20">
-        <v>15.35311163910019</v>
+        <v>15.35311163910024</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.596826041132672</v>
+        <v>7.59682604113272</v>
       </c>
       <c r="F20">
-        <v>35.16935088417431</v>
+        <v>35.16935088417434</v>
       </c>
       <c r="G20">
-        <v>23.2880700912682</v>
+        <v>23.28807009126818</v>
       </c>
       <c r="H20">
-        <v>19.00210404386385</v>
+        <v>19.00210404386381</v>
       </c>
       <c r="I20">
-        <v>8.768526297249002</v>
+        <v>8.768526297248936</v>
       </c>
       <c r="J20">
         <v>19.45767098127209</v>
       </c>
       <c r="K20">
-        <v>11.05241074061374</v>
+        <v>11.05241074061372</v>
       </c>
       <c r="L20">
-        <v>17.03020767132223</v>
+        <v>17.03020767132224</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.43231443775801</v>
+        <v>23.43231443775808</v>
       </c>
       <c r="C21">
-        <v>16.35148834010161</v>
+        <v>16.35148834010164</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.960415346792201</v>
+        <v>7.960415346792252</v>
       </c>
       <c r="F21">
-        <v>37.50772081261052</v>
+        <v>37.50772081261054</v>
       </c>
       <c r="G21">
-        <v>24.26059704572112</v>
+        <v>24.2605970457211</v>
       </c>
       <c r="H21">
-        <v>19.49429414148488</v>
+        <v>19.49429414148482</v>
       </c>
       <c r="I21">
-        <v>8.508391879049249</v>
+        <v>8.508391879049221</v>
       </c>
       <c r="J21">
-        <v>20.6783402798061</v>
+        <v>20.67834027980616</v>
       </c>
       <c r="K21">
-        <v>11.74927983487474</v>
+        <v>11.7492798348747</v>
       </c>
       <c r="L21">
-        <v>18.06450749295633</v>
+        <v>18.06450749295636</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,34 +1172,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.32506601033482</v>
+        <v>24.32506601033489</v>
       </c>
       <c r="C22">
-        <v>16.9841484715913</v>
+        <v>16.98414847159128</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.194091128881983</v>
+        <v>8.194091128882009</v>
       </c>
       <c r="F22">
-        <v>38.99774703235697</v>
+        <v>38.99774703235703</v>
       </c>
       <c r="G22">
-        <v>24.91404066463196</v>
+        <v>24.91404066463198</v>
       </c>
       <c r="H22">
-        <v>19.8410069086768</v>
+        <v>19.84100690867678</v>
       </c>
       <c r="I22">
-        <v>8.337807196026304</v>
+        <v>8.337807196026178</v>
       </c>
       <c r="J22">
-        <v>21.44996249492482</v>
+        <v>21.44996249492489</v>
       </c>
       <c r="K22">
-        <v>12.18947646099252</v>
+        <v>12.1894764609925</v>
       </c>
       <c r="L22">
         <v>18.71836910372043</v>
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85143287824064</v>
+        <v>23.85143287824068</v>
       </c>
       <c r="C23">
-        <v>16.64824728264315</v>
+        <v>16.64824728264305</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.069742927033968</v>
+        <v>8.069742927033918</v>
       </c>
       <c r="F23">
-        <v>38.20591294258824</v>
+        <v>38.20591294258829</v>
       </c>
       <c r="G23">
-        <v>24.56361903701502</v>
+        <v>24.56361903701508</v>
       </c>
       <c r="H23">
-        <v>19.65359568960612</v>
+        <v>19.65359568960622</v>
       </c>
       <c r="I23">
-        <v>8.428929327227836</v>
+        <v>8.428929327227937</v>
       </c>
       <c r="J23">
-        <v>21.0404732188718</v>
+        <v>21.04047321887178</v>
       </c>
       <c r="K23">
-        <v>11.95590352844497</v>
+        <v>11.95590352844503</v>
       </c>
       <c r="L23">
-        <v>18.37137587615238</v>
+        <v>18.37137587615242</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99405940063842</v>
+        <v>21.99405940063848</v>
       </c>
       <c r="C24">
-        <v>15.33644735386584</v>
+        <v>15.33644735386565</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>7.590818669820268</v>
       </c>
       <c r="F24">
-        <v>35.13047042318982</v>
+        <v>35.13047042318974</v>
       </c>
       <c r="G24">
-        <v>23.27246938048497</v>
+        <v>23.27246938048496</v>
       </c>
       <c r="H24">
-        <v>18.99446608988365</v>
+        <v>18.99446608988361</v>
       </c>
       <c r="I24">
-        <v>8.772773913516072</v>
+        <v>8.772773913516133</v>
       </c>
       <c r="J24">
-        <v>19.43726686726333</v>
+        <v>19.43726686726328</v>
       </c>
       <c r="K24">
-        <v>11.04075761374098</v>
+        <v>11.04075761374097</v>
       </c>
       <c r="L24">
-        <v>17.01292116059972</v>
+        <v>17.01292116059973</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,7 +1289,7 @@
         <v>19.84851936997087</v>
       </c>
       <c r="C25">
-        <v>13.83135572817066</v>
+        <v>13.83135572817059</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1298,25 +1298,25 @@
         <v>7.058349112870071</v>
       </c>
       <c r="F25">
-        <v>31.87302121896235</v>
+        <v>31.8730212189623</v>
       </c>
       <c r="G25">
         <v>21.95392009139815</v>
       </c>
       <c r="H25">
-        <v>18.38378810924314</v>
+        <v>18.38378810924316</v>
       </c>
       <c r="I25">
-        <v>9.143606428405322</v>
+        <v>9.143606428405416</v>
       </c>
       <c r="J25">
-        <v>17.59077730525418</v>
+        <v>17.59077730525415</v>
       </c>
       <c r="K25">
-        <v>9.985676835316477</v>
+        <v>9.98567683531647</v>
       </c>
       <c r="L25">
-        <v>15.44922807861789</v>
+        <v>15.44922807861786</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14065092145007</v>
+        <v>18.1405850056771</v>
       </c>
       <c r="C2">
-        <v>12.64068979876206</v>
+        <v>12.63635732279996</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.65434771260889</v>
+        <v>6.659232721831196</v>
       </c>
       <c r="F2">
-        <v>29.3963238462955</v>
+        <v>29.38674881349408</v>
       </c>
       <c r="G2">
-        <v>21.04511016870711</v>
+        <v>19.31212367393676</v>
       </c>
       <c r="H2">
-        <v>18.01233769747004</v>
+        <v>21.07459877072116</v>
       </c>
       <c r="I2">
-        <v>9.41903405453224</v>
+        <v>17.99723790928676</v>
       </c>
       <c r="J2">
-        <v>16.12554281156218</v>
+        <v>9.416918227601716</v>
       </c>
       <c r="K2">
-        <v>9.147843208448608</v>
+        <v>16.12412463773522</v>
       </c>
       <c r="L2">
-        <v>14.2099384825941</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>9.149963817396916</v>
+      </c>
+      <c r="M2">
+        <v>14.21116040272647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90062339911982</v>
+        <v>16.90069581177099</v>
       </c>
       <c r="C3">
-        <v>11.78015899636592</v>
+        <v>11.77628112114177</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.37435255583677</v>
+        <v>6.379022385299993</v>
       </c>
       <c r="F3">
-        <v>27.65608705724314</v>
+        <v>27.64705046680233</v>
       </c>
       <c r="G3">
-        <v>20.4674470995087</v>
+        <v>18.4845461852693</v>
       </c>
       <c r="H3">
-        <v>17.80518082989968</v>
+        <v>20.49655036189135</v>
       </c>
       <c r="I3">
-        <v>9.608264974897633</v>
+        <v>17.79120254588383</v>
       </c>
       <c r="J3">
-        <v>15.06456385387691</v>
+        <v>9.606061814870882</v>
       </c>
       <c r="K3">
-        <v>8.540907203834927</v>
+        <v>15.06340589183604</v>
       </c>
       <c r="L3">
-        <v>13.31392865226421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.54288777438456</v>
+      </c>
+      <c r="M3">
+        <v>13.31513974305563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.09769562871001</v>
+        <v>16.09785201671386</v>
       </c>
       <c r="C4">
-        <v>11.22472241746841</v>
+        <v>11.22113616421316</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.199918395330672</v>
+        <v>6.20445359727641</v>
       </c>
       <c r="F4">
-        <v>26.55908752667702</v>
+        <v>26.55039459761037</v>
       </c>
       <c r="G4">
-        <v>20.13150469015881</v>
+        <v>17.9855812469471</v>
       </c>
       <c r="H4">
-        <v>17.69851250959402</v>
+        <v>20.16043924811037</v>
       </c>
       <c r="I4">
-        <v>9.726045376417606</v>
+        <v>17.68523390786208</v>
       </c>
       <c r="J4">
-        <v>14.37902398446776</v>
+        <v>9.723784487751006</v>
       </c>
       <c r="K4">
-        <v>8.148641620325145</v>
+        <v>14.37803178207251</v>
       </c>
       <c r="L4">
-        <v>12.73579819707071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.150528918873913</v>
+      </c>
+      <c r="M4">
+        <v>12.73699919798865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.75993778892119</v>
+        <v>15.7601283100225</v>
       </c>
       <c r="C5">
-        <v>10.99148856408366</v>
+        <v>10.9880245494471</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.128297985513475</v>
+        <v>6.132777765460403</v>
       </c>
       <c r="F5">
-        <v>26.10529872781192</v>
+        <v>26.09674926367798</v>
       </c>
       <c r="G5">
-        <v>19.99929848952838</v>
+        <v>17.78474741407093</v>
       </c>
       <c r="H5">
-        <v>17.6599812372653</v>
+        <v>20.02818099281455</v>
       </c>
       <c r="I5">
-        <v>9.774486457658979</v>
+        <v>17.64699001507307</v>
       </c>
       <c r="J5">
-        <v>14.09101833208851</v>
+        <v>9.772201080640283</v>
       </c>
       <c r="K5">
-        <v>7.983822621560561</v>
+        <v>14.09009541049261</v>
       </c>
       <c r="L5">
-        <v>12.49314463963372</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>7.985670062780202</v>
+      </c>
+      <c r="M5">
+        <v>12.49434074667983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.7032125335873</v>
+        <v>15.70340872168577</v>
       </c>
       <c r="C6">
-        <v>10.95234193067371</v>
+        <v>10.94889842692055</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.116376067390887</v>
+        <v>6.120846612948321</v>
       </c>
       <c r="F6">
-        <v>26.02955375968181</v>
+        <v>26.02102832805593</v>
       </c>
       <c r="G6">
-        <v>19.97762837471024</v>
+        <v>17.75155600881622</v>
       </c>
       <c r="H6">
-        <v>17.65387459916338</v>
+        <v>20.00650322944777</v>
       </c>
       <c r="I6">
-        <v>9.782558157972366</v>
+        <v>17.64093121713532</v>
       </c>
       <c r="J6">
-        <v>14.04267144590569</v>
+        <v>9.780268658294251</v>
       </c>
       <c r="K6">
-        <v>7.956153535903216</v>
+        <v>14.0417601398753</v>
       </c>
       <c r="L6">
-        <v>12.45242531207871</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>7.95799424659461</v>
+      </c>
+      <c r="M6">
+        <v>12.45362056168323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09318340112494</v>
+        <v>16.09334024961064</v>
       </c>
       <c r="C7">
-        <v>11.2216049406014</v>
+        <v>11.21802032177787</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.198954536642413</v>
+        <v>6.203488993316673</v>
       </c>
       <c r="F7">
-        <v>26.5529942900964</v>
+        <v>26.5443032818303</v>
       </c>
       <c r="G7">
-        <v>20.12970274429241</v>
+        <v>17.98286234658251</v>
       </c>
       <c r="H7">
-        <v>17.69797317679284</v>
+        <v>20.15863653320335</v>
       </c>
       <c r="I7">
-        <v>9.726696813008402</v>
+        <v>17.68469844232413</v>
       </c>
       <c r="J7">
-        <v>14.37517491555354</v>
+        <v>9.724435597901342</v>
       </c>
       <c r="K7">
-        <v>8.146438972959254</v>
+        <v>14.37418364017913</v>
       </c>
       <c r="L7">
-        <v>12.7325542974532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.148325741488502</v>
+      </c>
+      <c r="M7">
+        <v>12.73375523542825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.72164324226872</v>
+        <v>17.72162531377272</v>
       </c>
       <c r="C8">
-        <v>12.34954412291964</v>
+        <v>12.34536595089785</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.558381061784568</v>
+        <v>6.563192436389451</v>
       </c>
       <c r="F8">
-        <v>28.8024157901548</v>
+        <v>28.79302379032173</v>
       </c>
       <c r="G8">
-        <v>20.84203170844247</v>
+        <v>19.02497962141108</v>
       </c>
       <c r="H8">
-        <v>17.93651703543073</v>
+        <v>20.87137315855151</v>
       </c>
       <c r="I8">
-        <v>9.483978100730015</v>
+        <v>17.92180131899601</v>
       </c>
       <c r="J8">
-        <v>15.76674790796644</v>
+        <v>9.481833058771903</v>
       </c>
       <c r="K8">
-        <v>8.942615809503875</v>
+        <v>15.76541834472888</v>
       </c>
       <c r="L8">
-        <v>13.90678050697836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.944689638928386</v>
+      </c>
+      <c r="M8">
+        <v>13.90799945749458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.59077400093156</v>
+        <v>20.59039869712466</v>
       </c>
       <c r="C9">
-        <v>14.35084951944976</v>
+        <v>14.34559553436224</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.239705703717632</v>
+        <v>7.245037617125898</v>
       </c>
       <c r="F9">
-        <v>32.97485930665198</v>
+        <v>32.96418916627037</v>
       </c>
       <c r="G9">
-        <v>22.38835979184997</v>
+        <v>21.13438008757684</v>
       </c>
       <c r="H9">
-        <v>18.57680588737732</v>
+        <v>22.41905095023375</v>
       </c>
       <c r="I9">
-        <v>9.018473947207321</v>
+        <v>18.55937618918083</v>
       </c>
       <c r="J9">
-        <v>18.22888363151294</v>
+        <v>9.016520305003011</v>
       </c>
       <c r="K9">
-        <v>10.35039746484258</v>
+        <v>18.22692855465174</v>
       </c>
       <c r="L9">
-        <v>15.9894242674866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>10.35278056957523</v>
+      </c>
+      <c r="M9">
+        <v>15.99064741773618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.50907572066848</v>
+        <v>22.50841860424694</v>
       </c>
       <c r="C10">
-        <v>15.69933631023791</v>
+        <v>15.69333061445688</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.722118036861201</v>
+        <v>7.727815801197885</v>
       </c>
       <c r="F10">
-        <v>35.97831154563506</v>
+        <v>35.96672319521917</v>
       </c>
       <c r="G10">
-        <v>23.61696100668926</v>
+        <v>22.71780514019242</v>
       </c>
       <c r="H10">
-        <v>19.16509972303978</v>
+        <v>23.64898850815414</v>
       </c>
       <c r="I10">
-        <v>8.679574206534726</v>
+        <v>19.14577518108285</v>
       </c>
       <c r="J10">
-        <v>19.88138230330391</v>
+        <v>8.677732180460049</v>
       </c>
       <c r="K10">
-        <v>11.29436672999759</v>
+        <v>19.87897756480254</v>
       </c>
       <c r="L10">
-        <v>17.38920095726044</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.29694177478211</v>
+      </c>
+      <c r="M10">
+        <v>17.39040258328737</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.34252201504233</v>
+        <v>23.34172996813273</v>
       </c>
       <c r="C11">
-        <v>16.28796822144766</v>
+        <v>16.28162552928127</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.937082995929587</v>
+        <v>7.942943145465238</v>
       </c>
       <c r="F11">
-        <v>37.35845048313124</v>
+        <v>37.34646279404188</v>
       </c>
       <c r="G11">
-        <v>24.19654931814621</v>
+        <v>23.44502122661993</v>
       </c>
       <c r="H11">
-        <v>19.4609650838763</v>
+        <v>24.22926007021762</v>
       </c>
       <c r="I11">
-        <v>8.525273372641152</v>
+        <v>19.44080571597168</v>
       </c>
       <c r="J11">
-        <v>20.60078407375889</v>
+        <v>8.523473752577633</v>
       </c>
       <c r="K11">
-        <v>11.70502097406573</v>
+        <v>20.59817392387105</v>
       </c>
       <c r="L11">
-        <v>17.998787366661</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.70767546728754</v>
+      </c>
+      <c r="M11">
+        <v>17.99997245953255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.65266524252417</v>
+        <v>23.65182088967908</v>
       </c>
       <c r="C12">
-        <v>16.50745315007573</v>
+        <v>16.50098324860508</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.017808871426025</v>
+        <v>8.023729902294779</v>
       </c>
       <c r="F12">
-        <v>37.87449760704862</v>
+        <v>37.86235923035143</v>
       </c>
       <c r="G12">
-        <v>24.4190772634112</v>
+        <v>23.72142471323277</v>
       </c>
       <c r="H12">
-        <v>19.57728035152384</v>
+        <v>24.45205754405676</v>
       </c>
       <c r="I12">
-        <v>8.466751439697736</v>
+        <v>19.55680912427064</v>
       </c>
       <c r="J12">
-        <v>20.86870467461377</v>
+        <v>8.464966444624658</v>
       </c>
       <c r="K12">
-        <v>11.85790394306401</v>
+        <v>20.86601634480817</v>
       </c>
       <c r="L12">
-        <v>18.22582059025861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.86058736104323</v>
+      </c>
+      <c r="M12">
+        <v>18.22699831883589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.58611049157161</v>
+        <v>23.58527746180247</v>
       </c>
       <c r="C13">
-        <v>16.4603325744197</v>
+        <v>16.45389005705012</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.000453585519129</v>
+        <v>8.006361532054351</v>
       </c>
       <c r="F13">
-        <v>37.76364671547363</v>
+        <v>37.75154077341107</v>
       </c>
       <c r="G13">
-        <v>24.37101465975159</v>
+        <v>23.6618497109031</v>
       </c>
       <c r="H13">
-        <v>19.55203603525586</v>
+        <v>24.40393641334536</v>
       </c>
       <c r="I13">
-        <v>8.479360476057002</v>
+        <v>19.53163177779934</v>
       </c>
       <c r="J13">
-        <v>20.81120084311562</v>
+        <v>8.477572399246302</v>
       </c>
       <c r="K13">
-        <v>11.82509323478343</v>
+        <v>20.80852937295109</v>
       </c>
       <c r="L13">
-        <v>18.17709228553675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.8277704754943</v>
+      </c>
+      <c r="M13">
+        <v>18.17827165156073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.36814616713357</v>
+        <v>23.36734984275203</v>
       </c>
       <c r="C14">
-        <v>16.30609295201516</v>
+        <v>16.29973978805159</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.943738063867706</v>
+        <v>7.9496032345271</v>
       </c>
       <c r="F14">
-        <v>37.40103660598794</v>
+        <v>37.38903651086221</v>
       </c>
       <c r="G14">
-        <v>24.21479514034026</v>
+        <v>23.46774023996674</v>
       </c>
       <c r="H14">
-        <v>19.47044742742562</v>
+        <v>24.24752785063723</v>
       </c>
       <c r="I14">
-        <v>8.520461009593509</v>
+        <v>19.45026231533003</v>
       </c>
       <c r="J14">
-        <v>20.62291536925717</v>
+        <v>8.518662622979452</v>
       </c>
       <c r="K14">
-        <v>11.71765085667926</v>
+        <v>20.62029879703349</v>
       </c>
       <c r="L14">
-        <v>18.0175411130225</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.72030775302338</v>
+      </c>
+      <c r="M14">
+        <v>18.01872562297952</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.23393041535902</v>
+        <v>23.23315640867365</v>
       </c>
       <c r="C15">
-        <v>16.21117641290395</v>
+        <v>16.20487802337136</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.90890930511959</v>
+        <v>7.914748194061016</v>
       </c>
       <c r="F15">
-        <v>37.17807693121079</v>
+        <v>37.16614173053085</v>
       </c>
       <c r="G15">
-        <v>24.11950623053334</v>
+        <v>23.34897760708979</v>
       </c>
       <c r="H15">
-        <v>19.42103560089043</v>
+        <v>24.15212455071908</v>
       </c>
       <c r="I15">
-        <v>8.54562209621726</v>
+        <v>19.40098528702718</v>
       </c>
       <c r="J15">
-        <v>20.50700355099182</v>
+        <v>8.543817200120539</v>
       </c>
       <c r="K15">
-        <v>11.65150008155987</v>
+        <v>20.50442054535998</v>
       </c>
       <c r="L15">
-        <v>17.91931937648432</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.654144364199</v>
+      </c>
+      <c r="M15">
+        <v>17.92050688924369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.45383361674305</v>
+        <v>22.45318516284394</v>
       </c>
       <c r="C16">
-        <v>15.66038115722261</v>
+        <v>15.6543975589959</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.707976330940462</v>
+        <v>7.713663399053819</v>
       </c>
       <c r="F16">
-        <v>35.88718361036247</v>
+        <v>35.87562144890263</v>
       </c>
       <c r="G16">
-        <v>23.57950558501056</v>
+        <v>22.67042004871785</v>
       </c>
       <c r="H16">
-        <v>19.14635094249265</v>
+        <v>23.61148994804426</v>
       </c>
       <c r="I16">
-        <v>8.689649396797227</v>
+        <v>19.12708153833549</v>
       </c>
       <c r="J16">
-        <v>19.83372941313094</v>
+        <v>8.687804412577359</v>
       </c>
       <c r="K16">
-        <v>11.26715821291543</v>
+        <v>19.83133805885333</v>
       </c>
       <c r="L16">
-        <v>17.34882473578762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.26972790496918</v>
+      </c>
+      <c r="M16">
+        <v>17.3500272955737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.96534736212857</v>
+        <v>21.96477404341261</v>
       </c>
       <c r="C17">
-        <v>15.31623511375461</v>
+        <v>15.31044568924564</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.583535217124986</v>
+        <v>7.589128090094059</v>
       </c>
       <c r="F17">
-        <v>35.08331908280094</v>
+        <v>35.07198703798937</v>
       </c>
       <c r="G17">
-        <v>23.25357565815891</v>
+        <v>22.25591901031835</v>
       </c>
       <c r="H17">
-        <v>18.98522755688798</v>
+        <v>23.28519039009425</v>
       </c>
       <c r="I17">
-        <v>8.777921715595506</v>
+        <v>18.96644446096359</v>
       </c>
       <c r="J17">
-        <v>19.4125173100725</v>
+        <v>8.776049848281504</v>
       </c>
       <c r="K17">
-        <v>11.02662254456384</v>
+        <v>19.41024312261479</v>
       </c>
       <c r="L17">
-        <v>16.99195330694599</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.02914444502665</v>
+      </c>
+      <c r="M17">
+        <v>16.99316328089729</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68068226738894</v>
+        <v>21.68015154692126</v>
       </c>
       <c r="C18">
-        <v>15.11594714987226</v>
+        <v>15.11026989588107</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.51153879985972</v>
+        <v>7.517077115130342</v>
       </c>
       <c r="F18">
-        <v>34.61775987660825</v>
+        <v>34.60658725811785</v>
       </c>
       <c r="G18">
-        <v>23.06805075826573</v>
+        <v>22.018154017018</v>
       </c>
       <c r="H18">
-        <v>18.89519942974334</v>
+        <v>23.0994599846463</v>
       </c>
       <c r="I18">
-        <v>8.828685730795971</v>
+        <v>18.8766985842374</v>
       </c>
       <c r="J18">
-        <v>19.16719457903638</v>
+        <v>8.826797629950473</v>
       </c>
       <c r="K18">
-        <v>10.8865018721876</v>
+        <v>19.16498771965105</v>
       </c>
       <c r="L18">
-        <v>16.78412496815299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.88899554612463</v>
+      </c>
+      <c r="M18">
+        <v>16.78533858094124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.58365896179764</v>
+        <v>21.58314256519751</v>
       </c>
       <c r="C19">
-        <v>15.04772616565072</v>
+        <v>15.04208698325274</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.487090859567146</v>
+        <v>7.492610638408395</v>
       </c>
       <c r="F19">
-        <v>34.47036427810781</v>
+        <v>34.45923681416107</v>
       </c>
       <c r="G19">
-        <v>23.00556688333889</v>
+        <v>21.93776170773408</v>
       </c>
       <c r="H19">
-        <v>18.86516538041856</v>
+        <v>23.03690774850601</v>
       </c>
       <c r="I19">
-        <v>8.845874303288953</v>
+        <v>18.84676052328981</v>
       </c>
       <c r="J19">
-        <v>19.08360399166326</v>
+        <v>8.843980579749784</v>
       </c>
       <c r="K19">
-        <v>10.83875309873163</v>
+        <v>19.0814199254141</v>
       </c>
       <c r="L19">
-        <v>16.71331431837705</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.84123708963251</v>
+      </c>
+      <c r="M19">
+        <v>16.71452905957016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.01772937133401</v>
+        <v>22.0171481199185</v>
       </c>
       <c r="C20">
-        <v>15.35311163910024</v>
+        <v>15.34730149621757</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.59682604113272</v>
+        <v>7.602428980805639</v>
       </c>
       <c r="F20">
-        <v>35.16935088417434</v>
+        <v>35.15799428753547</v>
       </c>
       <c r="G20">
-        <v>23.28807009126818</v>
+        <v>22.29997656605923</v>
       </c>
       <c r="H20">
-        <v>19.00210404386381</v>
+        <v>23.31972343677625</v>
       </c>
       <c r="I20">
-        <v>8.768526297248936</v>
+        <v>18.98326891386248</v>
       </c>
       <c r="J20">
-        <v>19.45767098127209</v>
+        <v>8.766657372982706</v>
       </c>
       <c r="K20">
-        <v>11.05241074061372</v>
+        <v>19.45538432962956</v>
       </c>
       <c r="L20">
-        <v>17.03020767132224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.05493780514309</v>
+      </c>
+      <c r="M20">
+        <v>17.03141692168467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.43231443775808</v>
+        <v>23.43150736706578</v>
       </c>
       <c r="C21">
-        <v>16.35148834010164</v>
+        <v>16.34510892253664</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.960415346792252</v>
+        <v>7.966293098533058</v>
       </c>
       <c r="F21">
-        <v>37.50772081261054</v>
+        <v>37.4956896157218</v>
       </c>
       <c r="G21">
-        <v>24.2605970457211</v>
+        <v>23.52472662352016</v>
       </c>
       <c r="H21">
-        <v>19.49429414148482</v>
+        <v>24.29338499005481</v>
       </c>
       <c r="I21">
-        <v>8.508391879049221</v>
+        <v>19.47404454275532</v>
       </c>
       <c r="J21">
-        <v>20.67834027980616</v>
+        <v>8.506596561685885</v>
       </c>
       <c r="K21">
-        <v>11.7492798348747</v>
+        <v>20.67570759575174</v>
       </c>
       <c r="L21">
-        <v>18.06450749295636</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.75194273863617</v>
+      </c>
+      <c r="M21">
+        <v>18.06569052312551</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.32506601033489</v>
+        <v>24.32410415957956</v>
       </c>
       <c r="C22">
-        <v>16.98414847159128</v>
+        <v>16.97739918644536</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.194091128882009</v>
+        <v>8.200144918643002</v>
       </c>
       <c r="F22">
-        <v>38.99774703235703</v>
+        <v>38.98527788268565</v>
       </c>
       <c r="G22">
-        <v>24.91404066463198</v>
+        <v>24.33118774129115</v>
       </c>
       <c r="H22">
-        <v>19.84100690867678</v>
+        <v>24.94763302890122</v>
       </c>
       <c r="I22">
-        <v>8.337807196026178</v>
+        <v>19.81985786044028</v>
       </c>
       <c r="J22">
-        <v>21.44996249492489</v>
+        <v>8.336051480512918</v>
       </c>
       <c r="K22">
-        <v>12.1894764609925</v>
+        <v>21.4471012081818</v>
       </c>
       <c r="L22">
-        <v>18.71836910372043</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.19222135742464</v>
+      </c>
+      <c r="M22">
+        <v>18.71952848886029</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85143287824068</v>
+        <v>23.85055438372046</v>
       </c>
       <c r="C23">
-        <v>16.64824728264305</v>
+        <v>16.64169531358636</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.069742927033918</v>
+        <v>8.075703096579854</v>
       </c>
       <c r="F23">
-        <v>38.20591294258829</v>
+        <v>38.19367737559652</v>
       </c>
       <c r="G23">
-        <v>24.56361903701508</v>
+        <v>23.90018877447397</v>
       </c>
       <c r="H23">
-        <v>19.65359568960622</v>
+        <v>24.59677633199863</v>
       </c>
       <c r="I23">
-        <v>8.428929327227937</v>
+        <v>19.63292431469281</v>
       </c>
       <c r="J23">
-        <v>21.04047321887178</v>
+        <v>8.427153345100045</v>
       </c>
       <c r="K23">
-        <v>11.95590352844503</v>
+        <v>21.03773426329472</v>
       </c>
       <c r="L23">
-        <v>18.37137587615242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.95860529715888</v>
+      </c>
+      <c r="M23">
+        <v>18.37254852593822</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99405940063848</v>
+        <v>21.99348173744094</v>
       </c>
       <c r="C24">
-        <v>15.33644735386565</v>
+        <v>15.3306465760628</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.590818669820268</v>
+        <v>7.596417059591543</v>
       </c>
       <c r="F24">
-        <v>35.13047042318974</v>
+        <v>35.11912492449672</v>
       </c>
       <c r="G24">
-        <v>23.27246938048496</v>
+        <v>22.28005647336212</v>
       </c>
       <c r="H24">
-        <v>18.99446608988361</v>
+        <v>23.30410524699121</v>
       </c>
       <c r="I24">
-        <v>8.772773913516133</v>
+        <v>18.97565447621577</v>
       </c>
       <c r="J24">
-        <v>19.43726686726328</v>
+        <v>8.770903661105084</v>
       </c>
       <c r="K24">
-        <v>11.04075761374097</v>
+        <v>19.43498585076035</v>
       </c>
       <c r="L24">
-        <v>17.01292116059973</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.04328234593142</v>
+      </c>
+      <c r="M24">
+        <v>17.01413074002937</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84851936997087</v>
+        <v>19.84824333196505</v>
       </c>
       <c r="C25">
-        <v>13.83135572817059</v>
+        <v>13.82638487884686</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.058349112870071</v>
+        <v>7.063542943480942</v>
       </c>
       <c r="F25">
-        <v>31.8730212189623</v>
+        <v>31.86268759964546</v>
       </c>
       <c r="G25">
-        <v>21.95392009139815</v>
+        <v>20.55750923914018</v>
       </c>
       <c r="H25">
-        <v>18.38378810924316</v>
+        <v>21.98418593486505</v>
       </c>
       <c r="I25">
-        <v>9.143606428405416</v>
+        <v>18.3670773354951</v>
       </c>
       <c r="J25">
-        <v>17.59077730525415</v>
+        <v>9.141605516902594</v>
       </c>
       <c r="K25">
-        <v>9.98567683531647</v>
+        <v>17.58898873864843</v>
       </c>
       <c r="L25">
-        <v>15.44922807861786</v>
+        <v>9.987982425803033</v>
+      </c>
+      <c r="M25">
+        <v>15.45045397982819</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.1405850056771</v>
+        <v>20.64063184299959</v>
       </c>
       <c r="C2">
-        <v>12.63635732279996</v>
+        <v>10.81793124627147</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.659232721831196</v>
+        <v>6.779763792078369</v>
       </c>
       <c r="F2">
-        <v>29.38674881349408</v>
+        <v>34.31504057341164</v>
       </c>
       <c r="G2">
-        <v>19.31212367393676</v>
+        <v>2.117596681291825</v>
       </c>
       <c r="H2">
-        <v>21.07459877072116</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.99723790928676</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.416918227601716</v>
+        <v>6.015074853289154</v>
       </c>
       <c r="K2">
-        <v>16.12412463773522</v>
+        <v>16.18828717111392</v>
       </c>
       <c r="L2">
-        <v>9.149963817396916</v>
+        <v>6.576551317178153</v>
       </c>
       <c r="M2">
-        <v>14.21116040272647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>12.99648799306829</v>
+      </c>
+      <c r="N2">
+        <v>14.44185777920442</v>
+      </c>
+      <c r="O2">
+        <v>25.4854447739837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.90069581177099</v>
+        <v>19.43550941179723</v>
       </c>
       <c r="C3">
-        <v>11.77628112114177</v>
+        <v>10.1333974897282</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.379022385299993</v>
+        <v>6.76571172957519</v>
       </c>
       <c r="F3">
-        <v>27.64705046680233</v>
+        <v>33.49198129373886</v>
       </c>
       <c r="G3">
-        <v>18.4845461852693</v>
+        <v>2.126442183731724</v>
       </c>
       <c r="H3">
-        <v>20.49655036189135</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.79120254588383</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>9.606061814870882</v>
+        <v>6.087001268226786</v>
       </c>
       <c r="K3">
-        <v>15.06340589183604</v>
+        <v>15.22915728816548</v>
       </c>
       <c r="L3">
-        <v>8.54288777438456</v>
+        <v>6.486785275730998</v>
       </c>
       <c r="M3">
-        <v>13.31513974305563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>12.53858907302544</v>
+      </c>
+      <c r="N3">
+        <v>14.68178650460713</v>
+      </c>
+      <c r="O3">
+        <v>25.00685770347704</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.09785201671386</v>
+        <v>18.67029020231987</v>
       </c>
       <c r="C4">
-        <v>11.22113616421316</v>
+        <v>9.692899588344076</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.20445359727641</v>
+        <v>6.758191293523995</v>
       </c>
       <c r="F4">
-        <v>26.55039459761037</v>
+        <v>33.0049614410154</v>
       </c>
       <c r="G4">
-        <v>17.9855812469471</v>
+        <v>2.132016249917491</v>
       </c>
       <c r="H4">
-        <v>20.16043924811037</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>17.68523390786208</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>9.723784487751006</v>
+        <v>6.131660370590371</v>
       </c>
       <c r="K4">
-        <v>14.37803178207251</v>
+        <v>14.61979244044424</v>
       </c>
       <c r="L4">
-        <v>8.150528918873913</v>
+        <v>6.433538529595512</v>
       </c>
       <c r="M4">
-        <v>12.73699919798865</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.25647400742921</v>
+      </c>
+      <c r="N4">
+        <v>14.83254339209714</v>
+      </c>
+      <c r="O4">
+        <v>24.73189401776228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.7601283100225</v>
+        <v>18.35236874694588</v>
       </c>
       <c r="C5">
-        <v>10.9880245494471</v>
+        <v>9.508290573073268</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.132777765460403</v>
+        <v>6.755390255381368</v>
       </c>
       <c r="F5">
-        <v>26.09674926367798</v>
+        <v>32.81119644499169</v>
       </c>
       <c r="G5">
-        <v>17.78474741407093</v>
+        <v>2.134325271557111</v>
       </c>
       <c r="H5">
-        <v>20.02818099281455</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>17.64699001507307</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>9.772201080640283</v>
+        <v>6.150001952103926</v>
       </c>
       <c r="K5">
-        <v>14.09009541049261</v>
+        <v>14.3665268059339</v>
       </c>
       <c r="L5">
-        <v>7.985670062780202</v>
+        <v>6.412322956981612</v>
       </c>
       <c r="M5">
-        <v>12.49434074667983</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.14141787549805</v>
+      </c>
+      <c r="N5">
+        <v>14.89486274790731</v>
+      </c>
+      <c r="O5">
+        <v>24.62452342172762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.70340872168577</v>
+        <v>18.29921956082796</v>
       </c>
       <c r="C6">
-        <v>10.94889842692055</v>
+        <v>9.477327741679554</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.120846612948321</v>
+        <v>6.754940655435801</v>
       </c>
       <c r="F6">
-        <v>26.02102832805593</v>
+        <v>32.77930818544351</v>
       </c>
       <c r="G6">
-        <v>17.75155600881622</v>
+        <v>2.134710995696907</v>
       </c>
       <c r="H6">
-        <v>20.00650322944777</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>17.64093121713532</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>9.780268658294251</v>
+        <v>6.153056672167639</v>
       </c>
       <c r="K6">
-        <v>14.0417601398753</v>
+        <v>14.32418052287079</v>
       </c>
       <c r="L6">
-        <v>7.95799424659461</v>
+        <v>6.408829653805808</v>
       </c>
       <c r="M6">
-        <v>12.45362056168323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.12231199841414</v>
+      </c>
+      <c r="N6">
+        <v>14.9052648413538</v>
+      </c>
+      <c r="O6">
+        <v>24.60697497362175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.09334024961064</v>
+        <v>18.66602685133752</v>
       </c>
       <c r="C7">
-        <v>11.21802032177787</v>
+        <v>9.690430569907829</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.203488993316673</v>
+        <v>6.758152469160494</v>
       </c>
       <c r="F7">
-        <v>26.5443032818303</v>
+        <v>33.00232911906599</v>
       </c>
       <c r="G7">
-        <v>17.98286234658251</v>
+        <v>2.132047236114095</v>
       </c>
       <c r="H7">
-        <v>20.15863653320335</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>17.68469844232413</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>9.724435597901342</v>
+        <v>6.13190713128879</v>
       </c>
       <c r="K7">
-        <v>14.37418364017913</v>
+        <v>14.61639652764171</v>
       </c>
       <c r="L7">
-        <v>8.148325741488502</v>
+        <v>6.433250437303697</v>
       </c>
       <c r="M7">
-        <v>12.73375523542825</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.25492248374683</v>
+      </c>
+      <c r="N7">
+        <v>14.83338024442245</v>
+      </c>
+      <c r="O7">
+        <v>24.73042713452086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.72162531377272</v>
+        <v>20.2304883939367</v>
       </c>
       <c r="C8">
-        <v>12.34536595089785</v>
+        <v>10.58607520458131</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.563192436389451</v>
+        <v>6.774679345874475</v>
       </c>
       <c r="F8">
-        <v>28.79302379032173</v>
+        <v>34.02749632562382</v>
       </c>
       <c r="G8">
-        <v>19.02497962141108</v>
+        <v>2.120617957620976</v>
       </c>
       <c r="H8">
-        <v>20.87137315855151</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>17.92180131899601</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>9.481833058771903</v>
+        <v>6.039783340913574</v>
       </c>
       <c r="K8">
-        <v>15.76541834472888</v>
+        <v>15.86192730320697</v>
       </c>
       <c r="L8">
-        <v>8.944689638928386</v>
+        <v>6.545219610451714</v>
       </c>
       <c r="M8">
-        <v>13.90799945749458</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12.83889002339996</v>
+      </c>
+      <c r="N8">
+        <v>14.52388320688486</v>
+      </c>
+      <c r="O8">
+        <v>25.31646708862115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.59039869712466</v>
+        <v>23.08962440658652</v>
       </c>
       <c r="C9">
-        <v>14.34559553436224</v>
+        <v>12.18408522035093</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.245037617125898</v>
+        <v>6.816629472594471</v>
       </c>
       <c r="F9">
-        <v>32.96418916627037</v>
+        <v>36.17960213249289</v>
       </c>
       <c r="G9">
-        <v>21.13438008757684</v>
+        <v>2.099260205448165</v>
       </c>
       <c r="H9">
-        <v>22.41905095023375</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.55937618918083</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>9.016520305003011</v>
+        <v>5.862180367702078</v>
       </c>
       <c r="K9">
-        <v>18.22692855465174</v>
+        <v>18.42850411697608</v>
       </c>
       <c r="L9">
-        <v>10.35278056957523</v>
+        <v>6.779063999652458</v>
       </c>
       <c r="M9">
-        <v>15.99064741773618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>13.97060711167766</v>
+      </c>
+      <c r="N9">
+        <v>13.94336194551246</v>
+      </c>
+      <c r="O9">
+        <v>26.61846171962561</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.50841860424694</v>
+        <v>25.05611913719753</v>
       </c>
       <c r="C10">
-        <v>15.69333061445688</v>
+        <v>13.2651486230971</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.727815801197885</v>
+        <v>6.854454268176697</v>
       </c>
       <c r="F10">
-        <v>35.96672319521917</v>
+        <v>37.84281932700684</v>
       </c>
       <c r="G10">
-        <v>22.71780514019242</v>
+        <v>2.0840922325536</v>
       </c>
       <c r="H10">
-        <v>23.64898850815414</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.14577518108285</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>8.677732180460049</v>
+        <v>5.7321974881829</v>
       </c>
       <c r="K10">
-        <v>19.87897756480254</v>
+        <v>20.20173007631137</v>
       </c>
       <c r="L10">
-        <v>11.29694177478211</v>
+        <v>6.958837410334459</v>
       </c>
       <c r="M10">
-        <v>17.39040258328737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>14.78738908739387</v>
+      </c>
+      <c r="N10">
+        <v>13.53174172891942</v>
+      </c>
+      <c r="O10">
+        <v>27.67209893570396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.34172996813273</v>
+        <v>25.96170139629819</v>
       </c>
       <c r="C11">
-        <v>16.28162552928127</v>
+        <v>13.73778335117079</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.942943145465238</v>
+        <v>6.873492007889483</v>
       </c>
       <c r="F11">
-        <v>37.34646279404188</v>
+        <v>38.61669036440072</v>
       </c>
       <c r="G11">
-        <v>23.44502122661993</v>
+        <v>2.077276070213113</v>
       </c>
       <c r="H11">
-        <v>24.22926007021762</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.44080571597168</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>8.523473752577633</v>
+        <v>5.672833093792494</v>
       </c>
       <c r="K11">
-        <v>20.59817392387105</v>
+        <v>20.97317643226815</v>
       </c>
       <c r="L11">
-        <v>11.70767546728754</v>
+        <v>7.042208247108634</v>
       </c>
       <c r="M11">
-        <v>17.99997245953255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>15.1547798625995</v>
+      </c>
+      <c r="N11">
+        <v>13.34747807286271</v>
+      </c>
+      <c r="O11">
+        <v>28.17342906939919</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.65182088967908</v>
+        <v>26.31145480750416</v>
       </c>
       <c r="C12">
-        <v>16.50098324860508</v>
+        <v>13.91410543485672</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.023729902294779</v>
+        <v>6.880994412719492</v>
       </c>
       <c r="F12">
-        <v>37.86235923035143</v>
+        <v>38.91219934379132</v>
       </c>
       <c r="G12">
-        <v>23.72142471323277</v>
+        <v>2.074704291336188</v>
       </c>
       <c r="H12">
-        <v>24.45205754405676</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.55680912427064</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.464966444624658</v>
+        <v>5.650287689651546</v>
       </c>
       <c r="K12">
-        <v>20.86601634480817</v>
+        <v>21.26039880044559</v>
       </c>
       <c r="L12">
-        <v>11.86058736104323</v>
+        <v>7.073996701315288</v>
       </c>
       <c r="M12">
-        <v>18.22699831883589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15.29324452693687</v>
+      </c>
+      <c r="N12">
+        <v>13.2781147240362</v>
+      </c>
+      <c r="O12">
+        <v>28.36652584118636</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.58527746180247</v>
+        <v>26.23637750356944</v>
       </c>
       <c r="C13">
-        <v>16.45389005705012</v>
+        <v>13.87624765093297</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.006361532054351</v>
+        <v>6.879365073893445</v>
       </c>
       <c r="F13">
-        <v>37.75154077341107</v>
+        <v>38.84844674842238</v>
       </c>
       <c r="G13">
-        <v>23.6618497109031</v>
+        <v>2.07525779990424</v>
       </c>
       <c r="H13">
-        <v>24.40393641334536</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.53163177779934</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>8.477572399246302</v>
+        <v>5.655146696944512</v>
       </c>
       <c r="K13">
-        <v>20.80852937295109</v>
+        <v>21.19875598089629</v>
       </c>
       <c r="L13">
-        <v>11.8277704754943</v>
+        <v>7.067140964073817</v>
       </c>
       <c r="M13">
-        <v>18.17827165156073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>15.26345368653378</v>
+      </c>
+      <c r="N13">
+        <v>13.29303520624295</v>
+      </c>
+      <c r="O13">
+        <v>28.32479270115763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.36734984275203</v>
+        <v>25.99058795220077</v>
       </c>
       <c r="C14">
-        <v>16.29973978805159</v>
+        <v>13.75234205751274</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.9496032345271</v>
+        <v>6.874103172608652</v>
       </c>
       <c r="F14">
-        <v>37.38903651086221</v>
+        <v>38.64095275623363</v>
       </c>
       <c r="G14">
-        <v>23.46774023996674</v>
+        <v>2.077064317410455</v>
       </c>
       <c r="H14">
-        <v>24.24752785063723</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.45026231533003</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>8.518662622979452</v>
+        <v>5.67097977457128</v>
       </c>
       <c r="K14">
-        <v>20.62029879703349</v>
+        <v>20.99690381035223</v>
       </c>
       <c r="L14">
-        <v>11.72030775302338</v>
+        <v>7.044819196355201</v>
       </c>
       <c r="M14">
-        <v>18.01872562297952</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>15.16618489310354</v>
+      </c>
+      <c r="N14">
+        <v>13.34176330723569</v>
+      </c>
+      <c r="O14">
+        <v>28.18924948248481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.23315640867365</v>
+        <v>25.83930498536536</v>
       </c>
       <c r="C15">
-        <v>16.20487802337136</v>
+        <v>13.67610379197393</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.914748194061016</v>
+        <v>6.870919250218622</v>
       </c>
       <c r="F15">
-        <v>37.16614173053085</v>
+        <v>38.51417707119687</v>
       </c>
       <c r="G15">
-        <v>23.34897760708979</v>
+        <v>2.078171994829722</v>
       </c>
       <c r="H15">
-        <v>24.15212455071908</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.40098528702718</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>8.543817200120539</v>
+        <v>5.680668474796178</v>
       </c>
       <c r="K15">
-        <v>20.50442054535998</v>
+        <v>20.87262923457865</v>
       </c>
       <c r="L15">
-        <v>11.654144364199</v>
+        <v>7.031174522851052</v>
       </c>
       <c r="M15">
-        <v>17.92050688924369</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>15.10651781461401</v>
+      </c>
+      <c r="N15">
+        <v>13.37166407111717</v>
+      </c>
+      <c r="O15">
+        <v>28.10665198240972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.45318516284394</v>
+        <v>24.99899100378461</v>
       </c>
       <c r="C16">
-        <v>15.6543975589959</v>
+        <v>13.23388368454393</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.713663399053819</v>
+        <v>6.853249419994785</v>
       </c>
       <c r="F16">
-        <v>35.87562144890263</v>
+        <v>37.79258985954679</v>
       </c>
       <c r="G16">
-        <v>22.67042004871785</v>
+        <v>2.084539146943678</v>
       </c>
       <c r="H16">
-        <v>23.61148994804426</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.12708153833549</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>8.687804412577359</v>
+        <v>5.736069743373701</v>
       </c>
       <c r="K16">
-        <v>19.83133805885333</v>
+        <v>20.15061876473075</v>
       </c>
       <c r="L16">
-        <v>11.26972790496918</v>
+        <v>6.953419964735517</v>
       </c>
       <c r="M16">
-        <v>17.3500272955737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>14.76328988235296</v>
+      </c>
+      <c r="N16">
+        <v>13.54384243743495</v>
+      </c>
+      <c r="O16">
+        <v>27.63978606390168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.96477404341261</v>
+        <v>24.49503878879171</v>
       </c>
       <c r="C17">
-        <v>15.31044568924564</v>
+        <v>12.95775803097755</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.589128090094059</v>
+        <v>6.84289858696421</v>
       </c>
       <c r="F17">
-        <v>35.07198703798937</v>
+        <v>37.35431612301731</v>
       </c>
       <c r="G17">
-        <v>22.25591901031835</v>
+        <v>2.088464821355311</v>
       </c>
       <c r="H17">
-        <v>23.28519039009425</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.96644446096359</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>8.776049848281504</v>
+        <v>5.769975102335511</v>
       </c>
       <c r="K17">
-        <v>19.41024312261479</v>
+        <v>19.69877806644047</v>
       </c>
       <c r="L17">
-        <v>11.02914444502665</v>
+        <v>6.906119214503136</v>
       </c>
       <c r="M17">
-        <v>16.99316328089729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14.55161504398058</v>
+      </c>
+      <c r="N17">
+        <v>13.65022067641802</v>
+      </c>
+      <c r="O17">
+        <v>27.35907670015257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.68015154692126</v>
+        <v>24.20240041754071</v>
       </c>
       <c r="C18">
-        <v>15.11026989588107</v>
+        <v>12.79712895791036</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.517077115130342</v>
+        <v>6.837115395841463</v>
       </c>
       <c r="F18">
-        <v>34.60658725811785</v>
+        <v>37.10385730920571</v>
       </c>
       <c r="G18">
-        <v>22.018154017018</v>
+        <v>2.090730832344222</v>
       </c>
       <c r="H18">
-        <v>23.0994599846463</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.8766985842374</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>8.826797629950473</v>
+        <v>5.78945658418226</v>
       </c>
       <c r="K18">
-        <v>19.16498771965105</v>
+        <v>19.43556774061103</v>
       </c>
       <c r="L18">
-        <v>10.88899554612463</v>
+        <v>6.879063406816985</v>
       </c>
       <c r="M18">
-        <v>16.78533858094124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14.42947530307274</v>
+      </c>
+      <c r="N18">
+        <v>13.71168836711742</v>
+      </c>
+      <c r="O18">
+        <v>27.1996872038218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.58314256519751</v>
+        <v>24.1028409629069</v>
       </c>
       <c r="C19">
-        <v>15.04208698325274</v>
+        <v>12.74242924943091</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.492610638408395</v>
+        <v>6.83518571396768</v>
       </c>
       <c r="F19">
-        <v>34.45923681416107</v>
+        <v>37.01933647154145</v>
       </c>
       <c r="G19">
-        <v>21.93776170773408</v>
+        <v>2.09149952811182</v>
       </c>
       <c r="H19">
-        <v>23.03690774850601</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.84676052328981</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>8.843980579749784</v>
+        <v>5.796050155962246</v>
       </c>
       <c r="K19">
-        <v>19.0814199254141</v>
+        <v>19.34587394465271</v>
       </c>
       <c r="L19">
-        <v>10.84123708963251</v>
+        <v>6.869928956796362</v>
       </c>
       <c r="M19">
-        <v>16.71452905957016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14.38805602845413</v>
+      </c>
+      <c r="N19">
+        <v>13.73254918104265</v>
+      </c>
+      <c r="O19">
+        <v>27.14607331427863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.0171481199185</v>
+        <v>24.54897289881867</v>
       </c>
       <c r="C20">
-        <v>15.34730149621757</v>
+        <v>12.98733862110407</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.602428980805639</v>
+        <v>6.843982617767056</v>
       </c>
       <c r="F20">
-        <v>35.15799428753547</v>
+        <v>37.40080322578148</v>
       </c>
       <c r="G20">
-        <v>22.29997656605923</v>
+        <v>2.088046110411828</v>
       </c>
       <c r="H20">
-        <v>23.31972343677625</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.98326891386248</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>8.766657372982706</v>
+        <v>5.766368105599178</v>
       </c>
       <c r="K20">
-        <v>19.45538432962956</v>
+        <v>19.74722017469753</v>
       </c>
       <c r="L20">
-        <v>11.05493780514309</v>
+        <v>6.91113898630902</v>
       </c>
       <c r="M20">
-        <v>17.03141692168467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>14.57418904280867</v>
+      </c>
+      <c r="N20">
+        <v>13.63886749455179</v>
+      </c>
+      <c r="O20">
+        <v>27.38874418000742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.43150736706578</v>
+        <v>26.06293411695772</v>
       </c>
       <c r="C21">
-        <v>16.34510892253664</v>
+        <v>13.78880731656414</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.966293098533058</v>
+        <v>6.875640503723446</v>
       </c>
       <c r="F21">
-        <v>37.4956896157218</v>
+        <v>38.70183199731751</v>
       </c>
       <c r="G21">
-        <v>23.52472662352016</v>
+        <v>2.076533468469525</v>
       </c>
       <c r="H21">
-        <v>24.29338499005481</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.47404454275532</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>8.506596561685885</v>
+        <v>5.666331260821049</v>
       </c>
       <c r="K21">
-        <v>20.67570759575174</v>
+        <v>21.05632457605107</v>
       </c>
       <c r="L21">
-        <v>11.75194273863617</v>
+        <v>7.051369811644685</v>
       </c>
       <c r="M21">
-        <v>18.06569052312551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>15.19477333143154</v>
+      </c>
+      <c r="N21">
+        <v>13.32743957997084</v>
+      </c>
+      <c r="O21">
+        <v>28.22897272004497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.32410415957956</v>
+        <v>27.07061595636569</v>
       </c>
       <c r="C22">
-        <v>16.97739918644536</v>
+        <v>14.2971975679965</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.200144918643002</v>
+        <v>6.898056857472108</v>
       </c>
       <c r="F22">
-        <v>38.98527788268565</v>
+        <v>39.5664875693206</v>
       </c>
       <c r="G22">
-        <v>24.33118774129115</v>
+        <v>2.069062352214642</v>
       </c>
       <c r="H22">
-        <v>24.94763302890122</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.81985786044028</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>8.336051480512918</v>
+        <v>5.600552863546095</v>
       </c>
       <c r="K22">
-        <v>21.4471012081818</v>
+        <v>21.88337671620589</v>
       </c>
       <c r="L22">
-        <v>12.19222135742464</v>
+        <v>7.144283953502077</v>
       </c>
       <c r="M22">
-        <v>18.71952848886029</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15.59651110206209</v>
+      </c>
+      <c r="N22">
+        <v>13.12630707096879</v>
+      </c>
+      <c r="O22">
+        <v>28.79713144526209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.85055438372046</v>
+        <v>26.53574662135138</v>
       </c>
       <c r="C23">
-        <v>16.64169531358636</v>
+        <v>14.0272342929803</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.075703096579854</v>
+        <v>6.885923905483349</v>
       </c>
       <c r="F23">
-        <v>38.19367737559652</v>
+        <v>39.10368925966007</v>
       </c>
       <c r="G23">
-        <v>23.90018877447397</v>
+        <v>2.073045939180622</v>
       </c>
       <c r="H23">
-        <v>24.59677633199863</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.63292431469281</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>8.427153345100045</v>
+        <v>5.635707916687903</v>
       </c>
       <c r="K23">
-        <v>21.03773426329472</v>
+        <v>21.44451850207978</v>
       </c>
       <c r="L23">
-        <v>11.95860529715888</v>
+        <v>7.094581375947598</v>
       </c>
       <c r="M23">
-        <v>18.37254852593822</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>15.38246266607417</v>
+      </c>
+      <c r="N23">
+        <v>13.23343988923707</v>
+      </c>
+      <c r="O23">
+        <v>28.49212040053533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.99348173744094</v>
+        <v>24.52459835125105</v>
       </c>
       <c r="C24">
-        <v>15.3306465760628</v>
+        <v>12.97397110173688</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.596417059591543</v>
+        <v>6.843492007484135</v>
       </c>
       <c r="F24">
-        <v>35.11912492449672</v>
+        <v>37.37978169932681</v>
       </c>
       <c r="G24">
-        <v>22.28005647336212</v>
+        <v>2.088235381120217</v>
       </c>
       <c r="H24">
-        <v>23.30410524699121</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.97565447621577</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>8.770903661105084</v>
+        <v>5.767998861239138</v>
       </c>
       <c r="K24">
-        <v>19.43498585076035</v>
+        <v>19.72533022728796</v>
       </c>
       <c r="L24">
-        <v>11.04328234593142</v>
+        <v>6.90886911670013</v>
       </c>
       <c r="M24">
-        <v>17.01413074002937</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>14.56398471947196</v>
+      </c>
+      <c r="N24">
+        <v>13.64399930305257</v>
+      </c>
+      <c r="O24">
+        <v>27.37532530761625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84824333196505</v>
+        <v>22.33941257347075</v>
       </c>
       <c r="C25">
-        <v>13.82638487884686</v>
+        <v>11.76841531419395</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.063542943480942</v>
+        <v>6.804145512597934</v>
       </c>
       <c r="F25">
-        <v>31.86268759964546</v>
+        <v>35.58271629137533</v>
       </c>
       <c r="G25">
-        <v>20.55750923914018</v>
+        <v>2.104936819416555</v>
       </c>
       <c r="H25">
-        <v>21.98418593486505</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>18.3670773354951</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>9.141605516902594</v>
+        <v>5.91003228808256</v>
       </c>
       <c r="K25">
-        <v>17.58898873864843</v>
+        <v>17.74332670970377</v>
       </c>
       <c r="L25">
-        <v>9.987982425803033</v>
+        <v>6.714351867628403</v>
       </c>
       <c r="M25">
-        <v>15.45045397982819</v>
+        <v>13.66662589715193</v>
+      </c>
+      <c r="N25">
+        <v>14.0977089443949</v>
+      </c>
+      <c r="O25">
+        <v>26.24947805717338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.64063184299959</v>
+        <v>20.61851396983232</v>
       </c>
       <c r="C2">
-        <v>10.81793124627147</v>
+        <v>14.17573359474751</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.779763792078369</v>
+        <v>12.8171054224808</v>
       </c>
       <c r="F2">
-        <v>34.31504057341164</v>
+        <v>33.36537757239753</v>
       </c>
       <c r="G2">
-        <v>2.117596681291825</v>
+        <v>33.53882997536367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.28734306996737</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.015074853289154</v>
+        <v>4.568008123002299</v>
       </c>
       <c r="K2">
-        <v>16.18828717111392</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.576551317178153</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.99648799306829</v>
+        <v>16.83571333021058</v>
       </c>
       <c r="N2">
-        <v>14.44185777920442</v>
+        <v>11.3569371218251</v>
       </c>
       <c r="O2">
-        <v>25.4854447739837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.43550941179723</v>
+        <v>19.20060882719853</v>
       </c>
       <c r="C3">
-        <v>10.1333974897282</v>
+        <v>13.26487000273884</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.76571172957519</v>
+        <v>12.48551295874476</v>
       </c>
       <c r="F3">
-        <v>33.49198129373886</v>
+        <v>32.02186479776844</v>
       </c>
       <c r="G3">
-        <v>2.126442183731724</v>
+        <v>31.87245957047239</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.12253977655354</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.087001268226786</v>
+        <v>4.642932849020191</v>
       </c>
       <c r="K3">
-        <v>15.22915728816548</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>6.486785275730998</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.53858907302544</v>
+        <v>15.93444253338087</v>
       </c>
       <c r="N3">
-        <v>14.68178650460713</v>
+        <v>11.61650877165</v>
       </c>
       <c r="O3">
-        <v>25.00685770347704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.67029020231987</v>
+        <v>18.281764879007</v>
       </c>
       <c r="C4">
-        <v>9.692899588344076</v>
+        <v>12.6761766775596</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.758191293523995</v>
+        <v>12.28351886196667</v>
       </c>
       <c r="F4">
-        <v>33.0049614410154</v>
+        <v>31.20170756351375</v>
       </c>
       <c r="G4">
-        <v>2.132016249917491</v>
+        <v>30.85486904197933</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.03163898383826</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.131660370590371</v>
+        <v>4.69008583961087</v>
       </c>
       <c r="K4">
-        <v>14.61979244044424</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>6.433538529595512</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.25647400742921</v>
+        <v>15.3633943312046</v>
       </c>
       <c r="N4">
-        <v>14.83254339209714</v>
+        <v>11.77843863721227</v>
       </c>
       <c r="O4">
-        <v>24.73189401776228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.35236874694588</v>
+        <v>17.89507896124887</v>
       </c>
       <c r="C5">
-        <v>9.508290573073268</v>
+        <v>12.42885105783385</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.755390255381368</v>
+        <v>12.20169791984873</v>
       </c>
       <c r="F5">
-        <v>32.81119644499169</v>
+        <v>30.86908986036736</v>
       </c>
       <c r="G5">
-        <v>2.134325271557111</v>
+        <v>30.44210126742266</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>9.997111666054005</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.150001952103926</v>
+        <v>4.709598645649113</v>
       </c>
       <c r="K5">
-        <v>14.3665268059339</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>6.412322956981612</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>12.14141787549805</v>
+        <v>15.12648493996536</v>
       </c>
       <c r="N5">
-        <v>14.89486274790731</v>
+        <v>11.84511525909315</v>
       </c>
       <c r="O5">
-        <v>24.62452342172762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.29921956082796</v>
+        <v>17.83012685406637</v>
       </c>
       <c r="C6">
-        <v>9.477327741679554</v>
+        <v>12.38733355474443</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.754940655435801</v>
+        <v>12.18814409865353</v>
       </c>
       <c r="F6">
-        <v>32.77930818544351</v>
+        <v>30.81396839065566</v>
       </c>
       <c r="G6">
-        <v>2.134710995696907</v>
+        <v>30.37369308133065</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>9.991528134418507</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.153056672167639</v>
+        <v>4.712856953669177</v>
       </c>
       <c r="K6">
-        <v>14.32418052287079</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>6.408829653805808</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>12.12231199841414</v>
+        <v>15.08690049300448</v>
       </c>
       <c r="N6">
-        <v>14.9052648413538</v>
+        <v>11.85622979320895</v>
       </c>
       <c r="O6">
-        <v>24.60697497362175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.66602685133752</v>
+        <v>18.27659964854019</v>
       </c>
       <c r="C7">
-        <v>9.690430569907829</v>
+        <v>12.67287126518</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.758152469160494</v>
+        <v>12.28241327760179</v>
       </c>
       <c r="F7">
-        <v>33.00232911906599</v>
+        <v>31.19721470876727</v>
       </c>
       <c r="G7">
-        <v>2.132047236114095</v>
+        <v>30.84929385610908</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.03116325082905</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.13190713128879</v>
+        <v>4.690347779968607</v>
       </c>
       <c r="K7">
-        <v>14.61639652764171</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>6.433250437303697</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.25492248374683</v>
+        <v>15.36021595063129</v>
       </c>
       <c r="N7">
-        <v>14.83338024442245</v>
+        <v>11.77933501186637</v>
       </c>
       <c r="O7">
-        <v>24.73042713452086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.2304883939367</v>
+        <v>20.13956070782186</v>
       </c>
       <c r="C8">
-        <v>10.58607520458131</v>
+        <v>13.86775113943898</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.774679345874475</v>
+        <v>12.70249173425545</v>
       </c>
       <c r="F8">
-        <v>34.02749632562382</v>
+        <v>32.90137438974119</v>
       </c>
       <c r="G8">
-        <v>2.120617957620976</v>
+        <v>32.96339042670343</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.2283421445534</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.039783340913574</v>
+        <v>4.59360903367761</v>
       </c>
       <c r="K8">
-        <v>15.86192730320697</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>6.545219610451714</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.83889002339996</v>
+        <v>16.5287492773299</v>
       </c>
       <c r="N8">
-        <v>14.52388320688486</v>
+        <v>11.44593719389615</v>
       </c>
       <c r="O8">
-        <v>25.31646708862115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.08962440658652</v>
+        <v>23.41562794947984</v>
       </c>
       <c r="C9">
-        <v>12.18408522035093</v>
+        <v>15.97956564925219</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.816629472594471</v>
+        <v>13.53532296249879</v>
       </c>
       <c r="F9">
-        <v>36.17960213249289</v>
+        <v>36.26582384134942</v>
       </c>
       <c r="G9">
-        <v>2.099260205448165</v>
+        <v>37.13539700129329</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.69956903006742</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.862180367702078</v>
+        <v>4.412612533701634</v>
       </c>
       <c r="K9">
-        <v>18.42850411697608</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>6.779063999652458</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.97060711167766</v>
+        <v>18.7129217622409</v>
       </c>
       <c r="N9">
-        <v>13.94336194551246</v>
+        <v>10.81008516407558</v>
       </c>
       <c r="O9">
-        <v>26.61846171962561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.05611913719753</v>
+        <v>25.60085019903605</v>
       </c>
       <c r="C10">
-        <v>13.2651486230971</v>
+        <v>17.39389187880454</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.854454268176697</v>
+        <v>14.14831139466059</v>
       </c>
       <c r="F10">
-        <v>37.84281932700684</v>
+        <v>38.73537788808269</v>
       </c>
       <c r="G10">
-        <v>2.0840922325536</v>
+        <v>40.19958026230649</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.10104180794861</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.7321974881829</v>
+        <v>4.284354127524064</v>
       </c>
       <c r="K10">
-        <v>20.20173007631137</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>6.958837410334459</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>14.78738908739387</v>
+        <v>20.46259588651068</v>
       </c>
       <c r="N10">
-        <v>13.53174172891942</v>
+        <v>10.35035759703761</v>
       </c>
       <c r="O10">
-        <v>27.67209893570396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.96170139629819</v>
+        <v>26.54877335704187</v>
       </c>
       <c r="C11">
-        <v>13.73778335117079</v>
+        <v>18.00857358903491</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.873492007889483</v>
+        <v>14.42665334516144</v>
       </c>
       <c r="F11">
-        <v>38.61669036440072</v>
+        <v>39.85625261429425</v>
       </c>
       <c r="G11">
-        <v>2.077276070213113</v>
+        <v>41.59179127737205</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.29643405775337</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.672833093792494</v>
+        <v>4.226897819594109</v>
       </c>
       <c r="K11">
-        <v>20.97317643226815</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>7.042208247108634</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.1547798625995</v>
+        <v>21.22135447089153</v>
       </c>
       <c r="N11">
-        <v>13.34747807286271</v>
+        <v>10.14196698571085</v>
       </c>
       <c r="O11">
-        <v>28.17342906939919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.31145480750416</v>
+        <v>26.90126466575293</v>
       </c>
       <c r="C12">
-        <v>13.91410543485672</v>
+        <v>18.23731260603724</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.880994412719492</v>
+        <v>14.53193020123859</v>
       </c>
       <c r="F12">
-        <v>38.91219934379132</v>
+        <v>40.28024921106935</v>
       </c>
       <c r="G12">
-        <v>2.074704291336188</v>
+        <v>42.11874449164572</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.37232110103203</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.650287689651546</v>
+        <v>4.20525734826378</v>
       </c>
       <c r="K12">
-        <v>21.26039880044559</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>7.073996701315288</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.29324452693687</v>
+        <v>21.50346476429712</v>
       </c>
       <c r="N12">
-        <v>13.2781147240362</v>
+        <v>10.06308232684964</v>
       </c>
       <c r="O12">
-        <v>28.36652584118636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.23637750356944</v>
+        <v>26.82563412671569</v>
       </c>
       <c r="C13">
-        <v>13.87624765093297</v>
+        <v>18.18822696868053</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.879365073893445</v>
+        <v>14.50926322321286</v>
       </c>
       <c r="F13">
-        <v>38.84844674842238</v>
+        <v>40.18895482213374</v>
       </c>
       <c r="G13">
-        <v>2.07525779990424</v>
+        <v>42.00526559350597</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.35589211132388</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.655146696944512</v>
+        <v>4.209912983294227</v>
       </c>
       <c r="K13">
-        <v>21.19875598089629</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>7.067140964073817</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.26345368653378</v>
+        <v>21.44293701882992</v>
       </c>
       <c r="N13">
-        <v>13.29303520624295</v>
+        <v>10.08007161949957</v>
       </c>
       <c r="O13">
-        <v>28.32479270115763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.99058795220077</v>
+        <v>26.57790161464712</v>
       </c>
       <c r="C14">
-        <v>13.75234205751274</v>
+        <v>18.02747218765359</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.874103172608652</v>
+        <v>14.43531730262485</v>
       </c>
       <c r="F14">
-        <v>38.64095275623363</v>
+        <v>39.89114443178497</v>
       </c>
       <c r="G14">
-        <v>2.077064317410455</v>
+        <v>41.63514862554609</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.30263896118919</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.67097977457128</v>
+        <v>4.225115163435209</v>
       </c>
       <c r="K14">
-        <v>20.99690381035223</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>7.044819196355201</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.16618489310354</v>
+        <v>21.24466758850177</v>
       </c>
       <c r="N14">
-        <v>13.34176330723569</v>
+        <v>10.13547700558409</v>
       </c>
       <c r="O14">
-        <v>28.18924948248481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.83930498536536</v>
+        <v>26.42532139379622</v>
       </c>
       <c r="C15">
-        <v>13.67610379197393</v>
+        <v>17.92848390909213</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.870919250218622</v>
+        <v>14.39000563410827</v>
       </c>
       <c r="F15">
-        <v>38.51417707119687</v>
+        <v>39.7086663710037</v>
       </c>
       <c r="G15">
-        <v>2.078171994829722</v>
+        <v>41.40841085505631</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.27026870315535</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.680668474796178</v>
+        <v>4.23444184647412</v>
       </c>
       <c r="K15">
-        <v>20.87262923457865</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>7.031174522851052</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.10651781461401</v>
+        <v>21.12254672685015</v>
       </c>
       <c r="N15">
-        <v>13.37166407111717</v>
+        <v>10.16941563914179</v>
       </c>
       <c r="O15">
-        <v>28.10665198240972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.99899100378461</v>
+        <v>25.5379867845831</v>
       </c>
       <c r="C16">
-        <v>13.23388368454393</v>
+        <v>17.3531516563405</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.853249419994785</v>
+        <v>14.13010615157129</v>
       </c>
       <c r="F16">
-        <v>37.79258985954679</v>
+        <v>38.66206575211027</v>
       </c>
       <c r="G16">
-        <v>2.084539146943678</v>
+        <v>40.10855920477921</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.08853439502776</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.736069743373701</v>
+        <v>4.288125999669313</v>
       </c>
       <c r="K16">
-        <v>20.15061876473075</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>6.953419964735517</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>14.76328988235296</v>
+        <v>20.4122721035144</v>
       </c>
       <c r="N16">
-        <v>13.54384243743495</v>
+        <v>10.3639848172391</v>
       </c>
       <c r="O16">
-        <v>27.63978606390168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.49503878879171</v>
+        <v>24.98193307636119</v>
       </c>
       <c r="C17">
-        <v>12.95775803097755</v>
+        <v>16.99291957757455</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.84289858696421</v>
+        <v>13.9704953456575</v>
       </c>
       <c r="F17">
-        <v>37.35431612301731</v>
+        <v>38.01927406627944</v>
       </c>
       <c r="G17">
-        <v>2.088464821355311</v>
+        <v>39.31067217445103</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.98035709980907</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.769975102335511</v>
+        <v>4.321279551216703</v>
       </c>
       <c r="K17">
-        <v>19.69877806644047</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>6.906119214503136</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.55161504398058</v>
+        <v>19.96710987103645</v>
       </c>
       <c r="N17">
-        <v>13.65022067641802</v>
+        <v>10.48348331951476</v>
       </c>
       <c r="O17">
-        <v>27.35907670015257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.20240041754071</v>
+        <v>24.65775142711642</v>
       </c>
       <c r="C18">
-        <v>12.79712895791036</v>
+        <v>16.78301527569224</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.837115395841463</v>
+        <v>13.87864591719907</v>
       </c>
       <c r="F18">
-        <v>37.10385730920571</v>
+        <v>37.64931936153463</v>
       </c>
       <c r="G18">
-        <v>2.090730832344222</v>
+        <v>38.85158217615666</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.91933365587391</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.78945658418226</v>
+        <v>4.340432948859877</v>
       </c>
       <c r="K18">
-        <v>19.43556774061103</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>6.879063406816985</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.42947530307274</v>
+        <v>19.70755668671942</v>
       </c>
       <c r="N18">
-        <v>13.71168836711742</v>
+        <v>10.55229063335641</v>
       </c>
       <c r="O18">
-        <v>27.1996872038218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.1028409629069</v>
+        <v>24.54723629911235</v>
       </c>
       <c r="C19">
-        <v>12.74242924943091</v>
+        <v>16.71147729270355</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.83518571396768</v>
+        <v>13.84754122194698</v>
       </c>
       <c r="F19">
-        <v>37.01933647154145</v>
+        <v>37.52402207831892</v>
       </c>
       <c r="G19">
-        <v>2.09149952811182</v>
+        <v>38.69611535975124</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.89887598596226</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.796050155962246</v>
+        <v>4.346932774803618</v>
       </c>
       <c r="K19">
-        <v>19.34587394465271</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>6.869928956796362</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.38805602845413</v>
+        <v>19.61907016396951</v>
       </c>
       <c r="N19">
-        <v>13.73254918104265</v>
+        <v>10.57560274197595</v>
       </c>
       <c r="O19">
-        <v>27.14607331427863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.54897289881867</v>
+        <v>25.04157540898087</v>
       </c>
       <c r="C20">
-        <v>12.98733862110407</v>
+        <v>17.03154651763977</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.843982617767056</v>
+        <v>13.98749130999461</v>
       </c>
       <c r="F20">
-        <v>37.40080322578148</v>
+        <v>38.08772583761279</v>
       </c>
       <c r="G20">
-        <v>2.088046110411828</v>
+        <v>39.39562618694062</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.99174841159745</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.766368105599178</v>
+        <v>4.317741646939184</v>
       </c>
       <c r="K20">
-        <v>19.74722017469753</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>6.91113898630902</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.57418904280867</v>
+        <v>20.01486026062658</v>
       </c>
       <c r="N20">
-        <v>13.63886749455179</v>
+        <v>10.47075528756269</v>
       </c>
       <c r="O20">
-        <v>27.38874418000742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.06293411695772</v>
+        <v>26.65084074805976</v>
       </c>
       <c r="C21">
-        <v>13.78880731656414</v>
+        <v>18.07479821274148</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.875640503723446</v>
+        <v>14.45704076865364</v>
       </c>
       <c r="F21">
-        <v>38.70183199731751</v>
+        <v>39.97863124936662</v>
       </c>
       <c r="G21">
-        <v>2.076533468469525</v>
+        <v>41.74386715208779</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.31822872983824</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.666331260821049</v>
+        <v>4.220646827334531</v>
       </c>
       <c r="K21">
-        <v>21.05632457605107</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>7.051369811644685</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.19477333143154</v>
+        <v>21.30304457109824</v>
       </c>
       <c r="N21">
-        <v>13.32743957997084</v>
+        <v>10.11920299417318</v>
       </c>
       <c r="O21">
-        <v>28.22897272004497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.07061595636569</v>
+        <v>27.6649845503389</v>
       </c>
       <c r="C22">
-        <v>14.2971975679965</v>
+        <v>18.73320318446572</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.898056857472108</v>
+        <v>14.76317267723812</v>
       </c>
       <c r="F22">
-        <v>39.5664875693206</v>
+        <v>41.21180900985711</v>
       </c>
       <c r="G22">
-        <v>2.069062352214642</v>
+        <v>43.27721268386367</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.54268723173053</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.600552863546095</v>
+        <v>4.157866453435803</v>
       </c>
       <c r="K22">
-        <v>21.88337671620589</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>7.144283953502077</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.59651110206209</v>
+        <v>22.11461786899017</v>
       </c>
       <c r="N22">
-        <v>13.12630707096879</v>
+        <v>9.889566338375442</v>
       </c>
       <c r="O22">
-        <v>28.79713144526209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.53574662135138</v>
+        <v>27.12709831774064</v>
       </c>
       <c r="C23">
-        <v>14.0272342929803</v>
+        <v>18.38390666885009</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.885923905483349</v>
+        <v>14.59986679830201</v>
       </c>
       <c r="F23">
-        <v>39.10368925966007</v>
+        <v>40.55389103391648</v>
       </c>
       <c r="G23">
-        <v>2.073045939180622</v>
+        <v>42.4589358936483</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.42185378153632</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.635707916687903</v>
+        <v>4.191315243811911</v>
       </c>
       <c r="K23">
-        <v>21.44451850207978</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>7.094581375947598</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.38246266607417</v>
+        <v>21.68419521319463</v>
       </c>
       <c r="N23">
-        <v>13.23343988923707</v>
+        <v>10.01214443121438</v>
       </c>
       <c r="O23">
-        <v>28.49212040053533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.52459835125105</v>
+        <v>25.01462513629225</v>
       </c>
       <c r="C24">
-        <v>12.97397110173688</v>
+        <v>17.01409201327742</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.843492007484135</v>
+        <v>13.97980770157767</v>
       </c>
       <c r="F24">
-        <v>37.37978169932681</v>
+        <v>38.0567800462169</v>
       </c>
       <c r="G24">
-        <v>2.088235381120217</v>
+        <v>39.35721964169572</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.98659476254691</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.767998861239138</v>
+        <v>4.319340843034427</v>
       </c>
       <c r="K24">
-        <v>19.72533022728796</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>6.90886911670013</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.56398471947196</v>
+        <v>19.99328360561947</v>
       </c>
       <c r="N24">
-        <v>13.64399930305257</v>
+        <v>10.47650929471712</v>
       </c>
       <c r="O24">
-        <v>27.37532530761625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.33941257347075</v>
+        <v>22.56892437273704</v>
       </c>
       <c r="C25">
-        <v>11.76841531419395</v>
+        <v>15.43268211140047</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.804145512597934</v>
+        <v>13.30953516026708</v>
       </c>
       <c r="F25">
-        <v>35.58271629137533</v>
+        <v>35.35512310858105</v>
       </c>
       <c r="G25">
-        <v>2.104936819416555</v>
+        <v>36.00606708776989</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.56264020260235</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.91003228808256</v>
+        <v>4.460704231304309</v>
       </c>
       <c r="K25">
-        <v>17.74332670970377</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>6.714351867628403</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.66662589715193</v>
+        <v>18.10905046749445</v>
       </c>
       <c r="N25">
-        <v>14.0977089443949</v>
+        <v>10.98052326790847</v>
       </c>
       <c r="O25">
-        <v>26.24947805717338</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61851396983232</v>
+        <v>13.34533969975764</v>
       </c>
       <c r="C2">
-        <v>14.17573359474751</v>
+        <v>8.16920413881499</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.8171054224808</v>
+        <v>19.85142983026525</v>
       </c>
       <c r="F2">
-        <v>33.36537757239753</v>
+        <v>39.95938947265507</v>
       </c>
       <c r="G2">
-        <v>33.53882997536367</v>
+        <v>32.14806665429052</v>
       </c>
       <c r="H2">
-        <v>10.28734306996737</v>
+        <v>14.67659151876387</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.568008123002299</v>
+        <v>7.924973918464391</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.83571333021058</v>
+        <v>18.99327997478041</v>
       </c>
       <c r="N2">
-        <v>11.3569371218251</v>
+        <v>17.53516521928421</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20060882719853</v>
+        <v>12.80444162561037</v>
       </c>
       <c r="C3">
-        <v>13.26487000273884</v>
+        <v>7.687040072786671</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.48551295874476</v>
+        <v>19.84197809585668</v>
       </c>
       <c r="F3">
-        <v>32.02186479776844</v>
+        <v>39.83086723860232</v>
       </c>
       <c r="G3">
-        <v>31.87245957047239</v>
+        <v>31.87143442498389</v>
       </c>
       <c r="H3">
-        <v>10.12253977655354</v>
+        <v>14.70279423431628</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.642932849020191</v>
+        <v>7.949473396150185</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.93444253338087</v>
+        <v>18.83316733293717</v>
       </c>
       <c r="N3">
-        <v>11.61650877165</v>
+        <v>17.60699527740569</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.281764879007</v>
+        <v>12.46334788739799</v>
       </c>
       <c r="C4">
-        <v>12.6761766775596</v>
+        <v>7.373721007158663</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.28351886196667</v>
+        <v>19.83897594606293</v>
       </c>
       <c r="F4">
-        <v>31.20170756351375</v>
+        <v>39.76312424993311</v>
       </c>
       <c r="G4">
-        <v>30.85486904197933</v>
+        <v>31.71467284520067</v>
       </c>
       <c r="H4">
-        <v>10.03163898383826</v>
+        <v>14.72260957639005</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.69008583961087</v>
+        <v>7.965272384687556</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.3633943312046</v>
+        <v>18.73796815373505</v>
       </c>
       <c r="N4">
-        <v>11.77843863721227</v>
+        <v>17.65305572237402</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89507896124887</v>
+        <v>12.32231687823949</v>
       </c>
       <c r="C5">
-        <v>12.42885105783385</v>
+        <v>7.241726594456999</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.20169791984873</v>
+        <v>19.83845915653813</v>
       </c>
       <c r="F5">
-        <v>30.86908986036736</v>
+        <v>39.73834382026966</v>
       </c>
       <c r="G5">
-        <v>30.44210126742266</v>
+        <v>31.65414842924466</v>
       </c>
       <c r="H5">
-        <v>9.997111666054005</v>
+        <v>14.7316181621001</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.709598645649113</v>
+        <v>7.971901304004829</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.12648493996536</v>
+        <v>18.69999187506637</v>
       </c>
       <c r="N5">
-        <v>11.84511525909315</v>
+        <v>17.67231945874966</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83012685406637</v>
+        <v>12.29878312040093</v>
       </c>
       <c r="C6">
-        <v>12.38733355474443</v>
+        <v>7.219549433352671</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.18814409865353</v>
+        <v>19.83841608072136</v>
       </c>
       <c r="F6">
-        <v>30.81396839065566</v>
+        <v>39.73440010777152</v>
       </c>
       <c r="G6">
-        <v>30.37369308133065</v>
+        <v>31.64430289972205</v>
       </c>
       <c r="H6">
-        <v>9.991528134418507</v>
+        <v>14.73317031562486</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.712856953669177</v>
+        <v>7.973013565144783</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.08690049300448</v>
+        <v>18.69373637926844</v>
       </c>
       <c r="N6">
-        <v>11.85622979320895</v>
+        <v>17.67554805915985</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.27659964854019</v>
+        <v>12.46145380673076</v>
       </c>
       <c r="C7">
-        <v>12.67287126518</v>
+        <v>7.371958309834289</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.28241327760179</v>
+        <v>19.83896611270746</v>
       </c>
       <c r="F7">
-        <v>31.19721470876727</v>
+        <v>39.76277859344034</v>
       </c>
       <c r="G7">
-        <v>30.84929385610908</v>
+        <v>31.71384291891957</v>
       </c>
       <c r="H7">
-        <v>10.03116325082905</v>
+        <v>14.72272729376443</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.690347779968607</v>
+        <v>7.965361011742106</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.36021595063129</v>
+        <v>18.73745263328807</v>
       </c>
       <c r="N7">
-        <v>11.77933501186637</v>
+        <v>17.65331351846893</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13956070782186</v>
+        <v>13.16082938964994</v>
       </c>
       <c r="C8">
-        <v>13.86775113943898</v>
+        <v>8.006552226527946</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.70249173425545</v>
+        <v>19.84759087761158</v>
       </c>
       <c r="F8">
-        <v>32.90137438974119</v>
+        <v>39.91276765339988</v>
       </c>
       <c r="G8">
-        <v>32.96339042670343</v>
+        <v>32.05000836497974</v>
       </c>
       <c r="H8">
-        <v>10.2283421445534</v>
+        <v>14.68485073475112</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.59360903367761</v>
+        <v>7.933264717740326</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.5287492773299</v>
+        <v>18.93744954368987</v>
       </c>
       <c r="N8">
-        <v>11.44593719389615</v>
+        <v>17.55952721239984</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.41562794947984</v>
+        <v>14.45240050068983</v>
       </c>
       <c r="C9">
-        <v>15.97956564925219</v>
+        <v>9.113139198998567</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.53532296249879</v>
+        <v>19.88662427310974</v>
       </c>
       <c r="F9">
-        <v>36.26582384134942</v>
+        <v>40.29463406277179</v>
       </c>
       <c r="G9">
-        <v>37.13539700129329</v>
+        <v>32.80983418519806</v>
       </c>
       <c r="H9">
-        <v>10.69956903006742</v>
+        <v>14.64028734996751</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.412612533701634</v>
+        <v>7.876298952589872</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.7129217622409</v>
+        <v>19.35267883329326</v>
       </c>
       <c r="N9">
-        <v>10.81008516407558</v>
+        <v>17.391055200576</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.60085019903605</v>
+        <v>15.34267257545531</v>
       </c>
       <c r="C10">
-        <v>17.39389187880454</v>
+        <v>9.841435358109653</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.14831139466059</v>
+        <v>19.92863092077555</v>
       </c>
       <c r="F10">
-        <v>38.73537788808269</v>
+        <v>40.62725127844843</v>
       </c>
       <c r="G10">
-        <v>40.19958026230649</v>
+        <v>33.42450991071703</v>
       </c>
       <c r="H10">
-        <v>11.10104180794861</v>
+        <v>14.62583613402054</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.284354127524064</v>
+        <v>7.838053109635728</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>20.46259588651068</v>
+        <v>19.66950988145984</v>
       </c>
       <c r="N10">
-        <v>10.35035759703761</v>
+        <v>17.27657744362229</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.54877335704187</v>
+        <v>15.73327515506662</v>
       </c>
       <c r="C11">
-        <v>18.00857358903491</v>
+        <v>10.1543127308435</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.42665334516144</v>
+        <v>19.95059591049917</v>
       </c>
       <c r="F11">
-        <v>39.85625261429425</v>
+        <v>40.78949641777596</v>
       </c>
       <c r="G11">
-        <v>41.59179127737205</v>
+        <v>33.71522459070309</v>
       </c>
       <c r="H11">
-        <v>11.29643405775337</v>
+        <v>14.62326391841995</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.226897819594109</v>
+        <v>7.821429723947018</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>21.22135447089153</v>
+        <v>19.81569643860344</v>
       </c>
       <c r="N11">
-        <v>10.14196698571085</v>
+        <v>17.22649290389953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.90126466575293</v>
+        <v>15.87900324739635</v>
       </c>
       <c r="C12">
-        <v>18.23731260603724</v>
+        <v>10.27014088301223</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.53193020123859</v>
+        <v>19.95932029072553</v>
       </c>
       <c r="F12">
-        <v>40.28024921106935</v>
+        <v>40.85247031873255</v>
       </c>
       <c r="G12">
-        <v>42.11874449164572</v>
+        <v>33.82680137318442</v>
       </c>
       <c r="H12">
-        <v>11.37232110103203</v>
+        <v>14.62286719665859</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.20525734826378</v>
+        <v>7.815245739299795</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>21.50346476429712</v>
+        <v>19.87130663993563</v>
       </c>
       <c r="N12">
-        <v>10.06308232684964</v>
+        <v>17.20781178495174</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.82563412671569</v>
+        <v>15.84771692688334</v>
       </c>
       <c r="C13">
-        <v>18.18822696868053</v>
+        <v>10.24531315432657</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.50926322321286</v>
+        <v>19.95742331689732</v>
       </c>
       <c r="F13">
-        <v>40.18895482213374</v>
+        <v>40.83884011123383</v>
       </c>
       <c r="G13">
-        <v>42.00526559350597</v>
+        <v>33.8027067974899</v>
       </c>
       <c r="H13">
-        <v>11.35589211132388</v>
+        <v>14.62292693554154</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.209912983294227</v>
+        <v>7.816572645113015</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>21.44293701882992</v>
+        <v>19.85931945051038</v>
       </c>
       <c r="N13">
-        <v>10.08007161949957</v>
+        <v>17.21182245708039</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.57790161464712</v>
+        <v>15.7453086809881</v>
       </c>
       <c r="C14">
-        <v>18.02747218765359</v>
+        <v>10.1638951278271</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.43531730262485</v>
+        <v>19.95130554310884</v>
       </c>
       <c r="F14">
-        <v>39.89114443178497</v>
+        <v>40.79464677573812</v>
       </c>
       <c r="G14">
-        <v>41.63514862554609</v>
+        <v>33.72437484858343</v>
       </c>
       <c r="H14">
-        <v>11.30263896118919</v>
+        <v>14.62321970015219</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.225115163435209</v>
+        <v>7.820918743381107</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>21.24466758850177</v>
+        <v>19.82026671185334</v>
       </c>
       <c r="N14">
-        <v>10.13547700558409</v>
+        <v>17.22495029831763</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.42532139379622</v>
+        <v>15.68229301526738</v>
       </c>
       <c r="C15">
-        <v>17.92848390909213</v>
+        <v>10.11367889631882</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.39000563410827</v>
+        <v>19.94761107354592</v>
       </c>
       <c r="F15">
-        <v>39.7086663710037</v>
+        <v>40.76777584815186</v>
       </c>
       <c r="G15">
-        <v>41.40841085505631</v>
+        <v>33.6765850314051</v>
       </c>
       <c r="H15">
-        <v>11.27026870315535</v>
+        <v>14.62347426017774</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.23444184647412</v>
+        <v>7.823595286056728</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>21.12254672685015</v>
+        <v>19.7963773752416</v>
       </c>
       <c r="N15">
-        <v>10.16941563914179</v>
+        <v>17.23302852241485</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.5379867845831</v>
+        <v>15.31684599573169</v>
       </c>
       <c r="C16">
-        <v>17.3531516563405</v>
+        <v>9.820617050726248</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.13010615157129</v>
+        <v>19.92725259379165</v>
       </c>
       <c r="F16">
-        <v>38.66206575211027</v>
+        <v>40.61686510862329</v>
       </c>
       <c r="G16">
-        <v>40.10855920477921</v>
+        <v>33.40572530561256</v>
       </c>
       <c r="H16">
-        <v>11.08853439502776</v>
+        <v>14.62608492857957</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.288125999669313</v>
+        <v>7.839155036710266</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>20.4122721035144</v>
+        <v>19.65999395493194</v>
       </c>
       <c r="N16">
-        <v>10.3639848172391</v>
+        <v>17.27989052969317</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.98193307636119</v>
+        <v>15.08888350078759</v>
       </c>
       <c r="C17">
-        <v>16.99291957757455</v>
+        <v>9.636111062518605</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.9704953456575</v>
+        <v>19.91549207611666</v>
       </c>
       <c r="F17">
-        <v>38.01927406627944</v>
+        <v>40.52706157159137</v>
       </c>
       <c r="G17">
-        <v>39.31067217445103</v>
+        <v>33.24232915355119</v>
       </c>
       <c r="H17">
-        <v>10.98035709980907</v>
+        <v>14.62871288413101</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.321279551216703</v>
+        <v>7.848898544281227</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.96710987103645</v>
+        <v>19.57682349719861</v>
       </c>
       <c r="N17">
-        <v>10.48348331951476</v>
+        <v>17.30914787826077</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.65775142711642</v>
+        <v>14.95641715386186</v>
       </c>
       <c r="C18">
-        <v>16.78301527569224</v>
+        <v>9.528253460581288</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.87864591719907</v>
+        <v>19.90899680985514</v>
       </c>
       <c r="F18">
-        <v>37.64931936153463</v>
+        <v>40.47644072690063</v>
       </c>
       <c r="G18">
-        <v>38.85158217615666</v>
+        <v>33.14939898862414</v>
       </c>
       <c r="H18">
-        <v>10.91933365587391</v>
+        <v>14.63060098714542</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.340432948859877</v>
+        <v>7.854575712743792</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.70755668671942</v>
+        <v>19.52918242790133</v>
       </c>
       <c r="N18">
-        <v>10.55229063335641</v>
+        <v>17.32616352162635</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.54723629911235</v>
+        <v>14.91133855119821</v>
       </c>
       <c r="C19">
-        <v>16.71147729270355</v>
+        <v>9.491436902818347</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84754122194698</v>
+        <v>19.90684395374671</v>
       </c>
       <c r="F19">
-        <v>37.52402207831892</v>
+        <v>40.45947967625011</v>
       </c>
       <c r="G19">
-        <v>38.69611535975124</v>
+        <v>33.11811811241991</v>
       </c>
       <c r="H19">
-        <v>10.89887598596226</v>
+        <v>14.63130487941058</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.346932774803618</v>
+        <v>7.856510450511835</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.61907016396951</v>
+        <v>19.51308703085084</v>
       </c>
       <c r="N19">
-        <v>10.57560274197595</v>
+        <v>17.33195699481353</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.04157540898087</v>
+        <v>15.11329093877626</v>
       </c>
       <c r="C20">
-        <v>17.03154651763977</v>
+        <v>9.655931589450569</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.98749130999461</v>
+        <v>19.91671618315118</v>
       </c>
       <c r="F20">
-        <v>38.08772583761279</v>
+        <v>40.53651478815596</v>
       </c>
       <c r="G20">
-        <v>39.39562618694062</v>
+        <v>33.25961493822236</v>
       </c>
       <c r="H20">
-        <v>10.99174841159745</v>
+        <v>14.62839414523679</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.317741646939184</v>
+        <v>7.847853783715113</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>20.01486026062658</v>
+        <v>19.58565712463114</v>
       </c>
       <c r="N20">
-        <v>10.47075528756269</v>
+        <v>17.30601398062343</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.65084074805976</v>
+        <v>15.77544859676328</v>
       </c>
       <c r="C21">
-        <v>18.07479821274148</v>
+        <v>10.18788154377016</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.45704076865364</v>
+        <v>19.95309147651916</v>
       </c>
       <c r="F21">
-        <v>39.97863124936662</v>
+        <v>40.80758607771278</v>
       </c>
       <c r="G21">
-        <v>41.74386715208779</v>
+        <v>33.74734327967366</v>
       </c>
       <c r="H21">
-        <v>11.31822872983824</v>
+        <v>14.62311802674083</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.220646827334531</v>
+        <v>7.819639182220628</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>21.30304457109824</v>
+        <v>19.83173094152654</v>
       </c>
       <c r="N21">
-        <v>10.11920299417318</v>
+        <v>17.22108661644164</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.6649845503389</v>
+        <v>16.1954307706053</v>
       </c>
       <c r="C22">
-        <v>18.73320318446572</v>
+        <v>10.52008627295708</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.76317267723812</v>
+        <v>19.97923343313589</v>
       </c>
       <c r="F22">
-        <v>41.21180900985711</v>
+        <v>40.99367569529672</v>
       </c>
       <c r="G22">
-        <v>43.27721268386367</v>
+        <v>34.07473221929477</v>
       </c>
       <c r="H22">
-        <v>11.54268723173053</v>
+        <v>14.62303543732668</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.157866453435803</v>
+        <v>7.801845674665553</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>22.11461786899017</v>
+        <v>19.99400611172129</v>
       </c>
       <c r="N22">
-        <v>9.889566338375442</v>
+        <v>17.16724101042087</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12709831774064</v>
+        <v>15.97248148284082</v>
       </c>
       <c r="C23">
-        <v>18.38390666885009</v>
+        <v>10.34419644753171</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.59986679830201</v>
+        <v>19.96506563891949</v>
       </c>
       <c r="F23">
-        <v>40.55389103391648</v>
+        <v>40.89355227971416</v>
       </c>
       <c r="G23">
-        <v>42.4589358936483</v>
+        <v>33.89924476883189</v>
       </c>
       <c r="H23">
-        <v>11.42185378153632</v>
+        <v>14.62277103971425</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.191315243811911</v>
+        <v>7.811283422646127</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>21.68419521319463</v>
+        <v>19.90727835308645</v>
       </c>
       <c r="N23">
-        <v>10.01214443121438</v>
+        <v>17.19582813129635</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.01462513629225</v>
+        <v>15.10226071167477</v>
       </c>
       <c r="C24">
-        <v>17.01409201327742</v>
+        <v>9.646976281689405</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.97980770157767</v>
+        <v>19.91616193548138</v>
       </c>
       <c r="F24">
-        <v>38.0567800462169</v>
+        <v>40.53223784506622</v>
       </c>
       <c r="G24">
-        <v>39.35721964169572</v>
+        <v>33.25179688570909</v>
       </c>
       <c r="H24">
-        <v>10.98659476254691</v>
+        <v>14.628537072104</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.319340843034427</v>
+        <v>7.848325884763612</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.99328360561947</v>
+        <v>19.58166289408301</v>
       </c>
       <c r="N24">
-        <v>10.47650929471712</v>
+        <v>17.30743020756254</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.56892437273704</v>
+        <v>14.11266205701796</v>
       </c>
       <c r="C25">
-        <v>15.43268211140047</v>
+        <v>8.828625168294273</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.30953516026708</v>
+        <v>19.87371153108097</v>
       </c>
       <c r="F25">
-        <v>35.35512310858105</v>
+        <v>40.18206968291963</v>
       </c>
       <c r="G25">
-        <v>36.00606708776989</v>
+        <v>32.59399072758377</v>
       </c>
       <c r="H25">
-        <v>10.56264020260235</v>
+        <v>14.64914247539237</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.460704231304309</v>
+        <v>7.891073738830993</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.10905046749445</v>
+        <v>19.23811402195234</v>
       </c>
       <c r="N25">
-        <v>10.98052326790847</v>
+        <v>17.43499009331327</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.34533969975764</v>
+        <v>20.61851396983231</v>
       </c>
       <c r="C2">
-        <v>8.16920413881499</v>
+        <v>14.17573359474755</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19.85142983026525</v>
+        <v>12.81710542248075</v>
       </c>
       <c r="F2">
-        <v>39.95938947265507</v>
+        <v>33.36537757239756</v>
       </c>
       <c r="G2">
-        <v>32.14806665429052</v>
+        <v>33.53882997536376</v>
       </c>
       <c r="H2">
-        <v>14.67659151876387</v>
+        <v>10.28734306996738</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.924973918464391</v>
+        <v>4.568008123002299</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.99327997478041</v>
+        <v>16.83571333021057</v>
       </c>
       <c r="N2">
-        <v>17.53516521928421</v>
+        <v>11.35693712182514</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.80444162561037</v>
+        <v>19.20060882719854</v>
       </c>
       <c r="C3">
-        <v>7.687040072786671</v>
+        <v>13.26487000273876</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>19.84197809585668</v>
+        <v>12.48551295874486</v>
       </c>
       <c r="F3">
-        <v>39.83086723860232</v>
+        <v>32.02186479776851</v>
       </c>
       <c r="G3">
-        <v>31.87143442498389</v>
+        <v>31.8724595704724</v>
       </c>
       <c r="H3">
-        <v>14.70279423431628</v>
+        <v>10.12253977655352</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.949473396150185</v>
+        <v>4.642932849020188</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.83316733293717</v>
+        <v>15.9344425333809</v>
       </c>
       <c r="N3">
-        <v>17.60699527740569</v>
+        <v>11.61650877165</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.46334788739799</v>
+        <v>18.28176487900698</v>
       </c>
       <c r="C4">
-        <v>7.373721007158663</v>
+        <v>12.67617667755948</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.83897594606293</v>
+        <v>12.2835188619667</v>
       </c>
       <c r="F4">
-        <v>39.76312424993311</v>
+        <v>31.2017075635138</v>
       </c>
       <c r="G4">
-        <v>31.71467284520067</v>
+        <v>30.85486904197939</v>
       </c>
       <c r="H4">
-        <v>14.72260957639005</v>
+        <v>10.03163898383832</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.965272384687556</v>
+        <v>4.690085839610905</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.73796815373505</v>
+        <v>15.36339433120462</v>
       </c>
       <c r="N4">
-        <v>17.65305572237402</v>
+        <v>11.7784386372123</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.32231687823949</v>
+        <v>17.89507896124887</v>
       </c>
       <c r="C5">
-        <v>7.241726594456999</v>
+        <v>12.42885105783384</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>19.83845915653813</v>
+        <v>12.20169791984855</v>
       </c>
       <c r="F5">
-        <v>39.73834382026966</v>
+        <v>30.86908986036723</v>
       </c>
       <c r="G5">
-        <v>31.65414842924466</v>
+        <v>30.44210126742272</v>
       </c>
       <c r="H5">
-        <v>14.7316181621001</v>
+        <v>9.99711166605392</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.971901304004829</v>
+        <v>4.709598645649046</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.69999187506637</v>
+        <v>15.12648493996531</v>
       </c>
       <c r="N5">
-        <v>17.67231945874966</v>
+        <v>11.84511525909312</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.29878312040093</v>
+        <v>17.83012685406641</v>
       </c>
       <c r="C6">
-        <v>7.219549433352671</v>
+        <v>12.38733355474428</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>19.83841608072136</v>
+        <v>12.18814409865358</v>
       </c>
       <c r="F6">
-        <v>39.73440010777152</v>
+        <v>30.81396839065565</v>
       </c>
       <c r="G6">
-        <v>31.64430289972205</v>
+        <v>30.37369308133066</v>
       </c>
       <c r="H6">
-        <v>14.73317031562486</v>
+        <v>9.991528134418523</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.973013565144783</v>
+        <v>4.712856953669179</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.69373637926844</v>
+        <v>15.08690049300449</v>
       </c>
       <c r="N6">
-        <v>17.67554805915985</v>
+        <v>11.85622979320892</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.46145380673076</v>
+        <v>18.27659964854021</v>
       </c>
       <c r="C7">
-        <v>7.371958309834289</v>
+        <v>12.67287126517987</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>19.83896611270746</v>
+        <v>12.28241327760175</v>
       </c>
       <c r="F7">
-        <v>39.76277859344034</v>
+        <v>31.19721470876724</v>
       </c>
       <c r="G7">
-        <v>31.71384291891957</v>
+        <v>30.84929385610916</v>
       </c>
       <c r="H7">
-        <v>14.72272729376443</v>
+        <v>10.03116325082907</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.965361011742106</v>
+        <v>4.690347779968707</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.73745263328807</v>
+        <v>15.3602159506313</v>
       </c>
       <c r="N7">
-        <v>17.65331351846893</v>
+        <v>11.77933501186637</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.16082938964994</v>
+        <v>20.13956070782186</v>
       </c>
       <c r="C8">
-        <v>8.006552226527946</v>
+        <v>13.86775113943905</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>19.84759087761158</v>
+        <v>12.70249173425542</v>
       </c>
       <c r="F8">
-        <v>39.91276765339988</v>
+        <v>32.90137438974125</v>
       </c>
       <c r="G8">
-        <v>32.05000836497974</v>
+        <v>32.9633904267035</v>
       </c>
       <c r="H8">
-        <v>14.68485073475112</v>
+        <v>10.2283421445534</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.933264717740326</v>
+        <v>4.59360903367761</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.93744954368987</v>
+        <v>16.5287492773299</v>
       </c>
       <c r="N8">
-        <v>17.55952721239984</v>
+        <v>11.44593719389618</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.45240050068983</v>
+        <v>23.41562794947986</v>
       </c>
       <c r="C9">
-        <v>9.113139198998567</v>
+        <v>15.97956564925217</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.88662427310974</v>
+        <v>13.53532296249882</v>
       </c>
       <c r="F9">
-        <v>40.29463406277179</v>
+        <v>36.26582384134941</v>
       </c>
       <c r="G9">
-        <v>32.80983418519806</v>
+        <v>37.13539700129325</v>
       </c>
       <c r="H9">
-        <v>14.64028734996751</v>
+        <v>10.69956903006741</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.876298952589872</v>
+        <v>4.412612533701699</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>19.35267883329326</v>
+        <v>18.7129217622409</v>
       </c>
       <c r="N9">
-        <v>17.391055200576</v>
+        <v>10.81008516407558</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.34267257545531</v>
+        <v>25.6008501990359</v>
       </c>
       <c r="C10">
-        <v>9.841435358109653</v>
+        <v>17.3938918788046</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>19.92863092077555</v>
+        <v>14.14831139466047</v>
       </c>
       <c r="F10">
-        <v>40.62725127844843</v>
+        <v>38.7353778880827</v>
       </c>
       <c r="G10">
-        <v>33.42450991071703</v>
+        <v>40.19958026230645</v>
       </c>
       <c r="H10">
-        <v>14.62583613402054</v>
+        <v>11.10104180794864</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.838053109635728</v>
+        <v>4.284354127524033</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.66950988145984</v>
+        <v>20.4625958865107</v>
       </c>
       <c r="N10">
-        <v>17.27657744362229</v>
+        <v>10.35035759703774</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.73327515506662</v>
+        <v>26.54877335704183</v>
       </c>
       <c r="C11">
-        <v>10.1543127308435</v>
+        <v>18.00857358903484</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>19.95059591049917</v>
+        <v>14.42665334516147</v>
       </c>
       <c r="F11">
-        <v>40.78949641777596</v>
+        <v>39.85625261429425</v>
       </c>
       <c r="G11">
-        <v>33.71522459070309</v>
+        <v>41.59179127737195</v>
       </c>
       <c r="H11">
-        <v>14.62326391841995</v>
+        <v>11.2964340577534</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.821429723947018</v>
+        <v>4.22689781959417</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.81569643860344</v>
+        <v>21.22135447089152</v>
       </c>
       <c r="N11">
-        <v>17.22649290389953</v>
+        <v>10.14196698571089</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.87900324739635</v>
+        <v>26.90126466575292</v>
       </c>
       <c r="C12">
-        <v>10.27014088301223</v>
+        <v>18.23731260603716</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.95932029072553</v>
+        <v>14.53193020123857</v>
       </c>
       <c r="F12">
-        <v>40.85247031873255</v>
+        <v>40.28024921106936</v>
       </c>
       <c r="G12">
-        <v>33.82680137318442</v>
+        <v>42.11874449164573</v>
       </c>
       <c r="H12">
-        <v>14.62286719665859</v>
+        <v>11.37232110103204</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.815245739299795</v>
+        <v>4.20525734826378</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.87130663993563</v>
+        <v>21.5034647642971</v>
       </c>
       <c r="N12">
-        <v>17.20781178495174</v>
+        <v>10.06308232684974</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.84771692688334</v>
+        <v>26.82563412671567</v>
       </c>
       <c r="C13">
-        <v>10.24531315432657</v>
+        <v>18.18822696868046</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.95742331689732</v>
+        <v>14.50926322321279</v>
       </c>
       <c r="F13">
-        <v>40.83884011123383</v>
+        <v>40.18895482213373</v>
       </c>
       <c r="G13">
-        <v>33.8027067974899</v>
+        <v>42.00526559350592</v>
       </c>
       <c r="H13">
-        <v>14.62292693554154</v>
+        <v>11.35589211132391</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.816572645113015</v>
+        <v>4.209912983294194</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.85931945051038</v>
+        <v>21.44293701882994</v>
       </c>
       <c r="N13">
-        <v>17.21182245708039</v>
+        <v>10.08007161949964</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.7453086809881</v>
+        <v>26.57790161464715</v>
       </c>
       <c r="C14">
-        <v>10.1638951278271</v>
+        <v>18.02747218765355</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.95130554310884</v>
+        <v>14.43531730262489</v>
       </c>
       <c r="F14">
-        <v>40.79464677573812</v>
+        <v>39.89114443178498</v>
       </c>
       <c r="G14">
-        <v>33.72437484858343</v>
+        <v>41.63514862554614</v>
       </c>
       <c r="H14">
-        <v>14.62321970015219</v>
+        <v>11.3026389611892</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.820918743381107</v>
+        <v>4.225115163435212</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.82026671185334</v>
+        <v>21.24466758850174</v>
       </c>
       <c r="N14">
-        <v>17.22495029831763</v>
+        <v>10.13547700558406</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.68229301526738</v>
+        <v>26.4253213937962</v>
       </c>
       <c r="C15">
-        <v>10.11367889631882</v>
+        <v>17.92848390909224</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>19.94761107354592</v>
+        <v>14.39000563410824</v>
       </c>
       <c r="F15">
-        <v>40.76777584815186</v>
+        <v>39.7086663710037</v>
       </c>
       <c r="G15">
-        <v>33.6765850314051</v>
+        <v>41.4084108550563</v>
       </c>
       <c r="H15">
-        <v>14.62347426017774</v>
+        <v>11.27026870315536</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.823595286056728</v>
+        <v>4.234441846474056</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.7963773752416</v>
+        <v>21.12254672685015</v>
       </c>
       <c r="N15">
-        <v>17.23302852241485</v>
+        <v>10.16941563914182</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.31684599573169</v>
+        <v>25.53798678458315</v>
       </c>
       <c r="C16">
-        <v>9.820617050726248</v>
+        <v>17.35315165634054</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>19.92725259379165</v>
+        <v>14.13010615157137</v>
       </c>
       <c r="F16">
-        <v>40.61686510862329</v>
+        <v>38.6620657521103</v>
       </c>
       <c r="G16">
-        <v>33.40572530561256</v>
+        <v>40.10855920477927</v>
       </c>
       <c r="H16">
-        <v>14.62608492857957</v>
+        <v>11.08853439502769</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.839155036710266</v>
+        <v>4.288125999669248</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.65999395493194</v>
+        <v>20.41227210351441</v>
       </c>
       <c r="N16">
-        <v>17.27989052969317</v>
+        <v>10.363984817239</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.08888350078759</v>
+        <v>24.98193307636115</v>
       </c>
       <c r="C17">
-        <v>9.636111062518605</v>
+        <v>16.99291957757462</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.91549207611666</v>
+        <v>13.97049534565751</v>
       </c>
       <c r="F17">
-        <v>40.52706157159137</v>
+        <v>38.01927406627952</v>
       </c>
       <c r="G17">
-        <v>33.24232915355119</v>
+        <v>39.31067217445102</v>
       </c>
       <c r="H17">
-        <v>14.62871288413101</v>
+        <v>10.98035709980908</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.848898544281227</v>
+        <v>4.3212795512166</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.57682349719861</v>
+        <v>19.96710987103644</v>
       </c>
       <c r="N17">
-        <v>17.30914787826077</v>
+        <v>10.48348331951476</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.95641715386186</v>
+        <v>24.65775142711643</v>
       </c>
       <c r="C18">
-        <v>9.528253460581288</v>
+        <v>16.78301527569224</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.90899680985514</v>
+        <v>13.87864591719915</v>
       </c>
       <c r="F18">
-        <v>40.47644072690063</v>
+        <v>37.64931936153468</v>
       </c>
       <c r="G18">
-        <v>33.14939898862414</v>
+        <v>38.85158217615668</v>
       </c>
       <c r="H18">
-        <v>14.63060098714542</v>
+        <v>10.91933365587391</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.854575712743792</v>
+        <v>4.340432948859911</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>19.52918242790133</v>
+        <v>19.70755668671937</v>
       </c>
       <c r="N18">
-        <v>17.32616352162635</v>
+        <v>10.55229063335634</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.91133855119821</v>
+        <v>24.54723629911236</v>
       </c>
       <c r="C19">
-        <v>9.491436902818347</v>
+        <v>16.71147729270354</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.90684395374671</v>
+        <v>13.84754122194701</v>
       </c>
       <c r="F19">
-        <v>40.45947967625011</v>
+        <v>37.52402207831892</v>
       </c>
       <c r="G19">
-        <v>33.11811811241991</v>
+        <v>38.6961153597512</v>
       </c>
       <c r="H19">
-        <v>14.63130487941058</v>
+        <v>10.89887598596227</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.856510450511835</v>
+        <v>4.346932774803618</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>19.51308703085084</v>
+        <v>19.6190701639695</v>
       </c>
       <c r="N19">
-        <v>17.33195699481353</v>
+        <v>10.57560274197595</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.11329093877626</v>
+        <v>25.04157540898076</v>
       </c>
       <c r="C20">
-        <v>9.655931589450569</v>
+        <v>17.03154651763978</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.91671618315118</v>
+        <v>13.98749130999459</v>
       </c>
       <c r="F20">
-        <v>40.53651478815596</v>
+        <v>38.08772583761277</v>
       </c>
       <c r="G20">
-        <v>33.25961493822236</v>
+        <v>39.3956261869405</v>
       </c>
       <c r="H20">
-        <v>14.62839414523679</v>
+        <v>10.99174841159743</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.847853783715113</v>
+        <v>4.317741646939149</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.58565712463114</v>
+        <v>20.01486026062658</v>
       </c>
       <c r="N20">
-        <v>17.30601398062343</v>
+        <v>10.47075528756277</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.77544859676328</v>
+        <v>26.65084074805991</v>
       </c>
       <c r="C21">
-        <v>10.18788154377016</v>
+        <v>18.07479821274148</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>19.95309147651916</v>
+        <v>14.45704076865362</v>
       </c>
       <c r="F21">
-        <v>40.80758607771278</v>
+        <v>39.97863124936666</v>
       </c>
       <c r="G21">
-        <v>33.74734327967366</v>
+        <v>41.74386715208793</v>
       </c>
       <c r="H21">
-        <v>14.62311802674083</v>
+        <v>11.31822872983822</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.819639182220628</v>
+        <v>4.220646827334405</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.83173094152654</v>
+        <v>21.30304457109827</v>
       </c>
       <c r="N21">
-        <v>17.22108661644164</v>
+        <v>10.11920299417311</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.1954307706053</v>
+        <v>27.66498455033887</v>
       </c>
       <c r="C22">
-        <v>10.52008627295708</v>
+        <v>18.73320318446571</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.97923343313589</v>
+        <v>14.76317267723823</v>
       </c>
       <c r="F22">
-        <v>40.99367569529672</v>
+        <v>41.2118090098571</v>
       </c>
       <c r="G22">
-        <v>34.07473221929477</v>
+        <v>43.27721268386365</v>
       </c>
       <c r="H22">
-        <v>14.62303543732668</v>
+        <v>11.54268723173054</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.801845674665553</v>
+        <v>4.157866453435868</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.99400611172129</v>
+        <v>22.11461786899011</v>
       </c>
       <c r="N22">
-        <v>17.16724101042087</v>
+        <v>9.889566338375442</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.97248148284082</v>
+        <v>27.12709831774063</v>
       </c>
       <c r="C23">
-        <v>10.34419644753171</v>
+        <v>18.38390666885006</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.96506563891949</v>
+        <v>14.59986679830208</v>
       </c>
       <c r="F23">
-        <v>40.89355227971416</v>
+        <v>40.55389103391651</v>
       </c>
       <c r="G23">
-        <v>33.89924476883189</v>
+        <v>42.45893589364833</v>
       </c>
       <c r="H23">
-        <v>14.62277103971425</v>
+        <v>11.42185378153634</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.811283422646127</v>
+        <v>4.191315243811974</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.90727835308645</v>
+        <v>21.68419521319461</v>
       </c>
       <c r="N23">
-        <v>17.19582813129635</v>
+        <v>10.01214443121441</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.10226071167477</v>
+        <v>25.01462513629227</v>
       </c>
       <c r="C24">
-        <v>9.646976281689405</v>
+        <v>17.01409201327739</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.91616193548138</v>
+        <v>13.97980770157782</v>
       </c>
       <c r="F24">
-        <v>40.53223784506622</v>
+        <v>38.05678004621693</v>
       </c>
       <c r="G24">
-        <v>33.25179688570909</v>
+        <v>39.35721964169573</v>
       </c>
       <c r="H24">
-        <v>14.628537072104</v>
+        <v>10.9865947625469</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.848325884763612</v>
+        <v>4.319340843034425</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.58166289408301</v>
+        <v>19.99328360561939</v>
       </c>
       <c r="N24">
-        <v>17.30743020756254</v>
+        <v>10.47650929471712</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.11266205701796</v>
+        <v>22.56892437273712</v>
       </c>
       <c r="C25">
-        <v>8.828625168294273</v>
+        <v>15.43268211140042</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.87371153108097</v>
+        <v>13.30953516026698</v>
       </c>
       <c r="F25">
-        <v>40.18206968291963</v>
+        <v>35.35512310858101</v>
       </c>
       <c r="G25">
-        <v>32.59399072758377</v>
+        <v>36.00606708776988</v>
       </c>
       <c r="H25">
-        <v>14.64914247539237</v>
+        <v>10.56264020260238</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.891073738830993</v>
+        <v>4.460704231304147</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.23811402195234</v>
+        <v>18.10905046749444</v>
       </c>
       <c r="N25">
-        <v>17.43499009331327</v>
+        <v>10.98052326790837</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.61851396983231</v>
+        <v>12.34136928138111</v>
       </c>
       <c r="C2">
-        <v>14.17573359474755</v>
+        <v>8.261941751844509</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.81710542248075</v>
+        <v>10.64834984043599</v>
       </c>
       <c r="F2">
-        <v>33.36537757239756</v>
+        <v>25.67876335551806</v>
       </c>
       <c r="G2">
-        <v>33.53882997536376</v>
+        <v>21.40614431960836</v>
       </c>
       <c r="H2">
-        <v>10.28734306996738</v>
+        <v>2.768704730442909</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.203730549936112</v>
       </c>
       <c r="J2">
-        <v>4.568008123002299</v>
+        <v>9.095742911166942</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.36556653336162</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.871178622582715</v>
       </c>
       <c r="M2">
-        <v>16.83571333021057</v>
+        <v>10.1827592146048</v>
       </c>
       <c r="N2">
-        <v>11.35693712182514</v>
+        <v>8.090180041709205</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.68430457733254</v>
+      </c>
+      <c r="P2">
+        <v>13.12401455173239</v>
+      </c>
+      <c r="Q2">
+        <v>14.57567298241025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.20060882719854</v>
+        <v>11.56902937993819</v>
       </c>
       <c r="C3">
-        <v>13.26487000273876</v>
+        <v>8.191336098599374</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.48551295874486</v>
+        <v>10.43672616755318</v>
       </c>
       <c r="F3">
-        <v>32.02186479776851</v>
+        <v>25.19809534346707</v>
       </c>
       <c r="G3">
-        <v>31.8724595704724</v>
+        <v>21.29450480927581</v>
       </c>
       <c r="H3">
-        <v>10.12253977655352</v>
+        <v>2.943608716122673</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.324797621522144</v>
       </c>
       <c r="J3">
-        <v>4.642932849020188</v>
+        <v>9.141319818895431</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.43460398342375</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.760484215826452</v>
       </c>
       <c r="M3">
-        <v>15.9344425333809</v>
+        <v>9.672605276378752</v>
       </c>
       <c r="N3">
-        <v>11.61650877165</v>
+        <v>7.870438912151552</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.2799719870425</v>
+      </c>
+      <c r="P3">
+        <v>13.2406187348672</v>
+      </c>
+      <c r="Q3">
+        <v>14.61105547184191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.28176487900698</v>
+        <v>11.06593752755234</v>
       </c>
       <c r="C4">
-        <v>12.67617667755948</v>
+        <v>8.147101182806962</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.2835188619667</v>
+        <v>10.30462586169664</v>
       </c>
       <c r="F4">
-        <v>31.2017075635138</v>
+        <v>24.90567276425459</v>
       </c>
       <c r="G4">
-        <v>30.85486904197939</v>
+        <v>21.234905074075</v>
       </c>
       <c r="H4">
-        <v>10.03163898383832</v>
+        <v>3.055226238034664</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.402811211923706</v>
       </c>
       <c r="J4">
-        <v>4.690085839610905</v>
+        <v>9.171525290931269</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.48028931239859</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.69055612252077</v>
       </c>
       <c r="M4">
-        <v>15.36339433120462</v>
+        <v>9.344131925630508</v>
       </c>
       <c r="N4">
-        <v>11.7784386372123</v>
+        <v>7.73354158248144</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.02405510955726</v>
+      </c>
+      <c r="P4">
+        <v>13.31396873329944</v>
+      </c>
+      <c r="Q4">
+        <v>14.6375079208577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.89507896124887</v>
+        <v>10.84925987406512</v>
       </c>
       <c r="C5">
-        <v>12.42885105783384</v>
+        <v>8.129585275091852</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.20169791984855</v>
+        <v>10.24944001442968</v>
       </c>
       <c r="F5">
-        <v>30.86908986036723</v>
+        <v>24.78223894742867</v>
       </c>
       <c r="G5">
-        <v>30.44210126742272</v>
+        <v>21.20518839120881</v>
       </c>
       <c r="H5">
-        <v>9.99711166605392</v>
+        <v>3.102026647420994</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.438158813827876</v>
       </c>
       <c r="J5">
-        <v>4.709598645649046</v>
+        <v>9.18320959487809</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.49636506017177</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.662039719452437</v>
       </c>
       <c r="M5">
-        <v>15.12648493996531</v>
+        <v>9.206476890771974</v>
       </c>
       <c r="N5">
-        <v>11.84511525909312</v>
+        <v>7.678760601485807</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.917524897303936</v>
+      </c>
+      <c r="P5">
+        <v>13.34421167840413</v>
+      </c>
+      <c r="Q5">
+        <v>14.64643742329909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.83012685406641</v>
+        <v>10.80740275026471</v>
       </c>
       <c r="C6">
-        <v>12.38733355474428</v>
+        <v>8.127587808658122</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.18814409865358</v>
+        <v>10.23919858066656</v>
       </c>
       <c r="F6">
-        <v>30.81396839065565</v>
+        <v>24.75558038720679</v>
       </c>
       <c r="G6">
-        <v>30.37369308133066</v>
+        <v>21.19104862429807</v>
       </c>
       <c r="H6">
-        <v>9.991528134418523</v>
+        <v>3.110158199038702</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.44745766062631</v>
       </c>
       <c r="J6">
-        <v>4.712856953669179</v>
+        <v>9.183746459772957</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.49498138636864</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.657844751150014</v>
       </c>
       <c r="M6">
-        <v>15.08690049300449</v>
+        <v>9.183329101764015</v>
       </c>
       <c r="N6">
-        <v>11.85622979320892</v>
+        <v>7.671403736267175</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.89918108342718</v>
+      </c>
+      <c r="P6">
+        <v>13.34915075516735</v>
+      </c>
+      <c r="Q6">
+        <v>14.64430823511545</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.27659964854021</v>
+        <v>11.04851907530306</v>
       </c>
       <c r="C7">
-        <v>12.67287126517987</v>
+        <v>8.149422315644985</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.28241327760175</v>
+        <v>10.30104666643859</v>
       </c>
       <c r="F7">
-        <v>31.19721470876724</v>
+        <v>24.88715363427319</v>
       </c>
       <c r="G7">
-        <v>30.84929385610916</v>
+        <v>21.20906051718277</v>
       </c>
       <c r="H7">
-        <v>10.03116325082907</v>
+        <v>3.056643865821976</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.412191489271456</v>
       </c>
       <c r="J7">
-        <v>4.690347779968707</v>
+        <v>9.167766397273024</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.46931443569112</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.691734138053557</v>
       </c>
       <c r="M7">
-        <v>15.3602159506313</v>
+        <v>9.342114096372528</v>
       </c>
       <c r="N7">
-        <v>11.77933501186637</v>
+        <v>7.737578886894616</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.02113914082686</v>
+      </c>
+      <c r="P7">
+        <v>13.314122470476</v>
+      </c>
+      <c r="Q7">
+        <v>14.6275858937917</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.13956070782186</v>
+        <v>12.0633021589841</v>
       </c>
       <c r="C8">
-        <v>13.86775113943905</v>
+        <v>8.24133906948366</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.70249173425542</v>
+        <v>10.57223522884987</v>
       </c>
       <c r="F8">
-        <v>32.90137438974125</v>
+        <v>25.49083585563465</v>
       </c>
       <c r="G8">
-        <v>32.9633904267035</v>
+        <v>21.33247311632147</v>
       </c>
       <c r="H8">
-        <v>10.2283421445534</v>
+        <v>2.829120567426926</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.256017006561831</v>
       </c>
       <c r="J8">
-        <v>4.59360903367761</v>
+        <v>9.105847282340532</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.37394726898575</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.835509305124419</v>
       </c>
       <c r="M8">
-        <v>16.5287492773299</v>
+        <v>10.00986078528642</v>
       </c>
       <c r="N8">
-        <v>11.44593719389618</v>
+        <v>8.020982033940472</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.54466549904849</v>
+      </c>
+      <c r="P8">
+        <v>13.16373067954951</v>
+      </c>
+      <c r="Q8">
+        <v>14.57366969219959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.41562794947986</v>
+        <v>13.88051515439584</v>
       </c>
       <c r="C9">
-        <v>15.97956564925217</v>
+        <v>8.410143971597225</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.53532296249882</v>
+        <v>11.08971730602453</v>
       </c>
       <c r="F9">
-        <v>36.26582384134941</v>
+        <v>26.71959888398687</v>
       </c>
       <c r="G9">
-        <v>37.13539700129325</v>
+        <v>21.69222460274074</v>
       </c>
       <c r="H9">
-        <v>10.69956903006741</v>
+        <v>2.414690757022063</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.964135389187708</v>
       </c>
       <c r="J9">
-        <v>4.412612533701699</v>
+        <v>9.009401824294514</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.23364720984552</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.098698145200024</v>
       </c>
       <c r="M9">
-        <v>18.7129217622409</v>
+        <v>11.19566274386194</v>
       </c>
       <c r="N9">
-        <v>10.81008516407558</v>
+        <v>8.550344853181558</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.50798909838255</v>
+      </c>
+      <c r="P9">
+        <v>12.88264606207568</v>
+      </c>
+      <c r="Q9">
+        <v>14.52459929637687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.6008501990359</v>
+        <v>15.05585442286175</v>
       </c>
       <c r="C10">
-        <v>17.3938918788046</v>
+        <v>8.541085155107391</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.14831139466047</v>
+        <v>11.3469265532368</v>
       </c>
       <c r="F10">
-        <v>38.7353778880827</v>
+        <v>27.4669334825074</v>
       </c>
       <c r="G10">
-        <v>40.19958026230645</v>
+        <v>21.8893643883275</v>
       </c>
       <c r="H10">
-        <v>11.10104180794864</v>
+        <v>2.157674317248298</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.776494689513622</v>
       </c>
       <c r="J10">
-        <v>4.284354127524033</v>
+        <v>8.932538556604172</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.10233754241931</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.300668838682294</v>
       </c>
       <c r="M10">
-        <v>20.4625958865107</v>
+        <v>11.98736700378832</v>
       </c>
       <c r="N10">
-        <v>10.35035759703774</v>
+        <v>8.841978499453205</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>12.10104988617303</v>
+      </c>
+      <c r="P10">
+        <v>12.68670937098356</v>
+      </c>
+      <c r="Q10">
+        <v>14.4684411351672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.54877335704183</v>
+        <v>15.28861902543716</v>
       </c>
       <c r="C11">
-        <v>18.00857358903484</v>
+        <v>8.701815305826626</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.42665334516147</v>
+        <v>10.56371125875183</v>
       </c>
       <c r="F11">
-        <v>39.85625261429425</v>
+        <v>26.48492262030346</v>
       </c>
       <c r="G11">
-        <v>41.59179127737195</v>
+        <v>21.06811489561224</v>
       </c>
       <c r="H11">
-        <v>11.2964340577534</v>
+        <v>3.039733229994735</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.74457234146079</v>
       </c>
       <c r="J11">
-        <v>4.22689781959417</v>
+        <v>8.757509279640161</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.68512548687792</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.560955175717583</v>
       </c>
       <c r="M11">
-        <v>21.22135447089152</v>
+        <v>12.32355673196264</v>
       </c>
       <c r="N11">
-        <v>10.14196698571089</v>
+        <v>8.25408713705318</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.77142936628111</v>
+      </c>
+      <c r="P11">
+        <v>12.62929593095092</v>
+      </c>
+      <c r="Q11">
+        <v>14.07899612816897</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.90126466575292</v>
+        <v>15.26230154646537</v>
       </c>
       <c r="C12">
-        <v>18.23731260603716</v>
+        <v>8.827147956106659</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.53193020123857</v>
+        <v>9.901771742578456</v>
       </c>
       <c r="F12">
-        <v>40.28024921106936</v>
+        <v>25.50714663655835</v>
       </c>
       <c r="G12">
-        <v>42.11874449164573</v>
+        <v>20.35771481713882</v>
       </c>
       <c r="H12">
-        <v>11.37232110103204</v>
+        <v>4.343121728772366</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.737495888024968</v>
       </c>
       <c r="J12">
-        <v>4.20525734826378</v>
+        <v>8.629981538922031</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.37986909019655</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.752525642272037</v>
       </c>
       <c r="M12">
-        <v>21.5034647642971</v>
+        <v>12.44648781300707</v>
       </c>
       <c r="N12">
-        <v>10.06308232684974</v>
+        <v>7.702129226478494</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.3650364516473</v>
+      </c>
+      <c r="P12">
+        <v>12.63097613157526</v>
+      </c>
+      <c r="Q12">
+        <v>13.77265547251013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.82563412671567</v>
+        <v>15.01788105558738</v>
       </c>
       <c r="C13">
-        <v>18.18822696868046</v>
+        <v>8.934784983374954</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.50926322321279</v>
+        <v>9.296167946586001</v>
       </c>
       <c r="F13">
-        <v>40.18895482213373</v>
+        <v>24.43817838854251</v>
       </c>
       <c r="G13">
-        <v>42.00526559350592</v>
+        <v>19.64721471217413</v>
       </c>
       <c r="H13">
-        <v>11.35589211132391</v>
+        <v>5.725919510308121</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.764042444151572</v>
       </c>
       <c r="J13">
-        <v>4.209912983294194</v>
+        <v>8.525398188192051</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.12638363535167</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.904908090659053</v>
       </c>
       <c r="M13">
-        <v>21.44293701882994</v>
+        <v>12.41600798558301</v>
       </c>
       <c r="N13">
-        <v>10.08007161949964</v>
+        <v>7.14862064871429</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>10.86454020866758</v>
+      </c>
+      <c r="P13">
+        <v>12.67560304336611</v>
+      </c>
+      <c r="Q13">
+        <v>13.49630958199065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.57790161464715</v>
+        <v>14.74123060250065</v>
       </c>
       <c r="C14">
-        <v>18.02747218765355</v>
+        <v>9.005727891591917</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.43531730262489</v>
+        <v>8.914367750241547</v>
       </c>
       <c r="F14">
-        <v>39.89114443178498</v>
+        <v>23.64257229032965</v>
       </c>
       <c r="G14">
-        <v>41.63514862554614</v>
+        <v>19.14515730153879</v>
       </c>
       <c r="H14">
-        <v>11.3026389611892</v>
+        <v>6.716424745441888</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.800797372621578</v>
       </c>
       <c r="J14">
-        <v>4.225115163435212</v>
+        <v>8.462187592854749</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.97235183618021</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.996130441384249</v>
       </c>
       <c r="M14">
-        <v>21.24466758850174</v>
+        <v>12.32489802551197</v>
       </c>
       <c r="N14">
-        <v>10.13547700558406</v>
+        <v>6.766752777596456</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.46686614778145</v>
+      </c>
+      <c r="P14">
+        <v>12.72654785678117</v>
+      </c>
+      <c r="Q14">
+        <v>13.31547400193429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.4253213937962</v>
+        <v>14.62162734660018</v>
       </c>
       <c r="C15">
-        <v>17.92848390909224</v>
+        <v>9.019229115700215</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.39000563410824</v>
+        <v>8.826878206857494</v>
       </c>
       <c r="F15">
-        <v>39.7086663710037</v>
+        <v>23.42590548859181</v>
       </c>
       <c r="G15">
-        <v>41.4084108550563</v>
+        <v>19.01667625489753</v>
       </c>
       <c r="H15">
-        <v>11.27026870315536</v>
+        <v>6.948177151432149</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.821649651617586</v>
       </c>
       <c r="J15">
-        <v>4.234441846474056</v>
+        <v>8.450796261203221</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.94266762613795</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.008856542076286</v>
       </c>
       <c r="M15">
-        <v>21.12254672685015</v>
+        <v>12.26943239606156</v>
       </c>
       <c r="N15">
-        <v>10.16941563914182</v>
+        <v>6.673401242657196</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.34947887569135</v>
+      </c>
+      <c r="P15">
+        <v>12.74709129904122</v>
+      </c>
+      <c r="Q15">
+        <v>13.27549503459699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.53798678458315</v>
+        <v>14.16515639915651</v>
       </c>
       <c r="C16">
-        <v>17.35315165634054</v>
+        <v>8.940537422742212</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.13010615157137</v>
+        <v>8.830710716463825</v>
       </c>
       <c r="F16">
-        <v>38.6620657521103</v>
+        <v>23.2882919088491</v>
       </c>
       <c r="G16">
-        <v>40.10855920477927</v>
+        <v>19.05180903941125</v>
       </c>
       <c r="H16">
-        <v>11.08853439502769</v>
+        <v>6.756277887490765</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.901908231107112</v>
       </c>
       <c r="J16">
-        <v>4.288125999669248</v>
+        <v>8.502545321825389</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.04607628676697</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.895450928572525</v>
       </c>
       <c r="M16">
-        <v>20.41227210351441</v>
+        <v>11.94881099343616</v>
       </c>
       <c r="N16">
-        <v>10.363984817239</v>
+        <v>6.650165368688941</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.17794016724299</v>
+      </c>
+      <c r="P16">
+        <v>12.81399665656107</v>
+      </c>
+      <c r="Q16">
+        <v>13.34928591342724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.98193307636115</v>
+        <v>13.96147906482009</v>
       </c>
       <c r="C17">
-        <v>16.99291957757462</v>
+        <v>8.840866335511929</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.97049534565751</v>
+        <v>9.028082952122048</v>
       </c>
       <c r="F17">
-        <v>38.01927406627952</v>
+        <v>23.61182965406208</v>
       </c>
       <c r="G17">
-        <v>39.31067217445102</v>
+        <v>19.34692038231383</v>
       </c>
       <c r="H17">
-        <v>10.98035709980908</v>
+        <v>6.053598960348277</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.94473562703465</v>
       </c>
       <c r="J17">
-        <v>4.3212795512166</v>
+        <v>8.575739723041908</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.20561584444701</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.757206848386998</v>
       </c>
       <c r="M17">
-        <v>19.96710987103644</v>
+        <v>11.74853565124269</v>
       </c>
       <c r="N17">
-        <v>10.48348331951476</v>
+        <v>6.834596127402509</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>10.26344762577946</v>
+      </c>
+      <c r="P17">
+        <v>12.83940099094352</v>
+      </c>
+      <c r="Q17">
+        <v>13.50165551978024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.65775142711643</v>
+        <v>13.96982153305974</v>
       </c>
       <c r="C18">
-        <v>16.78301527569224</v>
+        <v>8.715838327636975</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.87864591719915</v>
+        <v>9.460537730483054</v>
       </c>
       <c r="F18">
-        <v>37.64931936153468</v>
+        <v>24.37963706211317</v>
       </c>
       <c r="G18">
-        <v>38.85158217615668</v>
+        <v>19.91490178227357</v>
       </c>
       <c r="H18">
-        <v>10.91933365587391</v>
+        <v>4.869567380321277</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.948639416340802</v>
       </c>
       <c r="J18">
-        <v>4.340432948859911</v>
+        <v>8.678136628253862</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.44229713330265</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.587066388661704</v>
       </c>
       <c r="M18">
-        <v>19.70755668671937</v>
+        <v>11.6335831896939</v>
       </c>
       <c r="N18">
-        <v>10.55229063335634</v>
+        <v>7.232484159210392</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10.58149524996494</v>
+      </c>
+      <c r="P18">
+        <v>12.83496647265078</v>
+      </c>
+      <c r="Q18">
+        <v>13.74547426153499</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.54723629911236</v>
+        <v>14.12679350659716</v>
       </c>
       <c r="C19">
-        <v>16.71147729270354</v>
+        <v>8.606178978275439</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.84754122194701</v>
+        <v>10.10329303632508</v>
       </c>
       <c r="F19">
-        <v>37.52402207831892</v>
+        <v>25.42024553255871</v>
       </c>
       <c r="G19">
-        <v>38.6961153597512</v>
+        <v>20.61942432770779</v>
       </c>
       <c r="H19">
-        <v>10.89887598596227</v>
+        <v>3.515045816077896</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.938571295962638</v>
       </c>
       <c r="J19">
-        <v>4.346932774803618</v>
+        <v>8.79057696848213</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.71288488567863</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.418542858050843</v>
       </c>
       <c r="M19">
-        <v>19.6190701639695</v>
+        <v>11.59749559313016</v>
       </c>
       <c r="N19">
-        <v>10.57560274197595</v>
+        <v>7.799130793708871</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.05664186629449</v>
+      </c>
+      <c r="P19">
+        <v>12.81419375991802</v>
+      </c>
+      <c r="Q19">
+        <v>14.02991200612455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.04157540898076</v>
+        <v>14.72125829316173</v>
       </c>
       <c r="C20">
-        <v>17.03154651763978</v>
+        <v>8.51706747172166</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.98749130999459</v>
+        <v>11.26755403117954</v>
       </c>
       <c r="F20">
-        <v>38.08772583761277</v>
+        <v>27.21643008619153</v>
       </c>
       <c r="G20">
-        <v>39.3956261869405</v>
+        <v>21.75429030887636</v>
       </c>
       <c r="H20">
-        <v>10.99174841159743</v>
+        <v>2.225457752880976</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.855142994245635</v>
       </c>
       <c r="J20">
-        <v>4.317741646939149</v>
+        <v>8.939313102571587</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.09974576166891</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.25410210801201</v>
       </c>
       <c r="M20">
-        <v>20.01486026062658</v>
+        <v>11.78447931758892</v>
       </c>
       <c r="N20">
-        <v>10.47075528756277</v>
+        <v>8.775527337495337</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.94118548026927</v>
+      </c>
+      <c r="P20">
+        <v>12.73845304544008</v>
+      </c>
+      <c r="Q20">
+        <v>14.44908616510463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.65084074805991</v>
+        <v>15.63033258326076</v>
       </c>
       <c r="C21">
-        <v>18.07479821274148</v>
+        <v>8.601052766259469</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.45704076865362</v>
+        <v>11.62856979132513</v>
       </c>
       <c r="F21">
-        <v>39.97863124936666</v>
+        <v>28.03284658569145</v>
       </c>
       <c r="G21">
-        <v>41.74386715208793</v>
+        <v>22.09587862244102</v>
       </c>
       <c r="H21">
-        <v>11.31822872983822</v>
+        <v>1.992357806292703</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.704919137196307</v>
       </c>
       <c r="J21">
-        <v>4.220646827334405</v>
+        <v>8.911096348035713</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.07423228483543</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.376815841846481</v>
       </c>
       <c r="M21">
-        <v>21.30304457109827</v>
+        <v>12.36785491275531</v>
       </c>
       <c r="N21">
-        <v>10.11920299417311</v>
+        <v>9.123223903618799</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>12.48722607837815</v>
+      </c>
+      <c r="P21">
+        <v>12.58724668717628</v>
+      </c>
+      <c r="Q21">
+        <v>14.48443675828602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.66498455033887</v>
+        <v>16.19454441504089</v>
       </c>
       <c r="C22">
-        <v>18.73320318446571</v>
+        <v>8.656108223240107</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.76317267723823</v>
+        <v>11.80921081016668</v>
       </c>
       <c r="F22">
-        <v>41.2118090098571</v>
+        <v>28.50661123228247</v>
       </c>
       <c r="G22">
-        <v>43.27721268386365</v>
+        <v>22.30670403580392</v>
       </c>
       <c r="H22">
-        <v>11.54268723173054</v>
+        <v>1.855658431338659</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.599171466544002</v>
       </c>
       <c r="J22">
-        <v>4.157866453435868</v>
+        <v>8.891918208535801</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.05484252897656</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.462257343449336</v>
       </c>
       <c r="M22">
-        <v>22.11461786899011</v>
+        <v>12.73403104439772</v>
       </c>
       <c r="N22">
-        <v>9.889566338375442</v>
+        <v>9.298086695552367</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.80097900216263</v>
+      </c>
+      <c r="P22">
+        <v>12.49047949209823</v>
+      </c>
+      <c r="Q22">
+        <v>14.50458086710118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.12709831774063</v>
+        <v>15.90822736673631</v>
       </c>
       <c r="C23">
-        <v>18.38390666885006</v>
+        <v>8.623066079741779</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.59986679830208</v>
+        <v>11.71596088574756</v>
       </c>
       <c r="F23">
-        <v>40.55389103391651</v>
+        <v>28.27130329757188</v>
       </c>
       <c r="G23">
-        <v>42.45893589364833</v>
+        <v>22.22144384982014</v>
       </c>
       <c r="H23">
-        <v>11.42185378153634</v>
+        <v>1.927604691599277</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.643251471305657</v>
       </c>
       <c r="J23">
-        <v>4.191315243811974</v>
+        <v>8.906444870852768</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.07779094794882</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.414988812813381</v>
       </c>
       <c r="M23">
-        <v>21.68419521319461</v>
+        <v>12.54009197214192</v>
       </c>
       <c r="N23">
-        <v>10.01214443121441</v>
+        <v>9.200231617890168</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>12.63587901342015</v>
+      </c>
+      <c r="P23">
+        <v>12.54158134665908</v>
+      </c>
+      <c r="Q23">
+        <v>14.50484084290121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.01462513629227</v>
+        <v>14.74989805813472</v>
       </c>
       <c r="C24">
-        <v>17.01409201327739</v>
+        <v>8.502868062410942</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.97980770157782</v>
+        <v>11.35192907377347</v>
       </c>
       <c r="F24">
-        <v>38.05678004621693</v>
+        <v>27.35030239254324</v>
       </c>
       <c r="G24">
-        <v>39.35721964169573</v>
+        <v>21.87360591985266</v>
       </c>
       <c r="H24">
-        <v>10.9865947625469</v>
+        <v>2.207813994407376</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.835785367516222</v>
       </c>
       <c r="J24">
-        <v>4.319340843034425</v>
+        <v>8.959178317872208</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.15178818591849</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.234896433687237</v>
       </c>
       <c r="M24">
-        <v>19.99328360561939</v>
+        <v>11.77557589132319</v>
       </c>
       <c r="N24">
-        <v>10.47650929471712</v>
+        <v>8.830279559958647</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.98899728841089</v>
+      </c>
+      <c r="P24">
+        <v>12.73868778848162</v>
+      </c>
+      <c r="Q24">
+        <v>14.49863937975026</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.56892437273712</v>
+        <v>13.3833581133199</v>
       </c>
       <c r="C25">
-        <v>15.43268211140042</v>
+        <v>8.370368716897941</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>13.30953516026698</v>
+        <v>10.9473269277518</v>
       </c>
       <c r="F25">
-        <v>35.35512310858101</v>
+        <v>26.35776675828786</v>
       </c>
       <c r="G25">
-        <v>36.00606708776988</v>
+        <v>21.54219234570601</v>
       </c>
       <c r="H25">
-        <v>10.56264020260238</v>
+        <v>2.524569070480773</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.056344116264651</v>
       </c>
       <c r="J25">
-        <v>4.460704231304147</v>
+        <v>9.026527608215176</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.24864541011119</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.032112937222113</v>
       </c>
       <c r="M25">
-        <v>18.10905046749444</v>
+        <v>10.88825761804298</v>
       </c>
       <c r="N25">
-        <v>10.98052326790837</v>
+        <v>8.41742062920032</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.25264547204729</v>
+      </c>
+      <c r="P25">
+        <v>12.95741789843251</v>
+      </c>
+      <c r="Q25">
+        <v>14.51563878908586</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_42/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.34136928138111</v>
+        <v>12.16890489664387</v>
       </c>
       <c r="C2">
-        <v>8.261941751844509</v>
+        <v>7.858873927736893</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.64834984043599</v>
+        <v>10.58872222280989</v>
       </c>
       <c r="F2">
-        <v>25.67876335551806</v>
+        <v>25.2834780505286</v>
       </c>
       <c r="G2">
-        <v>21.40614431960836</v>
+        <v>20.19001672463305</v>
       </c>
       <c r="H2">
-        <v>2.768704730442909</v>
+        <v>2.685802628135933</v>
       </c>
       <c r="I2">
-        <v>3.203730549936112</v>
+        <v>3.084761619840503</v>
       </c>
       <c r="J2">
-        <v>9.095742911166942</v>
+        <v>9.279913948249643</v>
       </c>
       <c r="K2">
-        <v>15.36556653336162</v>
+        <v>14.90003836174798</v>
       </c>
       <c r="L2">
-        <v>5.871178622582715</v>
+        <v>12.24476507240395</v>
       </c>
       <c r="M2">
-        <v>10.1827592146048</v>
+        <v>9.770098491758766</v>
       </c>
       <c r="N2">
-        <v>8.090180041709205</v>
+        <v>5.850955952957722</v>
       </c>
       <c r="O2">
-        <v>10.68430457733254</v>
+        <v>10.20267709988268</v>
       </c>
       <c r="P2">
-        <v>13.12401455173239</v>
+        <v>8.266944469618629</v>
       </c>
       <c r="Q2">
-        <v>14.57567298241025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.64624638258271</v>
+      </c>
+      <c r="R2">
+        <v>13.01409400433146</v>
+      </c>
+      <c r="S2">
+        <v>14.25263913630148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.56902937993819</v>
+        <v>11.39928450713363</v>
       </c>
       <c r="C3">
-        <v>8.191336098599374</v>
+        <v>7.756337227337502</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.43672616755318</v>
+        <v>10.38776133020075</v>
       </c>
       <c r="F3">
-        <v>25.19809534346707</v>
+        <v>24.83757821567116</v>
       </c>
       <c r="G3">
-        <v>21.29450480927581</v>
+        <v>20.15583408388065</v>
       </c>
       <c r="H3">
-        <v>2.943608716122673</v>
+        <v>2.852270762591826</v>
       </c>
       <c r="I3">
-        <v>3.324797621522144</v>
+        <v>3.19369607288766</v>
       </c>
       <c r="J3">
-        <v>9.141319818895431</v>
+        <v>9.302682775703314</v>
       </c>
       <c r="K3">
-        <v>15.43460398342375</v>
+        <v>14.98384418949271</v>
       </c>
       <c r="L3">
-        <v>5.760484215826452</v>
+        <v>12.38334286344622</v>
       </c>
       <c r="M3">
-        <v>9.672605276378752</v>
+        <v>9.792872273316773</v>
       </c>
       <c r="N3">
-        <v>7.870438912151552</v>
+        <v>5.730782785532227</v>
       </c>
       <c r="O3">
-        <v>10.2799719870425</v>
+        <v>9.696670514926172</v>
       </c>
       <c r="P3">
-        <v>13.2406187348672</v>
+        <v>8.042605913231275</v>
       </c>
       <c r="Q3">
-        <v>14.61105547184191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.24362443397068</v>
+      </c>
+      <c r="R3">
+        <v>13.12095456766345</v>
+      </c>
+      <c r="S3">
+        <v>14.30320167827343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.06593752755234</v>
+        <v>10.89578026388234</v>
       </c>
       <c r="C4">
-        <v>8.147101182806962</v>
+        <v>7.692738731930107</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.30462586169664</v>
+        <v>10.26238502588313</v>
       </c>
       <c r="F4">
-        <v>24.90567276425459</v>
+        <v>24.56598680170687</v>
       </c>
       <c r="G4">
-        <v>21.234905074075</v>
+        <v>20.14469398041933</v>
       </c>
       <c r="H4">
-        <v>3.055226238034664</v>
+        <v>2.958533604746359</v>
       </c>
       <c r="I4">
-        <v>3.402811211923706</v>
+        <v>3.264187163917757</v>
       </c>
       <c r="J4">
-        <v>9.171525290931269</v>
+        <v>9.317627710336913</v>
       </c>
       <c r="K4">
-        <v>15.48028931239859</v>
+        <v>15.03771868342994</v>
       </c>
       <c r="L4">
-        <v>5.69055612252077</v>
+        <v>12.47091548396119</v>
       </c>
       <c r="M4">
-        <v>9.344131925630508</v>
+        <v>9.822848563738482</v>
       </c>
       <c r="N4">
-        <v>7.73354158248144</v>
+        <v>5.654986035606599</v>
       </c>
       <c r="O4">
-        <v>10.02405510955726</v>
+        <v>9.370978627888363</v>
       </c>
       <c r="P4">
-        <v>13.31396873329944</v>
+        <v>7.903247155102185</v>
       </c>
       <c r="Q4">
-        <v>14.6375079208577</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.988607610878521</v>
+      </c>
+      <c r="R4">
+        <v>13.18848526627442</v>
+      </c>
+      <c r="S4">
+        <v>14.33814224215985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.84925987406512</v>
+        <v>10.67833559050577</v>
       </c>
       <c r="C5">
-        <v>8.129585275091852</v>
+        <v>7.667838967372282</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.24944001442968</v>
+        <v>10.20997874318304</v>
       </c>
       <c r="F5">
-        <v>24.78223894742867</v>
+        <v>24.45082808228303</v>
       </c>
       <c r="G5">
-        <v>21.20518839120881</v>
+        <v>20.13479726026831</v>
       </c>
       <c r="H5">
-        <v>3.102026647420994</v>
+        <v>3.003103844557018</v>
       </c>
       <c r="I5">
-        <v>3.438158813827876</v>
+        <v>3.296909468737589</v>
       </c>
       <c r="J5">
-        <v>9.18320959487809</v>
+        <v>9.322738419805843</v>
       </c>
       <c r="K5">
-        <v>15.49636506017177</v>
+        <v>15.05693319412383</v>
       </c>
       <c r="L5">
-        <v>5.662039719452437</v>
+        <v>12.50385581524651</v>
       </c>
       <c r="M5">
-        <v>9.206476890771974</v>
+        <v>9.837428683834434</v>
       </c>
       <c r="N5">
-        <v>7.678760601485807</v>
+        <v>5.624096209570514</v>
       </c>
       <c r="O5">
-        <v>9.917524897303936</v>
+        <v>9.234524494307646</v>
       </c>
       <c r="P5">
-        <v>13.34421167840413</v>
+        <v>7.847570365471461</v>
       </c>
       <c r="Q5">
-        <v>14.64643742329909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.882397684896533</v>
+      </c>
+      <c r="R5">
+        <v>13.21644093628754</v>
+      </c>
+      <c r="S5">
+        <v>14.35030889400343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.80740275026471</v>
+        <v>10.63630678005981</v>
       </c>
       <c r="C6">
-        <v>8.127587808658122</v>
+        <v>7.665164232125655</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.23919858066656</v>
+        <v>10.20019934554092</v>
       </c>
       <c r="F6">
-        <v>24.75558038720679</v>
+        <v>24.42545712314076</v>
       </c>
       <c r="G6">
-        <v>21.19104862429807</v>
+        <v>20.12382298380474</v>
       </c>
       <c r="H6">
-        <v>3.110158199038702</v>
+        <v>3.010858359473663</v>
       </c>
       <c r="I6">
-        <v>3.44745766062631</v>
+        <v>3.306375863532999</v>
       </c>
       <c r="J6">
-        <v>9.183746459772957</v>
+        <v>9.322109817627993</v>
       </c>
       <c r="K6">
-        <v>15.49498138636864</v>
+        <v>15.05608149013406</v>
       </c>
       <c r="L6">
-        <v>5.657844751150014</v>
+        <v>12.5052479984556</v>
       </c>
       <c r="M6">
-        <v>9.183329101764015</v>
+        <v>9.838088612347102</v>
       </c>
       <c r="N6">
-        <v>7.671403736267175</v>
+        <v>5.619539253792591</v>
       </c>
       <c r="O6">
-        <v>9.89918108342718</v>
+        <v>9.211585575532469</v>
       </c>
       <c r="P6">
-        <v>13.34915075516735</v>
+        <v>7.840082856195527</v>
       </c>
       <c r="Q6">
-        <v>14.64430823511545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.864096314801793</v>
+      </c>
+      <c r="R6">
+        <v>13.22105925241318</v>
+      </c>
+      <c r="S6">
+        <v>14.34868655662327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.04851907530306</v>
+        <v>10.87584937877218</v>
       </c>
       <c r="C7">
-        <v>8.149422315644985</v>
+        <v>7.694598428425111</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.30104666643859</v>
+        <v>10.26149156630582</v>
       </c>
       <c r="F7">
-        <v>24.88715363427319</v>
+        <v>24.54013211505158</v>
       </c>
       <c r="G7">
-        <v>21.20906051718277</v>
+        <v>20.18540205426235</v>
       </c>
       <c r="H7">
-        <v>3.056643865821976</v>
+        <v>2.960274722151546</v>
       </c>
       <c r="I7">
-        <v>3.412191489271456</v>
+        <v>3.275536425196277</v>
       </c>
       <c r="J7">
-        <v>9.167766397273024</v>
+        <v>9.286605015192801</v>
       </c>
       <c r="K7">
-        <v>15.46931443569112</v>
+        <v>15.02277849784126</v>
       </c>
       <c r="L7">
-        <v>5.691734138053557</v>
+        <v>12.45639211228288</v>
       </c>
       <c r="M7">
-        <v>9.342114096372528</v>
+        <v>9.815106871441113</v>
       </c>
       <c r="N7">
-        <v>7.737578886894616</v>
+        <v>5.656948117032471</v>
       </c>
       <c r="O7">
-        <v>10.02113914082686</v>
+        <v>9.365309736651168</v>
       </c>
       <c r="P7">
-        <v>13.314122470476</v>
+        <v>7.908101452775185</v>
       </c>
       <c r="Q7">
-        <v>14.6275858937917</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.985455976792077</v>
+      </c>
+      <c r="R7">
+        <v>13.18879395550076</v>
+      </c>
+      <c r="S7">
+        <v>14.32173840733285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.0633021589841</v>
+        <v>11.884547759921</v>
       </c>
       <c r="C8">
-        <v>8.24133906948366</v>
+        <v>7.82311554669534</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.57223522884987</v>
+        <v>10.52495158076447</v>
       </c>
       <c r="F8">
-        <v>25.49083585563465</v>
+        <v>25.08396747758545</v>
       </c>
       <c r="G8">
-        <v>21.33247311632147</v>
+        <v>20.364503849747</v>
       </c>
       <c r="H8">
-        <v>2.829120567426926</v>
+        <v>2.744448248518145</v>
       </c>
       <c r="I8">
-        <v>3.256017006561831</v>
+        <v>3.136182553375318</v>
       </c>
       <c r="J8">
-        <v>9.105847282340532</v>
+        <v>9.194532356622807</v>
       </c>
       <c r="K8">
-        <v>15.37394726898575</v>
+        <v>14.90049645571431</v>
       </c>
       <c r="L8">
-        <v>5.835509305124419</v>
+        <v>12.26684165328927</v>
       </c>
       <c r="M8">
-        <v>10.00986078528642</v>
+        <v>9.757246706836471</v>
       </c>
       <c r="N8">
-        <v>8.020982033940472</v>
+        <v>5.814596759991927</v>
       </c>
       <c r="O8">
-        <v>10.54466549904849</v>
+        <v>10.01965739561418</v>
       </c>
       <c r="P8">
-        <v>13.16373067954951</v>
+        <v>8.198727003368781</v>
       </c>
       <c r="Q8">
-        <v>14.57366969219959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.50649178788004</v>
+      </c>
+      <c r="R8">
+        <v>13.05104135135502</v>
+      </c>
+      <c r="S8">
+        <v>14.23462316927698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.88051515439584</v>
+        <v>13.65032281456869</v>
       </c>
       <c r="C9">
-        <v>8.410143971597225</v>
+        <v>8.06917385791799</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.08971730602453</v>
+        <v>11.01900897080678</v>
       </c>
       <c r="F9">
-        <v>26.71959888398687</v>
+        <v>26.21919183466917</v>
       </c>
       <c r="G9">
-        <v>21.69222460274074</v>
+        <v>20.59640225549493</v>
       </c>
       <c r="H9">
-        <v>2.414690757022063</v>
+        <v>2.350311678305705</v>
       </c>
       <c r="I9">
-        <v>2.964135389187708</v>
+        <v>2.872676227341704</v>
       </c>
       <c r="J9">
-        <v>9.009401824294514</v>
+        <v>9.123999626915342</v>
       </c>
       <c r="K9">
-        <v>15.23364720984552</v>
+        <v>14.71471857512634</v>
       </c>
       <c r="L9">
-        <v>6.098698145200024</v>
+        <v>11.94653243397543</v>
       </c>
       <c r="M9">
-        <v>11.19566274386194</v>
+        <v>9.791653358276763</v>
       </c>
       <c r="N9">
-        <v>8.550344853181558</v>
+        <v>6.101586145232047</v>
       </c>
       <c r="O9">
-        <v>11.50798909838255</v>
+        <v>11.19442845741697</v>
       </c>
       <c r="P9">
-        <v>12.88264606207568</v>
+        <v>8.741797132182345</v>
       </c>
       <c r="Q9">
-        <v>14.52459929637687</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.46465554172304</v>
+      </c>
+      <c r="R9">
+        <v>12.79575085299663</v>
+      </c>
+      <c r="S9">
+        <v>14.13724244009953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.05585442286175</v>
+        <v>14.75728561395297</v>
       </c>
       <c r="C10">
-        <v>8.541085155107391</v>
+        <v>8.250894047743822</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.3469265532368</v>
+        <v>11.27545840609793</v>
       </c>
       <c r="F10">
-        <v>27.4669334825074</v>
+        <v>26.86443689421279</v>
       </c>
       <c r="G10">
-        <v>21.8893643883275</v>
+        <v>21.10066725825613</v>
       </c>
       <c r="H10">
-        <v>2.157674317248298</v>
+        <v>2.10899031836948</v>
       </c>
       <c r="I10">
-        <v>2.776494689513622</v>
+        <v>2.708105246060452</v>
       </c>
       <c r="J10">
-        <v>8.932538556604172</v>
+        <v>8.91780794157334</v>
       </c>
       <c r="K10">
-        <v>15.10233754241931</v>
+        <v>14.52781902081436</v>
       </c>
       <c r="L10">
-        <v>6.300668838682294</v>
+        <v>11.67779751848273</v>
       </c>
       <c r="M10">
-        <v>11.98736700378832</v>
+        <v>9.841818469237513</v>
       </c>
       <c r="N10">
-        <v>8.841978499453205</v>
+        <v>6.325382938246888</v>
       </c>
       <c r="O10">
-        <v>12.10104988617303</v>
+        <v>11.96174567942892</v>
       </c>
       <c r="P10">
-        <v>12.68670937098356</v>
+        <v>9.047419292513224</v>
       </c>
       <c r="Q10">
-        <v>14.4684411351672</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.05250407216438</v>
+      </c>
+      <c r="R10">
+        <v>12.62310612058361</v>
+      </c>
+      <c r="S10">
+        <v>14.00826271580962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.28861902543716</v>
+        <v>14.97171330611746</v>
       </c>
       <c r="C11">
-        <v>8.701815305826626</v>
+        <v>8.440987097797874</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.56371125875183</v>
+        <v>10.52037133174102</v>
       </c>
       <c r="F11">
-        <v>26.48492262030346</v>
+        <v>25.81873878162335</v>
       </c>
       <c r="G11">
-        <v>21.06811489561224</v>
+        <v>21.1409571909448</v>
       </c>
       <c r="H11">
-        <v>3.039733229994735</v>
+        <v>3.010082868132279</v>
       </c>
       <c r="I11">
-        <v>2.74457234146079</v>
+        <v>2.689202976952111</v>
       </c>
       <c r="J11">
-        <v>8.757509279640161</v>
+        <v>8.515156166688403</v>
       </c>
       <c r="K11">
-        <v>14.68512548687792</v>
+        <v>14.09651950281425</v>
       </c>
       <c r="L11">
-        <v>6.560955175717583</v>
+        <v>11.32180754651143</v>
       </c>
       <c r="M11">
-        <v>12.32355673196264</v>
+        <v>9.57840245055479</v>
       </c>
       <c r="N11">
-        <v>8.25408713705318</v>
+        <v>6.608381740918672</v>
       </c>
       <c r="O11">
-        <v>11.77142936628111</v>
+        <v>12.25860032663145</v>
       </c>
       <c r="P11">
-        <v>12.62929593095092</v>
+        <v>8.459417265796707</v>
       </c>
       <c r="Q11">
-        <v>14.07899612816897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.72142993360471</v>
+      </c>
+      <c r="R11">
+        <v>12.59370594153902</v>
+      </c>
+      <c r="S11">
+        <v>13.56071721801828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.26230154646537</v>
+        <v>14.95089672247055</v>
       </c>
       <c r="C12">
-        <v>8.827147956106659</v>
+        <v>8.577259548997777</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.901771742578456</v>
+        <v>9.869597250255538</v>
       </c>
       <c r="F12">
-        <v>25.50714663655835</v>
+        <v>24.83414051699182</v>
       </c>
       <c r="G12">
-        <v>20.35771481713882</v>
+        <v>20.84422821463088</v>
       </c>
       <c r="H12">
-        <v>4.343121728772366</v>
+        <v>4.323022770808046</v>
       </c>
       <c r="I12">
-        <v>2.737495888024968</v>
+        <v>2.684417869534292</v>
       </c>
       <c r="J12">
-        <v>8.629981538922031</v>
+        <v>8.333163825656422</v>
       </c>
       <c r="K12">
-        <v>14.37986909019655</v>
+        <v>13.80808529592351</v>
       </c>
       <c r="L12">
-        <v>6.752525642272037</v>
+        <v>11.11173462878604</v>
       </c>
       <c r="M12">
-        <v>12.44648781300707</v>
+        <v>9.363273091319904</v>
       </c>
       <c r="N12">
-        <v>7.702129226478494</v>
+        <v>6.811523941962168</v>
       </c>
       <c r="O12">
-        <v>11.3650364516473</v>
+        <v>12.3636032403026</v>
       </c>
       <c r="P12">
-        <v>12.63097613157526</v>
+        <v>7.900412112774581</v>
       </c>
       <c r="Q12">
-        <v>13.77265547251013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.31578026936896</v>
+      </c>
+      <c r="R12">
+        <v>12.61316100687817</v>
+      </c>
+      <c r="S12">
+        <v>13.24680864345526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.01788105558738</v>
+        <v>14.73559581744411</v>
       </c>
       <c r="C13">
-        <v>8.934784983374954</v>
+        <v>8.695022803150785</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.296167946586001</v>
+        <v>9.260539492118083</v>
       </c>
       <c r="F13">
-        <v>24.43817838854251</v>
+        <v>23.81661699967397</v>
       </c>
       <c r="G13">
-        <v>19.64721471217413</v>
+        <v>20.04617065677392</v>
       </c>
       <c r="H13">
-        <v>5.725919510308121</v>
+        <v>5.709351248324187</v>
       </c>
       <c r="I13">
-        <v>2.764042444151572</v>
+        <v>2.707303806906074</v>
       </c>
       <c r="J13">
-        <v>8.525398188192051</v>
+        <v>8.298549537178374</v>
       </c>
       <c r="K13">
-        <v>14.12638363535167</v>
+        <v>13.60204804991483</v>
       </c>
       <c r="L13">
-        <v>6.904908090659053</v>
+        <v>10.98107494387583</v>
       </c>
       <c r="M13">
-        <v>12.41600798558301</v>
+        <v>9.171232579535108</v>
       </c>
       <c r="N13">
-        <v>7.14862064871429</v>
+        <v>6.964140593270479</v>
       </c>
       <c r="O13">
-        <v>10.86454020866758</v>
+        <v>12.33777507426582</v>
       </c>
       <c r="P13">
-        <v>12.67560304336611</v>
+        <v>7.333122424244737</v>
       </c>
       <c r="Q13">
-        <v>13.49630958199065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>10.81813764240767</v>
+      </c>
+      <c r="R13">
+        <v>12.66423333941024</v>
+      </c>
+      <c r="S13">
+        <v>13.01432024428196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.74123060250065</v>
+        <v>14.4902739382616</v>
       </c>
       <c r="C14">
-        <v>9.005727891591917</v>
+        <v>8.774311480444087</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.914367750241547</v>
+        <v>8.872529731573396</v>
       </c>
       <c r="F14">
-        <v>23.64257229032965</v>
+        <v>23.08168087377285</v>
       </c>
       <c r="G14">
-        <v>19.14515730153879</v>
+        <v>19.27228312518912</v>
       </c>
       <c r="H14">
-        <v>6.716424745441888</v>
+        <v>6.700787268781898</v>
       </c>
       <c r="I14">
-        <v>2.800797372621578</v>
+        <v>2.739399753653438</v>
       </c>
       <c r="J14">
-        <v>8.462187592854749</v>
+        <v>8.32802991935681</v>
       </c>
       <c r="K14">
-        <v>13.97235183618021</v>
+        <v>13.49203129491884</v>
       </c>
       <c r="L14">
-        <v>6.996130441384249</v>
+        <v>10.91935416130194</v>
       </c>
       <c r="M14">
-        <v>12.32489802551197</v>
+        <v>9.048618403629119</v>
       </c>
       <c r="N14">
-        <v>6.766752777596456</v>
+        <v>7.049837397754441</v>
       </c>
       <c r="O14">
-        <v>10.46686614778145</v>
+        <v>12.25993765982574</v>
       </c>
       <c r="P14">
-        <v>12.72654785678117</v>
+        <v>6.93916421270697</v>
       </c>
       <c r="Q14">
-        <v>13.31547400193429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.42331311036266</v>
+      </c>
+      <c r="R14">
+        <v>12.71335654913905</v>
+      </c>
+      <c r="S14">
+        <v>12.88443076451465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.62162734660018</v>
+        <v>14.38309790121926</v>
       </c>
       <c r="C15">
-        <v>9.019229115700215</v>
+        <v>8.791239060066284</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.826878206857494</v>
+        <v>8.782477846689659</v>
       </c>
       <c r="F15">
-        <v>23.42590548859181</v>
+        <v>22.89016793073035</v>
       </c>
       <c r="G15">
-        <v>19.01667625489753</v>
+        <v>18.99111406263849</v>
       </c>
       <c r="H15">
-        <v>6.948177151432149</v>
+        <v>6.93233251661057</v>
       </c>
       <c r="I15">
-        <v>2.821649651617586</v>
+        <v>2.758650818824071</v>
       </c>
       <c r="J15">
-        <v>8.450796261203221</v>
+        <v>8.359082036988253</v>
       </c>
       <c r="K15">
-        <v>13.94266762613795</v>
+        <v>13.47769170303809</v>
       </c>
       <c r="L15">
-        <v>7.008856542076286</v>
+        <v>10.9152064921905</v>
       </c>
       <c r="M15">
-        <v>12.26943239606156</v>
+        <v>9.022095296112932</v>
       </c>
       <c r="N15">
-        <v>6.673401242657196</v>
+        <v>7.058887869929944</v>
       </c>
       <c r="O15">
-        <v>10.34947887569135</v>
+        <v>12.21205862002329</v>
       </c>
       <c r="P15">
-        <v>12.74709129904122</v>
+        <v>6.842066497960933</v>
       </c>
       <c r="Q15">
-        <v>13.27549503459699</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.30697946319615</v>
+      </c>
+      <c r="R15">
+        <v>12.73086944122134</v>
+      </c>
+      <c r="S15">
+        <v>12.865346707294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.16515639915651</v>
+        <v>13.96827634467613</v>
       </c>
       <c r="C16">
-        <v>8.940537422742212</v>
+        <v>8.71696051177741</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.830710716463825</v>
+        <v>8.776799889044712</v>
       </c>
       <c r="F16">
-        <v>23.2882919088491</v>
+        <v>22.83996103759031</v>
       </c>
       <c r="G16">
-        <v>19.05180903941125</v>
+        <v>18.33695395079491</v>
       </c>
       <c r="H16">
-        <v>6.756277887490765</v>
+        <v>6.736232649961549</v>
       </c>
       <c r="I16">
-        <v>2.901908231107112</v>
+        <v>2.828143903233985</v>
       </c>
       <c r="J16">
-        <v>8.502545321825389</v>
+        <v>8.593713810277798</v>
       </c>
       <c r="K16">
-        <v>14.04607628676697</v>
+        <v>13.61927170655205</v>
       </c>
       <c r="L16">
-        <v>6.895450928572525</v>
+        <v>11.03820695761831</v>
       </c>
       <c r="M16">
-        <v>11.94881099343616</v>
+        <v>9.074134631373694</v>
       </c>
       <c r="N16">
-        <v>6.650165368688941</v>
+        <v>6.926067077858777</v>
       </c>
       <c r="O16">
-        <v>10.17794016724299</v>
+        <v>11.92783693555925</v>
       </c>
       <c r="P16">
-        <v>12.81399665656107</v>
+        <v>6.812182841593373</v>
       </c>
       <c r="Q16">
-        <v>13.34928591342724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.138567445694</v>
+      </c>
+      <c r="R16">
+        <v>12.77594069678014</v>
+      </c>
+      <c r="S16">
+        <v>13.0095989107667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.96147906482009</v>
+        <v>13.77654391748958</v>
       </c>
       <c r="C17">
-        <v>8.840866335511929</v>
+        <v>8.60986057398879</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.028082952122048</v>
+        <v>8.968849443372246</v>
       </c>
       <c r="F17">
-        <v>23.61182965406208</v>
+        <v>23.18982894060071</v>
       </c>
       <c r="G17">
-        <v>19.34692038231383</v>
+        <v>18.34408791916418</v>
       </c>
       <c r="H17">
-        <v>6.053598960348277</v>
+        <v>6.028974696775018</v>
       </c>
       <c r="I17">
-        <v>2.94473562703465</v>
+        <v>2.865734158510484</v>
       </c>
       <c r="J17">
-        <v>8.575739723041908</v>
+        <v>8.748298133336602</v>
       </c>
       <c r="K17">
-        <v>14.20561584444701</v>
+        <v>13.78283841910998</v>
       </c>
       <c r="L17">
-        <v>6.757206848386998</v>
+        <v>11.17075020378678</v>
       </c>
       <c r="M17">
-        <v>11.74853565124269</v>
+        <v>9.171844388781672</v>
       </c>
       <c r="N17">
-        <v>6.834596127402509</v>
+        <v>6.778273016501688</v>
       </c>
       <c r="O17">
-        <v>10.26344762577946</v>
+        <v>11.74373667881581</v>
       </c>
       <c r="P17">
-        <v>12.83940099094352</v>
+        <v>6.997967087754583</v>
       </c>
       <c r="Q17">
-        <v>13.50165551978024</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.2247388160623</v>
+      </c>
+      <c r="R17">
+        <v>12.78884516318088</v>
+      </c>
+      <c r="S17">
+        <v>13.1824735088696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.96982153305974</v>
+        <v>13.77627810087581</v>
       </c>
       <c r="C18">
-        <v>8.715838327636975</v>
+        <v>8.469076114856698</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.460537730483054</v>
+        <v>9.39481625793889</v>
       </c>
       <c r="F18">
-        <v>24.37963706211317</v>
+        <v>23.94890177357213</v>
       </c>
       <c r="G18">
-        <v>19.91490178227357</v>
+        <v>18.77049933712297</v>
       </c>
       <c r="H18">
-        <v>4.869567380321277</v>
+        <v>4.838150745311435</v>
       </c>
       <c r="I18">
-        <v>2.948639416340802</v>
+        <v>2.866302376755488</v>
       </c>
       <c r="J18">
-        <v>8.678136628253862</v>
+        <v>8.87946568780321</v>
       </c>
       <c r="K18">
-        <v>14.44229713330265</v>
+        <v>14.002029469729</v>
       </c>
       <c r="L18">
-        <v>6.587066388661704</v>
+        <v>11.34163141307866</v>
       </c>
       <c r="M18">
-        <v>11.6335831896939</v>
+        <v>9.328216214348805</v>
       </c>
       <c r="N18">
-        <v>7.232484159210392</v>
+        <v>6.603274429323597</v>
       </c>
       <c r="O18">
-        <v>10.58149524996494</v>
+        <v>11.63555903177541</v>
       </c>
       <c r="P18">
-        <v>12.83496647265078</v>
+        <v>7.402311671861125</v>
       </c>
       <c r="Q18">
-        <v>13.74547426153499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.54190840844131</v>
+      </c>
+      <c r="R18">
+        <v>12.77558640529848</v>
+      </c>
+      <c r="S18">
+        <v>13.41991461585467</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.12679350659716</v>
+        <v>13.91064386779432</v>
       </c>
       <c r="C19">
-        <v>8.606178978275439</v>
+        <v>8.341228125879606</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.10329303632508</v>
+        <v>10.02989790307211</v>
       </c>
       <c r="F19">
-        <v>25.42024553255871</v>
+        <v>24.95856387207748</v>
       </c>
       <c r="G19">
-        <v>20.61942432770779</v>
+        <v>19.39961648473773</v>
       </c>
       <c r="H19">
-        <v>3.515045816077896</v>
+        <v>3.47299139781079</v>
       </c>
       <c r="I19">
-        <v>2.938571295962638</v>
+        <v>2.858406841597755</v>
       </c>
       <c r="J19">
-        <v>8.79057696848213</v>
+        <v>8.991335636934632</v>
       </c>
       <c r="K19">
-        <v>14.71288488567863</v>
+        <v>14.24163290138257</v>
       </c>
       <c r="L19">
-        <v>6.418542858050843</v>
+        <v>11.52425653046794</v>
       </c>
       <c r="M19">
-        <v>11.59749559313016</v>
+        <v>9.512274112151211</v>
       </c>
       <c r="N19">
-        <v>7.799130793708871</v>
+        <v>6.432416229859453</v>
       </c>
       <c r="O19">
-        <v>11.05664186629449</v>
+        <v>11.60089291912618</v>
       </c>
       <c r="P19">
-        <v>12.81419375991802</v>
+        <v>7.978655325153179</v>
       </c>
       <c r="Q19">
-        <v>14.02991200612455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.01511783979378</v>
+      </c>
+      <c r="R19">
+        <v>12.74816485194909</v>
+      </c>
+      <c r="S19">
+        <v>13.6818270849755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.72125829316173</v>
+        <v>14.44697675723825</v>
       </c>
       <c r="C20">
-        <v>8.51706747172166</v>
+        <v>8.226756084335033</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.26755403117954</v>
+        <v>11.18729920249822</v>
       </c>
       <c r="F20">
-        <v>27.21643008619153</v>
+        <v>26.66401485137437</v>
       </c>
       <c r="G20">
-        <v>21.75429030887636</v>
+        <v>20.64329737377402</v>
       </c>
       <c r="H20">
-        <v>2.225457752880976</v>
+        <v>2.171623010970164</v>
       </c>
       <c r="I20">
-        <v>2.855142994245635</v>
+        <v>2.785252577315914</v>
       </c>
       <c r="J20">
-        <v>8.939313102571587</v>
+        <v>9.04795454563515</v>
       </c>
       <c r="K20">
-        <v>15.09974576166891</v>
+        <v>14.55585711234609</v>
       </c>
       <c r="L20">
-        <v>6.25410210801201</v>
+        <v>11.73210118229307</v>
       </c>
       <c r="M20">
-        <v>11.78447931758892</v>
+        <v>9.8079588484742</v>
       </c>
       <c r="N20">
-        <v>8.775527337495337</v>
+        <v>6.270809711404035</v>
       </c>
       <c r="O20">
-        <v>11.94118548026927</v>
+        <v>11.77591664990259</v>
       </c>
       <c r="P20">
-        <v>12.73845304544008</v>
+        <v>8.974809145774513</v>
       </c>
       <c r="Q20">
-        <v>14.44908616510463</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.8947228627154</v>
+      </c>
+      <c r="R20">
+        <v>12.66845894264297</v>
+      </c>
+      <c r="S20">
+        <v>14.031920354547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.63033258326076</v>
+        <v>15.26565377759468</v>
       </c>
       <c r="C21">
-        <v>8.601052766259469</v>
+        <v>8.307775761486912</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.62856979132513</v>
+        <v>11.59490267811939</v>
       </c>
       <c r="F21">
-        <v>28.03284658569145</v>
+        <v>27.27189886938502</v>
       </c>
       <c r="G21">
-        <v>22.09587862244102</v>
+        <v>22.50804871471361</v>
       </c>
       <c r="H21">
-        <v>1.992357806292703</v>
+        <v>1.955302218661723</v>
       </c>
       <c r="I21">
-        <v>2.704919137196307</v>
+        <v>2.657800520616873</v>
       </c>
       <c r="J21">
-        <v>8.911096348035713</v>
+        <v>8.509205689147899</v>
       </c>
       <c r="K21">
-        <v>15.07423228483543</v>
+        <v>14.40263103933189</v>
       </c>
       <c r="L21">
-        <v>6.376815841846481</v>
+        <v>11.52589812320683</v>
       </c>
       <c r="M21">
-        <v>12.36785491275531</v>
+        <v>9.852998177617234</v>
       </c>
       <c r="N21">
-        <v>9.123223903618799</v>
+        <v>6.423204651139783</v>
       </c>
       <c r="O21">
-        <v>12.48722607837815</v>
+        <v>12.28619762847689</v>
       </c>
       <c r="P21">
-        <v>12.58724668717628</v>
+        <v>9.349352588736618</v>
       </c>
       <c r="Q21">
-        <v>14.48443675828602</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.43234808365141</v>
+      </c>
+      <c r="R21">
+        <v>12.54069208148113</v>
+      </c>
+      <c r="S21">
+        <v>13.88191292341483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.19454441504089</v>
+        <v>15.77285307391423</v>
       </c>
       <c r="C22">
-        <v>8.656108223240107</v>
+        <v>8.360203409814369</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.80921081016668</v>
+        <v>11.81121379370463</v>
       </c>
       <c r="F22">
-        <v>28.50661123228247</v>
+        <v>27.60413219093895</v>
       </c>
       <c r="G22">
-        <v>22.30670403580392</v>
+        <v>23.8613898092697</v>
       </c>
       <c r="H22">
-        <v>1.855658431338659</v>
+        <v>1.829235428410958</v>
       </c>
       <c r="I22">
-        <v>2.599171466544002</v>
+        <v>2.564126700147985</v>
       </c>
       <c r="J22">
-        <v>8.891918208535801</v>
+        <v>8.209087843454361</v>
       </c>
       <c r="K22">
-        <v>15.05484252897656</v>
+        <v>14.29343384664513</v>
       </c>
       <c r="L22">
-        <v>6.462257343449336</v>
+        <v>11.38855236931292</v>
       </c>
       <c r="M22">
-        <v>12.73403104439772</v>
+        <v>9.883303898776328</v>
       </c>
       <c r="N22">
-        <v>9.298086695552367</v>
+        <v>6.529137492763476</v>
       </c>
       <c r="O22">
-        <v>12.80097900216263</v>
+        <v>12.60283807158984</v>
       </c>
       <c r="P22">
-        <v>12.49047949209823</v>
+        <v>9.542094068631144</v>
       </c>
       <c r="Q22">
-        <v>14.50458086710118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.74043372057283</v>
+      </c>
+      <c r="R22">
+        <v>12.46141481232455</v>
+      </c>
+      <c r="S22">
+        <v>13.77011057803584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.90822736673631</v>
+        <v>15.52160892728827</v>
       </c>
       <c r="C23">
-        <v>8.623066079741779</v>
+        <v>8.330961534736964</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.71596088574756</v>
+        <v>11.69197929167728</v>
       </c>
       <c r="F23">
-        <v>28.27130329757188</v>
+        <v>27.46145376525981</v>
       </c>
       <c r="G23">
-        <v>22.22144384982014</v>
+        <v>22.97848627467948</v>
       </c>
       <c r="H23">
-        <v>1.927604691599277</v>
+        <v>1.89497203831499</v>
       </c>
       <c r="I23">
-        <v>2.643251471305657</v>
+        <v>2.598884578952223</v>
       </c>
       <c r="J23">
-        <v>8.906444870852768</v>
+        <v>8.406689582672163</v>
       </c>
       <c r="K23">
-        <v>15.07779094794882</v>
+        <v>14.37430242195337</v>
       </c>
       <c r="L23">
-        <v>6.414988812813381</v>
+        <v>11.4763822185296</v>
       </c>
       <c r="M23">
-        <v>12.54009197214192</v>
+        <v>9.886128700070259</v>
       </c>
       <c r="N23">
-        <v>9.200231617890168</v>
+        <v>6.468814511142451</v>
       </c>
       <c r="O23">
-        <v>12.63587901342015</v>
+        <v>12.4426455287557</v>
       </c>
       <c r="P23">
-        <v>12.54158134665908</v>
+        <v>9.432678705929732</v>
       </c>
       <c r="Q23">
-        <v>14.50484084290121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.57890497789327</v>
+      </c>
+      <c r="R23">
+        <v>12.50146819673592</v>
+      </c>
+      <c r="S23">
+        <v>13.85775780616332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.74989805813472</v>
+        <v>14.47408183308342</v>
       </c>
       <c r="C24">
-        <v>8.502868062410942</v>
+        <v>8.205908741678293</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.35192907377347</v>
+        <v>11.27067994742773</v>
       </c>
       <c r="F24">
-        <v>27.35030239254324</v>
+        <v>26.79613308684226</v>
       </c>
       <c r="G24">
-        <v>21.87360591985266</v>
+        <v>20.74674329347897</v>
       </c>
       <c r="H24">
-        <v>2.207813994407376</v>
+        <v>2.153856738193817</v>
       </c>
       <c r="I24">
-        <v>2.835785367516222</v>
+        <v>2.762377695922736</v>
       </c>
       <c r="J24">
-        <v>8.959178317872208</v>
+        <v>9.070548165952919</v>
       </c>
       <c r="K24">
-        <v>15.15178818591849</v>
+        <v>14.60430301532974</v>
       </c>
       <c r="L24">
-        <v>6.234896433687237</v>
+        <v>11.76928715334557</v>
       </c>
       <c r="M24">
-        <v>11.77557589132319</v>
+        <v>9.844580082065692</v>
       </c>
       <c r="N24">
-        <v>8.830279559958647</v>
+        <v>6.250672623449373</v>
       </c>
       <c r="O24">
-        <v>11.98899728841089</v>
+        <v>11.76758718884405</v>
       </c>
       <c r="P24">
-        <v>12.73868778848162</v>
+        <v>9.030292834392112</v>
       </c>
       <c r="Q24">
-        <v>14.49863937975026</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.94240100460633</v>
+      </c>
+      <c r="R24">
+        <v>12.66694101462754</v>
+      </c>
+      <c r="S24">
+        <v>14.07979271383452</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.3833581133199</v>
+        <v>13.17979702813822</v>
       </c>
       <c r="C25">
-        <v>8.370368716897941</v>
+        <v>8.014501767311629</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.9473269277518</v>
+        <v>10.87911220965414</v>
       </c>
       <c r="F25">
-        <v>26.35776675828786</v>
+        <v>25.89232129172522</v>
       </c>
       <c r="G25">
-        <v>21.54219234570601</v>
+        <v>20.38386911952585</v>
       </c>
       <c r="H25">
-        <v>2.524569070480773</v>
+        <v>2.454372855683715</v>
       </c>
       <c r="I25">
-        <v>3.056344116264651</v>
+        <v>2.959762767894743</v>
       </c>
       <c r="J25">
-        <v>9.026527608215176</v>
+        <v>9.172396263388286</v>
       </c>
       <c r="K25">
-        <v>15.24864541011119</v>
+        <v>14.74913876802067</v>
       </c>
       <c r="L25">
-        <v>6.032112937222113</v>
+        <v>12.02017227947219</v>
       </c>
       <c r="M25">
-        <v>10.88825761804298</v>
+        <v>9.758606577697226</v>
       </c>
       <c r="N25">
-        <v>8.41742062920032</v>
+        <v>6.027790391849504</v>
       </c>
       <c r="O25">
-        <v>11.25264547204729</v>
+        <v>10.89444944613352</v>
       </c>
       <c r="P25">
-        <v>12.95741789843251</v>
+        <v>8.603968824729771</v>
       </c>
       <c r="Q25">
-        <v>14.51563878908586</v>
+        <v>11.2110806856587</v>
+      </c>
+      <c r="R25">
+        <v>12.86355967288494</v>
+      </c>
+      <c r="S25">
+        <v>14.1514454800206</v>
       </c>
     </row>
   </sheetData>
